--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\litfind\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\litfind\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BFF2E3-CEA8-44D4-8B5A-4115BE7C0AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0570EF0A-3D31-473D-8DEE-CCF9D624E9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3021" uniqueCount="1513">
   <si>
     <t>강경애</t>
   </si>
@@ -5626,8 +5626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A871A3E-29B2-4725-A114-674E3D4FE56E}">
   <dimension ref="A1:J650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E631" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J650" sqref="J650"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -5655,7 +5655,9 @@
         <v>628</v>
       </c>
       <c r="I1" s="4"/>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>1511</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\litfind\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DE58B6-F1EE-472F-AA66-C9B7283045FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B6F765-2764-4018-AAB4-2C4AAFAA1BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6232,10 +6232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1404B@, 1405B@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>양응수</t>
   </si>
   <si>
@@ -7773,6 +7769,10 @@
   </si>
   <si>
     <t>essay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1404B@, 1405B(전북)@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8162,8 +8162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A871A3E-29B2-4725-A114-674E3D4FE56E}">
   <dimension ref="A1:J1086"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A641" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E651" sqref="E651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -18328,7 +18328,7 @@
         <v>982</v>
       </c>
       <c r="J477" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.4">
@@ -18348,7 +18348,7 @@
       </c>
       <c r="I478" s="7"/>
       <c r="J478" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.4">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="I479" s="7"/>
       <c r="J479" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.4">
@@ -18388,7 +18388,7 @@
       </c>
       <c r="I480" s="7"/>
       <c r="J480" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.4">
@@ -18410,7 +18410,7 @@
       <c r="H481" s="8"/>
       <c r="I481" s="7"/>
       <c r="J481" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.4">
@@ -18432,7 +18432,7 @@
       </c>
       <c r="I482" s="7"/>
       <c r="J482" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.4">
@@ -18452,7 +18452,7 @@
       <c r="H483" s="8"/>
       <c r="I483" s="7"/>
       <c r="J483" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.4">
@@ -18472,7 +18472,7 @@
       <c r="H484" s="8"/>
       <c r="I484" s="7"/>
       <c r="J484" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.4">
@@ -18492,7 +18492,7 @@
         <v>1145</v>
       </c>
       <c r="J485" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.4">
@@ -18512,7 +18512,7 @@
       <c r="H486" s="8"/>
       <c r="I486" s="7"/>
       <c r="J486" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.4">
@@ -18534,7 +18534,7 @@
       </c>
       <c r="I487" s="7"/>
       <c r="J487" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.4">
@@ -18556,7 +18556,7 @@
       </c>
       <c r="I488" s="7"/>
       <c r="J488" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.4">
@@ -18576,7 +18576,7 @@
       </c>
       <c r="I489" s="7"/>
       <c r="J489" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.4">
@@ -18596,7 +18596,7 @@
       </c>
       <c r="I490" s="7"/>
       <c r="J490" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.4">
@@ -18616,7 +18616,7 @@
       </c>
       <c r="I491" s="7"/>
       <c r="J491" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.4">
@@ -18636,7 +18636,7 @@
       <c r="H492" s="8"/>
       <c r="I492" s="7"/>
       <c r="J492" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.4">
@@ -18658,7 +18658,7 @@
         <v>1140</v>
       </c>
       <c r="J493" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.4">
@@ -18680,7 +18680,7 @@
       </c>
       <c r="I494" s="7"/>
       <c r="J494" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.4">
@@ -18700,7 +18700,7 @@
       <c r="H495" s="8"/>
       <c r="I495" s="7"/>
       <c r="J495" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.4">
@@ -18720,7 +18720,7 @@
       <c r="H496" s="8"/>
       <c r="I496" s="7"/>
       <c r="J496" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.4">
@@ -18740,7 +18740,7 @@
       <c r="H497" s="8"/>
       <c r="I497" s="7"/>
       <c r="J497" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.4">
@@ -18760,7 +18760,7 @@
       <c r="H498" s="8"/>
       <c r="I498" s="7"/>
       <c r="J498" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.4">
@@ -18780,7 +18780,7 @@
       </c>
       <c r="I499" s="7"/>
       <c r="J499" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.4">
@@ -18800,7 +18800,7 @@
       <c r="H500" s="8"/>
       <c r="I500" s="7"/>
       <c r="J500" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.4">
@@ -18820,7 +18820,7 @@
       </c>
       <c r="I501" s="7"/>
       <c r="J501" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.4">
@@ -18840,7 +18840,7 @@
       <c r="H502" s="8"/>
       <c r="I502" s="7"/>
       <c r="J502" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.4">
@@ -18862,7 +18862,7 @@
       <c r="H503" s="8"/>
       <c r="I503" s="7"/>
       <c r="J503" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.4">
@@ -18882,7 +18882,7 @@
       <c r="H504" s="8"/>
       <c r="I504" s="7"/>
       <c r="J504" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.4">
@@ -18902,7 +18902,7 @@
       <c r="H505" s="8"/>
       <c r="I505" s="7"/>
       <c r="J505" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.4">
@@ -18922,7 +18922,7 @@
       <c r="H506" s="8"/>
       <c r="I506" s="7"/>
       <c r="J506" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.4">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="I507" s="7"/>
       <c r="J507" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.4">
@@ -18966,7 +18966,7 @@
       </c>
       <c r="I508" s="7"/>
       <c r="J508" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.4">
@@ -18986,7 +18986,7 @@
       </c>
       <c r="I509" s="7"/>
       <c r="J509" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.4">
@@ -19006,7 +19006,7 @@
       </c>
       <c r="I510" s="7"/>
       <c r="J510" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.4">
@@ -19026,7 +19026,7 @@
       </c>
       <c r="I511" s="7"/>
       <c r="J511" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.4">
@@ -19050,7 +19050,7 @@
       </c>
       <c r="I512" s="7"/>
       <c r="J512" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.4">
@@ -19074,7 +19074,7 @@
       </c>
       <c r="I513" s="7"/>
       <c r="J513" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.4">
@@ -19094,7 +19094,7 @@
       </c>
       <c r="I514" s="7"/>
       <c r="J514" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.4">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="I515" s="7"/>
       <c r="J515" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.4">
@@ -19138,7 +19138,7 @@
       <c r="H516" s="8"/>
       <c r="I516" s="7"/>
       <c r="J516" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.4">
@@ -19158,7 +19158,7 @@
       <c r="H517" s="8"/>
       <c r="I517" s="7"/>
       <c r="J517" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.4">
@@ -19180,7 +19180,7 @@
       </c>
       <c r="I518" s="7"/>
       <c r="J518" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.4">
@@ -19202,7 +19202,7 @@
       </c>
       <c r="I519" s="7"/>
       <c r="J519" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.4">
@@ -19222,7 +19222,7 @@
       </c>
       <c r="I520" s="7"/>
       <c r="J520" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.4">
@@ -19242,7 +19242,7 @@
       <c r="H521" s="8"/>
       <c r="I521" s="7"/>
       <c r="J521" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.4">
@@ -19262,7 +19262,7 @@
       <c r="H522" s="8"/>
       <c r="I522" s="7"/>
       <c r="J522" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.4">
@@ -19282,7 +19282,7 @@
       <c r="H523" s="8"/>
       <c r="I523" s="7"/>
       <c r="J523" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.4">
@@ -19302,7 +19302,7 @@
       </c>
       <c r="I524" s="7"/>
       <c r="J524" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.4">
@@ -19322,7 +19322,7 @@
       <c r="H525" s="8"/>
       <c r="I525" s="7"/>
       <c r="J525" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.4">
@@ -19342,7 +19342,7 @@
       </c>
       <c r="I526" s="7"/>
       <c r="J526" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.4">
@@ -19364,7 +19364,7 @@
       </c>
       <c r="I527" s="7"/>
       <c r="J527" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.4">
@@ -19384,7 +19384,7 @@
       <c r="H528" s="8"/>
       <c r="I528" s="7"/>
       <c r="J528" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.4">
@@ -19404,7 +19404,7 @@
       <c r="H529" s="8"/>
       <c r="I529" s="7"/>
       <c r="J529" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.4">
@@ -19424,7 +19424,7 @@
       <c r="H530" s="8"/>
       <c r="I530" s="7"/>
       <c r="J530" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.4">
@@ -19446,7 +19446,7 @@
       </c>
       <c r="I531" s="7"/>
       <c r="J531" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.4">
@@ -19466,7 +19466,7 @@
       <c r="H532" s="8"/>
       <c r="I532" s="7"/>
       <c r="J532" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.4">
@@ -19486,7 +19486,7 @@
       </c>
       <c r="I533" s="7"/>
       <c r="J533" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.4">
@@ -19508,7 +19508,7 @@
       </c>
       <c r="I534" s="7"/>
       <c r="J534" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.4">
@@ -19528,7 +19528,7 @@
       <c r="H535" s="8"/>
       <c r="I535" s="7"/>
       <c r="J535" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.4">
@@ -19548,7 +19548,7 @@
       <c r="H536" s="8"/>
       <c r="I536" s="7"/>
       <c r="J536" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.4">
@@ -19568,7 +19568,7 @@
       </c>
       <c r="I537" s="7"/>
       <c r="J537" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.4">
@@ -19588,7 +19588,7 @@
       </c>
       <c r="I538" s="7"/>
       <c r="J538" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.4">
@@ -19612,7 +19612,7 @@
       </c>
       <c r="I539" s="7"/>
       <c r="J539" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.4">
@@ -19632,7 +19632,7 @@
       <c r="H540" s="8"/>
       <c r="I540" s="7"/>
       <c r="J540" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.4">
@@ -19652,7 +19652,7 @@
       </c>
       <c r="I541" s="7"/>
       <c r="J541" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.4">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="I542" s="7"/>
       <c r="J542" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.4">
@@ -19692,7 +19692,7 @@
       </c>
       <c r="I543" s="7"/>
       <c r="J543" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.4">
@@ -19712,7 +19712,7 @@
       <c r="H544" s="8"/>
       <c r="I544" s="7"/>
       <c r="J544" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.4">
@@ -19732,7 +19732,7 @@
       </c>
       <c r="I545" s="7"/>
       <c r="J545" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.4">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="I546" s="7"/>
       <c r="J546" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.4">
@@ -19776,7 +19776,7 @@
       </c>
       <c r="I547" s="7"/>
       <c r="J547" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.4">
@@ -19796,7 +19796,7 @@
       <c r="H548" s="8"/>
       <c r="I548" s="7"/>
       <c r="J548" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.4">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="I549" s="7"/>
       <c r="J549" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.4">
@@ -19838,7 +19838,7 @@
       </c>
       <c r="I550" s="7"/>
       <c r="J550" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.4">
@@ -19860,7 +19860,7 @@
       </c>
       <c r="I551" s="7"/>
       <c r="J551" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.4">
@@ -19880,7 +19880,7 @@
       <c r="H552" s="8"/>
       <c r="I552" s="7"/>
       <c r="J552" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.4">
@@ -19900,7 +19900,7 @@
       <c r="H553" s="8"/>
       <c r="I553" s="7"/>
       <c r="J553" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.4">
@@ -19920,7 +19920,7 @@
       </c>
       <c r="I554" s="7"/>
       <c r="J554" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.4">
@@ -19940,7 +19940,7 @@
       <c r="H555" s="8"/>
       <c r="I555" s="7"/>
       <c r="J555" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.4">
@@ -19962,7 +19962,7 @@
       </c>
       <c r="I556" s="7"/>
       <c r="J556" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.4">
@@ -19982,7 +19982,7 @@
       </c>
       <c r="I557" s="7"/>
       <c r="J557" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.4">
@@ -20002,7 +20002,7 @@
       </c>
       <c r="I558" s="7"/>
       <c r="J558" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.4">
@@ -20024,7 +20024,7 @@
       <c r="H559" s="8"/>
       <c r="I559" s="7"/>
       <c r="J559" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.4">
@@ -20044,7 +20044,7 @@
       </c>
       <c r="I560" s="7"/>
       <c r="J560" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.4">
@@ -20064,7 +20064,7 @@
       </c>
       <c r="I561" s="7"/>
       <c r="J561" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.4">
@@ -20084,7 +20084,7 @@
       <c r="H562" s="8"/>
       <c r="I562" s="7"/>
       <c r="J562" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.4">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="I563" s="7"/>
       <c r="J563" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.4">
@@ -20124,7 +20124,7 @@
       </c>
       <c r="I564" s="7"/>
       <c r="J564" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.4">
@@ -20146,7 +20146,7 @@
       </c>
       <c r="I565" s="7"/>
       <c r="J565" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.4">
@@ -20166,7 +20166,7 @@
       <c r="H566" s="8"/>
       <c r="I566" s="7"/>
       <c r="J566" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.4">
@@ -20186,7 +20186,7 @@
       <c r="H567" s="8"/>
       <c r="I567" s="7"/>
       <c r="J567" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.4">
@@ -20206,7 +20206,7 @@
       <c r="H568" s="8"/>
       <c r="I568" s="7"/>
       <c r="J568" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.4">
@@ -20226,7 +20226,7 @@
       <c r="H569" s="8"/>
       <c r="I569" s="7"/>
       <c r="J569" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.4">
@@ -20246,7 +20246,7 @@
       </c>
       <c r="I570" s="7"/>
       <c r="J570" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.4">
@@ -20266,7 +20266,7 @@
       <c r="H571" s="8"/>
       <c r="I571" s="7"/>
       <c r="J571" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.4">
@@ -20286,7 +20286,7 @@
       </c>
       <c r="I572" s="7"/>
       <c r="J572" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.4">
@@ -20306,7 +20306,7 @@
       <c r="H573" s="8"/>
       <c r="I573" s="7"/>
       <c r="J573" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="574" spans="1:10" x14ac:dyDescent="0.4">
@@ -20328,7 +20328,7 @@
       </c>
       <c r="I574" s="7"/>
       <c r="J574" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.4">
@@ -20348,7 +20348,7 @@
       <c r="H575" s="8"/>
       <c r="I575" s="7"/>
       <c r="J575" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.4">
@@ -20368,7 +20368,7 @@
       </c>
       <c r="I576" s="7"/>
       <c r="J576" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.4">
@@ -20388,7 +20388,7 @@
       <c r="H577" s="8"/>
       <c r="I577" s="7"/>
       <c r="J577" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.4">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="I578" s="7"/>
       <c r="J578" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.4">
@@ -20428,7 +20428,7 @@
       <c r="H579" s="8"/>
       <c r="I579" s="7"/>
       <c r="J579" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.4">
@@ -20448,7 +20448,7 @@
       </c>
       <c r="I580" s="7"/>
       <c r="J580" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.4">
@@ -20468,7 +20468,7 @@
       <c r="H581" s="8"/>
       <c r="I581" s="7"/>
       <c r="J581" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.4">
@@ -20488,7 +20488,7 @@
       <c r="H582" s="8"/>
       <c r="I582" s="7"/>
       <c r="J582" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.4">
@@ -20514,7 +20514,7 @@
       </c>
       <c r="I583" s="7"/>
       <c r="J583" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.4">
@@ -20534,7 +20534,7 @@
       <c r="H584" s="8"/>
       <c r="I584" s="7"/>
       <c r="J584" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.4">
@@ -20554,7 +20554,7 @@
       </c>
       <c r="I585" s="7"/>
       <c r="J585" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.4">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="I586" s="7"/>
       <c r="J586" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.4">
@@ -20598,7 +20598,7 @@
       <c r="H587" s="8"/>
       <c r="I587" s="7"/>
       <c r="J587" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.4">
@@ -20622,7 +20622,7 @@
       </c>
       <c r="I588" s="7"/>
       <c r="J588" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.4">
@@ -20642,7 +20642,7 @@
       <c r="H589" s="8"/>
       <c r="I589" s="7"/>
       <c r="J589" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.4">
@@ -20662,7 +20662,7 @@
       <c r="H590" s="8"/>
       <c r="I590" s="7"/>
       <c r="J590" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.4">
@@ -20682,7 +20682,7 @@
       </c>
       <c r="I591" s="7"/>
       <c r="J591" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.4">
@@ -20706,7 +20706,7 @@
       </c>
       <c r="I592" s="7"/>
       <c r="J592" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.4">
@@ -20728,7 +20728,7 @@
       <c r="H593" s="8"/>
       <c r="I593" s="7"/>
       <c r="J593" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.4">
@@ -20750,7 +20750,7 @@
       </c>
       <c r="I594" s="7"/>
       <c r="J594" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.4">
@@ -20770,7 +20770,7 @@
       <c r="H595" s="8"/>
       <c r="I595" s="7"/>
       <c r="J595" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.4">
@@ -20794,7 +20794,7 @@
       </c>
       <c r="I596" s="7"/>
       <c r="J596" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.4">
@@ -20814,7 +20814,7 @@
       <c r="H597" s="8"/>
       <c r="I597" s="7"/>
       <c r="J597" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.4">
@@ -20836,7 +20836,7 @@
       <c r="H598" s="8"/>
       <c r="I598" s="7"/>
       <c r="J598" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.4">
@@ -20858,7 +20858,7 @@
       </c>
       <c r="I599" s="7"/>
       <c r="J599" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.4">
@@ -20878,7 +20878,7 @@
       <c r="H600" s="8"/>
       <c r="I600" s="7"/>
       <c r="J600" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.4">
@@ -20898,7 +20898,7 @@
       <c r="H601" s="8"/>
       <c r="I601" s="7"/>
       <c r="J601" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.4">
@@ -20918,7 +20918,7 @@
       <c r="H602" s="8"/>
       <c r="I602" s="7"/>
       <c r="J602" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.4">
@@ -20940,7 +20940,7 @@
       </c>
       <c r="I603" s="7"/>
       <c r="J603" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.4">
@@ -20960,7 +20960,7 @@
       <c r="H604" s="8"/>
       <c r="I604" s="7"/>
       <c r="J604" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.4">
@@ -20980,7 +20980,7 @@
       <c r="H605" s="8"/>
       <c r="I605" s="7"/>
       <c r="J605" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.4">
@@ -21002,7 +21002,7 @@
       <c r="H606" s="8"/>
       <c r="I606" s="7"/>
       <c r="J606" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.4">
@@ -21022,7 +21022,7 @@
       <c r="H607" s="8"/>
       <c r="I607" s="7"/>
       <c r="J607" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.4">
@@ -21044,7 +21044,7 @@
       </c>
       <c r="I608" s="7"/>
       <c r="J608" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.4">
@@ -21064,7 +21064,7 @@
       <c r="H609" s="8"/>
       <c r="I609" s="7"/>
       <c r="J609" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.4">
@@ -21084,7 +21084,7 @@
       <c r="H610" s="8"/>
       <c r="I610" s="7"/>
       <c r="J610" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.4">
@@ -21104,7 +21104,7 @@
       <c r="H611" s="8"/>
       <c r="I611" s="7"/>
       <c r="J611" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.4">
@@ -21124,7 +21124,7 @@
       </c>
       <c r="I612" s="7"/>
       <c r="J612" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.4">
@@ -21144,7 +21144,7 @@
       <c r="H613" s="8"/>
       <c r="I613" s="7"/>
       <c r="J613" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.4">
@@ -21166,7 +21166,7 @@
       <c r="H614" s="8"/>
       <c r="I614" s="7"/>
       <c r="J614" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.4">
@@ -21188,7 +21188,7 @@
       <c r="H615" s="8"/>
       <c r="I615" s="7"/>
       <c r="J615" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.4">
@@ -21208,7 +21208,7 @@
       <c r="H616" s="8"/>
       <c r="I616" s="7"/>
       <c r="J616" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.4">
@@ -21228,7 +21228,7 @@
       <c r="H617" s="8"/>
       <c r="I617" s="7"/>
       <c r="J617" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.4">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="I618" s="7"/>
       <c r="J618" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.4">
@@ -21268,7 +21268,7 @@
       </c>
       <c r="I619" s="7"/>
       <c r="J619" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.4">
@@ -21288,7 +21288,7 @@
       <c r="H620" s="8"/>
       <c r="I620" s="7"/>
       <c r="J620" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.4">
@@ -21308,7 +21308,7 @@
       <c r="H621" s="8"/>
       <c r="I621" s="7"/>
       <c r="J621" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.4">
@@ -21328,7 +21328,7 @@
       <c r="H622" s="8"/>
       <c r="I622" s="7"/>
       <c r="J622" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.4">
@@ -21348,7 +21348,7 @@
       <c r="H623" s="8"/>
       <c r="I623" s="7"/>
       <c r="J623" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.4">
@@ -21368,7 +21368,7 @@
       </c>
       <c r="I624" s="7"/>
       <c r="J624" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.4">
@@ -21390,7 +21390,7 @@
       </c>
       <c r="I625" s="7"/>
       <c r="J625" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.4">
@@ -21410,7 +21410,7 @@
       <c r="H626" s="8"/>
       <c r="I626" s="7"/>
       <c r="J626" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.4">
@@ -21430,7 +21430,7 @@
       <c r="H627" s="8"/>
       <c r="I627" s="7"/>
       <c r="J627" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.4">
@@ -21450,7 +21450,7 @@
       </c>
       <c r="I628" s="7"/>
       <c r="J628" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.4">
@@ -21470,7 +21470,7 @@
       </c>
       <c r="I629" s="7"/>
       <c r="J629" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.4">
@@ -21490,7 +21490,7 @@
       <c r="H630" s="8"/>
       <c r="I630" s="7"/>
       <c r="J630" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.4">
@@ -21512,7 +21512,7 @@
       </c>
       <c r="I631" s="7"/>
       <c r="J631" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.4">
@@ -21532,7 +21532,7 @@
       </c>
       <c r="I632" s="7"/>
       <c r="J632" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.4">
@@ -21552,7 +21552,7 @@
       </c>
       <c r="I633" s="7"/>
       <c r="J633" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.4">
@@ -21574,7 +21574,7 @@
       </c>
       <c r="I634" s="7"/>
       <c r="J634" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.4">
@@ -21594,7 +21594,7 @@
       </c>
       <c r="I635" s="7"/>
       <c r="J635" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.4">
@@ -21614,7 +21614,7 @@
       </c>
       <c r="I636" s="7"/>
       <c r="J636" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.4">
@@ -21634,7 +21634,7 @@
       <c r="H637" s="8"/>
       <c r="I637" s="7"/>
       <c r="J637" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.4">
@@ -21654,7 +21654,7 @@
       <c r="H638" s="8"/>
       <c r="I638" s="7"/>
       <c r="J638" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.4">
@@ -21674,7 +21674,7 @@
       <c r="H639" s="8"/>
       <c r="I639" s="7"/>
       <c r="J639" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.4">
@@ -21696,7 +21696,7 @@
       </c>
       <c r="I640" s="7"/>
       <c r="J640" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="641" spans="1:10" x14ac:dyDescent="0.4">
@@ -21716,7 +21716,7 @@
       <c r="H641" s="8"/>
       <c r="I641" s="7"/>
       <c r="J641" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.4">
@@ -21736,7 +21736,7 @@
       <c r="H642" s="8"/>
       <c r="I642" s="7"/>
       <c r="J642" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.4">
@@ -21756,7 +21756,7 @@
       </c>
       <c r="I643" s="7"/>
       <c r="J643" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.4">
@@ -21776,7 +21776,7 @@
       </c>
       <c r="I644" s="7"/>
       <c r="J644" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.4">
@@ -21796,7 +21796,7 @@
       <c r="H645" s="8"/>
       <c r="I645" s="7"/>
       <c r="J645" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.4">
@@ -21816,7 +21816,7 @@
       <c r="H646" s="8"/>
       <c r="I646" s="7"/>
       <c r="J646" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.4">
@@ -21836,7 +21836,7 @@
       <c r="H647" s="8"/>
       <c r="I647" s="7"/>
       <c r="J647" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.4">
@@ -21856,7 +21856,7 @@
       </c>
       <c r="I648" s="7"/>
       <c r="J648" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.4">
@@ -21876,7 +21876,7 @@
       </c>
       <c r="I649" s="7"/>
       <c r="J649" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.4">
@@ -21896,7 +21896,7 @@
       <c r="H650" s="8"/>
       <c r="I650" s="7"/>
       <c r="J650" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.4">
@@ -21909,42 +21909,42 @@
       <c r="C651" s="7"/>
       <c r="D651" s="8"/>
       <c r="E651" s="7" t="s">
-        <v>1816</v>
+        <v>2289</v>
       </c>
       <c r="F651" s="8"/>
       <c r="G651" s="7"/>
       <c r="H651" s="8"/>
       <c r="I651" s="7"/>
       <c r="J651" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A652" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B652" s="3" t="s">
         <v>1817</v>
-      </c>
-      <c r="B652" s="3" t="s">
-        <v>1818</v>
       </c>
       <c r="C652" s="7"/>
       <c r="D652" s="8"/>
       <c r="E652" s="7" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F652" s="8"/>
       <c r="G652" s="7"/>
       <c r="H652" s="8"/>
       <c r="I652" s="7"/>
       <c r="J652" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A653" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B653" s="3" t="s">
         <v>1820</v>
-      </c>
-      <c r="B653" s="3" t="s">
-        <v>1821</v>
       </c>
       <c r="C653" s="7" t="s">
         <v>682</v>
@@ -21956,15 +21956,15 @@
       <c r="H653" s="8"/>
       <c r="I653" s="7"/>
       <c r="J653" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A654" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B654" s="3" t="s">
         <v>1822</v>
-      </c>
-      <c r="B654" s="3" t="s">
-        <v>1823</v>
       </c>
       <c r="C654" s="7"/>
       <c r="D654" s="8"/>
@@ -21976,15 +21976,15 @@
       <c r="H654" s="8"/>
       <c r="I654" s="7"/>
       <c r="J654" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A655" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B655" s="3" t="s">
         <v>1824</v>
-      </c>
-      <c r="B655" s="3" t="s">
-        <v>1825</v>
       </c>
       <c r="C655" s="7"/>
       <c r="D655" s="8"/>
@@ -21992,19 +21992,19 @@
       <c r="F655" s="8"/>
       <c r="G655" s="7"/>
       <c r="H655" s="8" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="I655" s="7"/>
       <c r="J655" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A656" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B656" s="3" t="s">
         <v>1827</v>
-      </c>
-      <c r="B656" s="3" t="s">
-        <v>1828</v>
       </c>
       <c r="C656" s="7"/>
       <c r="D656" s="8"/>
@@ -22016,15 +22016,15 @@
         <v>929</v>
       </c>
       <c r="J656" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A657" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B657" s="3" t="s">
         <v>1829</v>
-      </c>
-      <c r="B657" s="3" t="s">
-        <v>1830</v>
       </c>
       <c r="C657" s="7"/>
       <c r="D657" s="8"/>
@@ -22036,15 +22036,15 @@
       </c>
       <c r="I657" s="7"/>
       <c r="J657" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A658" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B658" s="3" t="s">
         <v>1831</v>
-      </c>
-      <c r="B658" s="3" t="s">
-        <v>1832</v>
       </c>
       <c r="C658" s="7"/>
       <c r="D658" s="8"/>
@@ -22056,15 +22056,15 @@
       </c>
       <c r="I658" s="7"/>
       <c r="J658" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A659" s="3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B659" s="3" t="s">
         <v>1833</v>
-      </c>
-      <c r="B659" s="3" t="s">
-        <v>1834</v>
       </c>
       <c r="C659" s="7"/>
       <c r="D659" s="8"/>
@@ -22076,15 +22076,15 @@
       <c r="H659" s="8"/>
       <c r="I659" s="7"/>
       <c r="J659" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A660" s="3" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C660" s="7"/>
       <c r="D660" s="8"/>
@@ -22096,19 +22096,19 @@
         <v>720</v>
       </c>
       <c r="H660" s="8" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="I660" s="7"/>
       <c r="J660" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A661" s="3" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C661" s="7"/>
       <c r="D661" s="8"/>
@@ -22120,15 +22120,15 @@
       </c>
       <c r="I661" s="7"/>
       <c r="J661" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A662" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B662" s="3" t="s">
         <v>1838</v>
-      </c>
-      <c r="B662" s="3" t="s">
-        <v>1839</v>
       </c>
       <c r="C662" s="7"/>
       <c r="D662" s="8"/>
@@ -22136,19 +22136,19 @@
       <c r="F662" s="8"/>
       <c r="G662" s="7"/>
       <c r="H662" s="8" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="I662" s="7"/>
       <c r="J662" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A663" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C663" s="7"/>
       <c r="D663" s="8"/>
@@ -22162,15 +22162,15 @@
       <c r="H663" s="8"/>
       <c r="I663" s="7"/>
       <c r="J663" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A664" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B664" s="3" t="s">
         <v>1842</v>
-      </c>
-      <c r="B664" s="3" t="s">
-        <v>1843</v>
       </c>
       <c r="C664" s="7"/>
       <c r="D664" s="8" t="s">
@@ -22182,15 +22182,15 @@
       <c r="H664" s="8"/>
       <c r="I664" s="7"/>
       <c r="J664" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A665" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B665" s="3" t="s">
         <v>1844</v>
-      </c>
-      <c r="B665" s="3" t="s">
-        <v>1845</v>
       </c>
       <c r="C665" s="7"/>
       <c r="D665" s="8"/>
@@ -22202,37 +22202,37 @@
       </c>
       <c r="I665" s="7"/>
       <c r="J665" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A666" s="3" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C666" s="7"/>
       <c r="D666" s="8"/>
       <c r="E666" s="7" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="F666" s="8"/>
       <c r="G666" s="7"/>
       <c r="H666" s="8" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="I666" s="7"/>
       <c r="J666" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A667" s="3" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B667" s="3" t="s">
         <v>1849</v>
-      </c>
-      <c r="B667" s="3" t="s">
-        <v>1850</v>
       </c>
       <c r="C667" s="7" t="s">
         <v>887</v>
@@ -22244,15 +22244,15 @@
       <c r="H667" s="8"/>
       <c r="I667" s="7"/>
       <c r="J667" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A668" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B668" s="3" t="s">
         <v>1851</v>
-      </c>
-      <c r="B668" s="3" t="s">
-        <v>1852</v>
       </c>
       <c r="C668" s="7" t="s">
         <v>654</v>
@@ -22264,15 +22264,15 @@
       <c r="H668" s="8"/>
       <c r="I668" s="7"/>
       <c r="J668" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A669" s="3" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B669" s="3" t="s">
         <v>1853</v>
-      </c>
-      <c r="B669" s="3" t="s">
-        <v>1854</v>
       </c>
       <c r="C669" s="7"/>
       <c r="D669" s="8"/>
@@ -22280,19 +22280,19 @@
       <c r="F669" s="8"/>
       <c r="G669" s="7"/>
       <c r="H669" s="8" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="I669" s="7"/>
       <c r="J669" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A670" s="3" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B670" s="3" t="s">
         <v>1856</v>
-      </c>
-      <c r="B670" s="3" t="s">
-        <v>1857</v>
       </c>
       <c r="C670" s="7"/>
       <c r="D670" s="8"/>
@@ -22304,35 +22304,35 @@
       <c r="H670" s="8"/>
       <c r="I670" s="7"/>
       <c r="J670" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A671" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C671" s="7"/>
       <c r="D671" s="8"/>
       <c r="E671" s="7" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="F671" s="8"/>
       <c r="G671" s="7"/>
       <c r="H671" s="8"/>
       <c r="I671" s="7"/>
       <c r="J671" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A672" s="3" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B672" s="3" t="s">
         <v>1860</v>
-      </c>
-      <c r="B672" s="3" t="s">
-        <v>1861</v>
       </c>
       <c r="C672" s="7"/>
       <c r="D672" s="8" t="s">
@@ -22344,15 +22344,15 @@
       <c r="H672" s="8"/>
       <c r="I672" s="7"/>
       <c r="J672" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A673" s="3" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B673" s="3" t="s">
         <v>1862</v>
-      </c>
-      <c r="B673" s="3" t="s">
-        <v>1863</v>
       </c>
       <c r="C673" s="7"/>
       <c r="D673" s="8"/>
@@ -22361,15 +22361,15 @@
       <c r="G673" s="7"/>
       <c r="H673" s="8"/>
       <c r="I673" s="7" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="J673" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A674" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B674" s="3" t="s">
         <v>303</v>
@@ -22384,7 +22384,7 @@
       </c>
       <c r="I674" s="7"/>
       <c r="J674" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.4">
@@ -22392,7 +22392,7 @@
         <v>268</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C675" s="7"/>
       <c r="D675" s="8"/>
@@ -22406,15 +22406,15 @@
       </c>
       <c r="I675" s="7"/>
       <c r="J675" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A676" s="3" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B676" s="3" t="s">
         <v>1867</v>
-      </c>
-      <c r="B676" s="3" t="s">
-        <v>1868</v>
       </c>
       <c r="C676" s="7" t="s">
         <v>778</v>
@@ -22426,15 +22426,15 @@
       <c r="H676" s="8"/>
       <c r="I676" s="7"/>
       <c r="J676" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A677" s="3" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B677" s="3" t="s">
         <v>1869</v>
-      </c>
-      <c r="B677" s="3" t="s">
-        <v>1870</v>
       </c>
       <c r="C677" s="7"/>
       <c r="D677" s="8"/>
@@ -22442,19 +22442,19 @@
       <c r="F677" s="8"/>
       <c r="G677" s="7"/>
       <c r="H677" s="8" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="I677" s="7"/>
       <c r="J677" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A678" s="3" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B678" s="3" t="s">
         <v>1872</v>
-      </c>
-      <c r="B678" s="3" t="s">
-        <v>1873</v>
       </c>
       <c r="C678" s="7"/>
       <c r="D678" s="8"/>
@@ -22466,15 +22466,15 @@
       <c r="H678" s="8"/>
       <c r="I678" s="7"/>
       <c r="J678" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A679" s="3" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B679" s="3" t="s">
         <v>1874</v>
-      </c>
-      <c r="B679" s="3" t="s">
-        <v>1875</v>
       </c>
       <c r="C679" s="7"/>
       <c r="D679" s="8"/>
@@ -22483,18 +22483,18 @@
       <c r="G679" s="7"/>
       <c r="H679" s="8"/>
       <c r="I679" s="7" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J679" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A680" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B680" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C680" s="7"/>
       <c r="D680" s="8"/>
@@ -22506,7 +22506,7 @@
       <c r="H680" s="8"/>
       <c r="I680" s="7"/>
       <c r="J680" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.4">
@@ -22514,7 +22514,7 @@
         <v>270</v>
       </c>
       <c r="B681" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C681" s="7"/>
       <c r="D681" s="8"/>
@@ -22526,7 +22526,7 @@
       <c r="H681" s="8"/>
       <c r="I681" s="7"/>
       <c r="J681" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.4">
@@ -22534,12 +22534,12 @@
         <v>1477</v>
       </c>
       <c r="B682" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C682" s="7"/>
       <c r="D682" s="8"/>
       <c r="E682" s="7" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="F682" s="8" t="s">
         <v>938</v>
@@ -22548,55 +22548,55 @@
       <c r="H682" s="8"/>
       <c r="I682" s="7"/>
       <c r="J682" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A683" s="3" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B683" s="3" t="s">
         <v>1881</v>
-      </c>
-      <c r="B683" s="3" t="s">
-        <v>1882</v>
       </c>
       <c r="C683" s="7"/>
       <c r="D683" s="8"/>
       <c r="E683" s="7"/>
       <c r="F683" s="8"/>
       <c r="G683" s="7" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="H683" s="8"/>
       <c r="I683" s="7"/>
       <c r="J683" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A684" s="3" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C684" s="7"/>
       <c r="D684" s="8"/>
       <c r="E684" s="7" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F684" s="8"/>
       <c r="G684" s="7"/>
       <c r="H684" s="8"/>
       <c r="I684" s="7"/>
       <c r="J684" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A685" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B685" s="3" t="s">
         <v>1886</v>
-      </c>
-      <c r="B685" s="3" t="s">
-        <v>1887</v>
       </c>
       <c r="C685" s="7"/>
       <c r="D685" s="8"/>
@@ -22608,35 +22608,35 @@
       <c r="H685" s="8"/>
       <c r="I685" s="7"/>
       <c r="J685" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A686" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C686" s="7"/>
       <c r="D686" s="8"/>
       <c r="E686" s="7" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="F686" s="8"/>
       <c r="G686" s="7"/>
       <c r="H686" s="8"/>
       <c r="I686" s="7"/>
       <c r="J686" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="687" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A687" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C687" s="7"/>
       <c r="D687" s="8"/>
@@ -22648,18 +22648,18 @@
       <c r="H687" s="8"/>
       <c r="I687" s="7"/>
       <c r="J687" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A688" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B688" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C688" s="7" t="s">
         <v>1891</v>
-      </c>
-      <c r="C688" s="7" t="s">
-        <v>1892</v>
       </c>
       <c r="D688" s="8"/>
       <c r="E688" s="7"/>
@@ -22670,15 +22670,15 @@
       </c>
       <c r="I688" s="7"/>
       <c r="J688" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A689" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C689" s="7"/>
       <c r="D689" s="8"/>
@@ -22690,15 +22690,15 @@
       <c r="H689" s="8"/>
       <c r="I689" s="7"/>
       <c r="J689" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A690" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C690" s="7"/>
       <c r="D690" s="8"/>
@@ -22710,15 +22710,15 @@
       </c>
       <c r="I690" s="7"/>
       <c r="J690" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A691" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C691" s="7" t="s">
         <v>675</v>
@@ -22730,15 +22730,15 @@
       <c r="H691" s="8"/>
       <c r="I691" s="7"/>
       <c r="J691" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A692" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C692" s="7"/>
       <c r="D692" s="8"/>
@@ -22750,15 +22750,15 @@
       <c r="H692" s="8"/>
       <c r="I692" s="7"/>
       <c r="J692" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="693" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A693" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C693" s="7"/>
       <c r="D693" s="8"/>
@@ -22770,15 +22770,15 @@
       </c>
       <c r="I693" s="7"/>
       <c r="J693" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A694" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="C694" s="7"/>
       <c r="D694" s="8"/>
@@ -22790,15 +22790,15 @@
       </c>
       <c r="I694" s="7"/>
       <c r="J694" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="695" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A695" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C695" s="7"/>
       <c r="D695" s="8"/>
@@ -22808,19 +22808,19 @@
       </c>
       <c r="G695" s="7"/>
       <c r="H695" s="8" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="I695" s="7"/>
       <c r="J695" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="696" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A696" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C696" s="7"/>
       <c r="D696" s="8"/>
@@ -22832,15 +22832,15 @@
       </c>
       <c r="I696" s="7"/>
       <c r="J696" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A697" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="C697" s="7"/>
       <c r="D697" s="8"/>
@@ -22852,15 +22852,15 @@
       </c>
       <c r="I697" s="7"/>
       <c r="J697" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A698" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C698" s="7"/>
       <c r="D698" s="8"/>
@@ -22872,15 +22872,15 @@
       </c>
       <c r="I698" s="7"/>
       <c r="J698" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A699" s="3" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B699" s="3" t="s">
         <v>1904</v>
-      </c>
-      <c r="B699" s="3" t="s">
-        <v>1905</v>
       </c>
       <c r="C699" s="7"/>
       <c r="D699" s="8"/>
@@ -22892,15 +22892,15 @@
       <c r="H699" s="8"/>
       <c r="I699" s="7"/>
       <c r="J699" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A700" s="3" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B700" s="3" t="s">
         <v>1906</v>
-      </c>
-      <c r="B700" s="3" t="s">
-        <v>1907</v>
       </c>
       <c r="C700" s="7"/>
       <c r="D700" s="8"/>
@@ -22908,19 +22908,19 @@
       <c r="F700" s="8"/>
       <c r="G700" s="7"/>
       <c r="H700" s="8" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="I700" s="7"/>
       <c r="J700" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="701" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A701" s="3" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C701" s="7"/>
       <c r="D701" s="8"/>
@@ -22932,15 +22932,15 @@
       </c>
       <c r="I701" s="7"/>
       <c r="J701" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A702" s="3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B702" s="3" t="s">
         <v>1910</v>
-      </c>
-      <c r="B702" s="3" t="s">
-        <v>1911</v>
       </c>
       <c r="C702" s="7"/>
       <c r="D702" s="8"/>
@@ -22950,19 +22950,19 @@
       <c r="F702" s="8"/>
       <c r="G702" s="7"/>
       <c r="H702" s="8" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="I702" s="7"/>
       <c r="J702" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A703" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B703" s="3" t="s">
         <v>1913</v>
-      </c>
-      <c r="B703" s="3" t="s">
-        <v>1914</v>
       </c>
       <c r="C703" s="7"/>
       <c r="D703" s="8"/>
@@ -22974,15 +22974,15 @@
       </c>
       <c r="I703" s="7"/>
       <c r="J703" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="704" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A704" s="3" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C704" s="7" t="s">
         <v>676</v>
@@ -22992,11 +22992,11 @@
       <c r="F704" s="8"/>
       <c r="G704" s="7"/>
       <c r="H704" s="8" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="I704" s="7"/>
       <c r="J704" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.4">
@@ -23004,7 +23004,7 @@
         <v>299</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C705" s="7"/>
       <c r="D705" s="8"/>
@@ -23016,15 +23016,15 @@
       </c>
       <c r="I705" s="7"/>
       <c r="J705" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="706" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A706" s="3" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B706" s="3" t="s">
         <v>1918</v>
-      </c>
-      <c r="B706" s="3" t="s">
-        <v>1919</v>
       </c>
       <c r="C706" s="7" t="s">
         <v>957</v>
@@ -23036,15 +23036,15 @@
       <c r="H706" s="8"/>
       <c r="I706" s="7"/>
       <c r="J706" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A707" s="3" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B707" s="3" t="s">
         <v>1920</v>
-      </c>
-      <c r="B707" s="3" t="s">
-        <v>1921</v>
       </c>
       <c r="C707" s="7"/>
       <c r="D707" s="8"/>
@@ -23056,15 +23056,15 @@
       <c r="H707" s="8"/>
       <c r="I707" s="7"/>
       <c r="J707" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="708" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A708" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C708" s="7"/>
       <c r="D708" s="8"/>
@@ -23078,15 +23078,15 @@
       </c>
       <c r="I708" s="7"/>
       <c r="J708" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="709" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A709" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C709" s="7"/>
       <c r="D709" s="8"/>
@@ -23098,18 +23098,18 @@
       <c r="H709" s="8"/>
       <c r="I709" s="7"/>
       <c r="J709" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A710" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B710" s="3" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C710" s="7" t="s">
         <v>1924</v>
-      </c>
-      <c r="C710" s="7" t="s">
-        <v>1925</v>
       </c>
       <c r="D710" s="8"/>
       <c r="E710" s="7"/>
@@ -23118,15 +23118,15 @@
       <c r="H710" s="8"/>
       <c r="I710" s="7"/>
       <c r="J710" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A711" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C711" s="7"/>
       <c r="D711" s="8"/>
@@ -23138,15 +23138,15 @@
       </c>
       <c r="I711" s="7"/>
       <c r="J711" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="712" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A712" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C712" s="7"/>
       <c r="D712" s="8"/>
@@ -23158,37 +23158,37 @@
       </c>
       <c r="I712" s="7"/>
       <c r="J712" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A713" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C713" s="7"/>
       <c r="D713" s="8"/>
       <c r="E713" s="7"/>
       <c r="F713" s="8"/>
       <c r="G713" s="7" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H713" s="8" t="s">
         <v>1929</v>
-      </c>
-      <c r="H713" s="8" t="s">
-        <v>1930</v>
       </c>
       <c r="I713" s="7"/>
       <c r="J713" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="714" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A714" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C714" s="7"/>
       <c r="D714" s="8"/>
@@ -23200,15 +23200,15 @@
       <c r="H714" s="8"/>
       <c r="I714" s="7"/>
       <c r="J714" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="715" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A715" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="C715" s="7"/>
       <c r="D715" s="8"/>
@@ -23222,15 +23222,15 @@
       </c>
       <c r="I715" s="7"/>
       <c r="J715" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A716" s="3" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="C716" s="7"/>
       <c r="D716" s="8"/>
@@ -23244,15 +23244,15 @@
       </c>
       <c r="I716" s="7"/>
       <c r="J716" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A717" s="3" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B717" s="3" t="s">
         <v>1934</v>
-      </c>
-      <c r="B717" s="3" t="s">
-        <v>1935</v>
       </c>
       <c r="C717" s="7"/>
       <c r="D717" s="8"/>
@@ -23264,15 +23264,15 @@
       </c>
       <c r="I717" s="7"/>
       <c r="J717" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A718" s="3" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B718" s="3" t="s">
         <v>1936</v>
-      </c>
-      <c r="B718" s="3" t="s">
-        <v>1937</v>
       </c>
       <c r="C718" s="7"/>
       <c r="D718" s="8" t="s">
@@ -23286,15 +23286,15 @@
       </c>
       <c r="I718" s="7"/>
       <c r="J718" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A719" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B719" s="3" t="s">
         <v>1938</v>
-      </c>
-      <c r="B719" s="3" t="s">
-        <v>1939</v>
       </c>
       <c r="C719" s="7"/>
       <c r="D719" s="8"/>
@@ -23302,41 +23302,41 @@
       <c r="F719" s="8"/>
       <c r="G719" s="7"/>
       <c r="H719" s="8" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="I719" s="7"/>
       <c r="J719" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A720" s="3" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B720" s="3" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C720" s="7" t="s">
         <v>1941</v>
-      </c>
-      <c r="C720" s="7" t="s">
-        <v>1942</v>
       </c>
       <c r="D720" s="8"/>
       <c r="E720" s="7" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F720" s="8"/>
       <c r="G720" s="7"/>
       <c r="H720" s="8"/>
       <c r="I720" s="7"/>
       <c r="J720" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="721" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A721" s="3" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="C721" s="7" t="s">
         <v>720</v>
@@ -23348,15 +23348,15 @@
       <c r="H721" s="8"/>
       <c r="I721" s="7"/>
       <c r="J721" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="722" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A722" s="3" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C722" s="7"/>
       <c r="D722" s="8"/>
@@ -23368,15 +23368,15 @@
       </c>
       <c r="I722" s="7"/>
       <c r="J722" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A723" s="3" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C723" s="7" t="s">
         <v>743</v>
@@ -23388,15 +23388,15 @@
       <c r="H723" s="8"/>
       <c r="I723" s="7"/>
       <c r="J723" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="724" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A724" s="3" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B724" s="3" t="s">
         <v>1947</v>
-      </c>
-      <c r="B724" s="3" t="s">
-        <v>1948</v>
       </c>
       <c r="C724" s="7"/>
       <c r="D724" s="8"/>
@@ -23408,15 +23408,15 @@
         <v>738</v>
       </c>
       <c r="J724" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="725" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A725" s="3" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B725" s="3" t="s">
         <v>1949</v>
-      </c>
-      <c r="B725" s="3" t="s">
-        <v>1950</v>
       </c>
       <c r="C725" s="7"/>
       <c r="D725" s="8"/>
@@ -23428,15 +23428,15 @@
       </c>
       <c r="I725" s="7"/>
       <c r="J725" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="726" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A726" s="3" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C726" s="7" t="s">
         <v>695</v>
@@ -23452,15 +23452,15 @@
       </c>
       <c r="I726" s="7"/>
       <c r="J726" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A727" s="3" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B727" s="3" t="s">
         <v>1952</v>
-      </c>
-      <c r="B727" s="3" t="s">
-        <v>1953</v>
       </c>
       <c r="C727" s="7"/>
       <c r="D727" s="8"/>
@@ -23472,15 +23472,15 @@
       </c>
       <c r="I727" s="7"/>
       <c r="J727" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A728" s="3" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B728" s="3" t="s">
         <v>1954</v>
-      </c>
-      <c r="B728" s="3" t="s">
-        <v>1955</v>
       </c>
       <c r="C728" s="7"/>
       <c r="D728" s="8"/>
@@ -23492,7 +23492,7 @@
       <c r="H728" s="8"/>
       <c r="I728" s="7"/>
       <c r="J728" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.4">
@@ -23500,7 +23500,7 @@
         <v>339</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C729" s="7" t="s">
         <v>1050</v>
@@ -23510,11 +23510,11 @@
       <c r="F729" s="8"/>
       <c r="G729" s="7"/>
       <c r="H729" s="8" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="I729" s="7"/>
       <c r="J729" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.4">
@@ -23522,7 +23522,7 @@
         <v>339</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C730" s="7"/>
       <c r="D730" s="8"/>
@@ -23534,7 +23534,7 @@
       </c>
       <c r="I730" s="7"/>
       <c r="J730" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.4">
@@ -23542,21 +23542,21 @@
         <v>339</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C731" s="7"/>
       <c r="D731" s="8"/>
       <c r="E731" s="7" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="F731" s="8"/>
       <c r="G731" s="7"/>
       <c r="H731" s="8" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="I731" s="7"/>
       <c r="J731" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="732" spans="1:10" x14ac:dyDescent="0.4">
@@ -23564,7 +23564,7 @@
         <v>339</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C732" s="7" t="s">
         <v>730</v>
@@ -23576,15 +23576,15 @@
       <c r="H732" s="8"/>
       <c r="I732" s="7"/>
       <c r="J732" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="733" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A733" s="3" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B733" s="3" t="s">
         <v>1963</v>
-      </c>
-      <c r="B733" s="3" t="s">
-        <v>1964</v>
       </c>
       <c r="C733" s="7"/>
       <c r="D733" s="8"/>
@@ -23596,20 +23596,20 @@
       <c r="H733" s="8"/>
       <c r="I733" s="7"/>
       <c r="J733" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="734" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A734" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B734" s="3" t="s">
         <v>1965</v>
-      </c>
-      <c r="B734" s="3" t="s">
-        <v>1966</v>
       </c>
       <c r="C734" s="7"/>
       <c r="D734" s="8"/>
       <c r="E734" s="7" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="F734" s="8"/>
       <c r="G734" s="7"/>
@@ -23618,55 +23618,55 @@
       </c>
       <c r="I734" s="7"/>
       <c r="J734" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A735" s="3" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B735" s="3" t="s">
         <v>1968</v>
-      </c>
-      <c r="B735" s="3" t="s">
-        <v>1969</v>
       </c>
       <c r="C735" s="7"/>
       <c r="D735" s="8"/>
       <c r="E735" s="7" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="F735" s="8"/>
       <c r="G735" s="7"/>
       <c r="H735" s="8"/>
       <c r="I735" s="7"/>
       <c r="J735" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="736" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A736" s="3" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B736" s="3" t="s">
         <v>1971</v>
-      </c>
-      <c r="B736" s="3" t="s">
-        <v>1972</v>
       </c>
       <c r="C736" s="7"/>
       <c r="D736" s="8"/>
       <c r="E736" s="7" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="F736" s="8"/>
       <c r="G736" s="7"/>
       <c r="H736" s="8"/>
       <c r="I736" s="7"/>
       <c r="J736" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="737" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A737" s="3" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B737" s="3" t="s">
         <v>1974</v>
-      </c>
-      <c r="B737" s="3" t="s">
-        <v>1975</v>
       </c>
       <c r="C737" s="7"/>
       <c r="D737" s="8"/>
@@ -23678,15 +23678,15 @@
       </c>
       <c r="I737" s="7"/>
       <c r="J737" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="738" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A738" s="3" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B738" s="3" t="s">
         <v>1976</v>
-      </c>
-      <c r="B738" s="3" t="s">
-        <v>1977</v>
       </c>
       <c r="C738" s="7"/>
       <c r="D738" s="8"/>
@@ -23698,15 +23698,15 @@
       <c r="H738" s="8"/>
       <c r="I738" s="7"/>
       <c r="J738" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="739" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A739" s="3" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B739" s="3" t="s">
         <v>1978</v>
-      </c>
-      <c r="B739" s="3" t="s">
-        <v>1979</v>
       </c>
       <c r="C739" s="7"/>
       <c r="D739" s="8"/>
@@ -23722,18 +23722,18 @@
       </c>
       <c r="I739" s="7"/>
       <c r="J739" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="740" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A740" s="3" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B740" s="3" t="s">
         <v>1980</v>
       </c>
-      <c r="B740" s="3" t="s">
+      <c r="C740" s="7" t="s">
         <v>1981</v>
-      </c>
-      <c r="C740" s="7" t="s">
-        <v>1982</v>
       </c>
       <c r="D740" s="8"/>
       <c r="E740" s="7"/>
@@ -23746,15 +23746,15 @@
       <c r="H740" s="8"/>
       <c r="I740" s="7"/>
       <c r="J740" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="741" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A741" s="3" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C741" s="7"/>
       <c r="D741" s="8"/>
@@ -23766,21 +23766,21 @@
       </c>
       <c r="I741" s="7"/>
       <c r="J741" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="742" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A742" s="3" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C742" s="7" t="s">
         <v>716</v>
       </c>
       <c r="D742" s="8" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="E742" s="7"/>
       <c r="F742" s="8"/>
@@ -23788,15 +23788,15 @@
       <c r="H742" s="8"/>
       <c r="I742" s="7"/>
       <c r="J742" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="743" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A743" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B743" s="3" t="s">
         <v>1986</v>
-      </c>
-      <c r="B743" s="3" t="s">
-        <v>1987</v>
       </c>
       <c r="C743" s="7"/>
       <c r="D743" s="8"/>
@@ -23808,15 +23808,15 @@
       <c r="H743" s="8"/>
       <c r="I743" s="7"/>
       <c r="J743" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="744" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A744" s="3" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B744" s="3" t="s">
         <v>1988</v>
-      </c>
-      <c r="B744" s="3" t="s">
-        <v>1989</v>
       </c>
       <c r="C744" s="7"/>
       <c r="D744" s="8"/>
@@ -23828,15 +23828,15 @@
       <c r="H744" s="8"/>
       <c r="I744" s="7"/>
       <c r="J744" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="745" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A745" s="3" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C745" s="7"/>
       <c r="D745" s="8"/>
@@ -23848,15 +23848,15 @@
       </c>
       <c r="I745" s="7"/>
       <c r="J745" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="746" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A746" s="3" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C746" s="7"/>
       <c r="D746" s="8"/>
@@ -23868,15 +23868,15 @@
       <c r="H746" s="8"/>
       <c r="I746" s="7"/>
       <c r="J746" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="747" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A747" s="3" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C747" s="7" t="s">
         <v>739</v>
@@ -23890,15 +23890,15 @@
       </c>
       <c r="I747" s="7"/>
       <c r="J747" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="748" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A748" s="3" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B748" s="3" t="s">
         <v>1993</v>
-      </c>
-      <c r="B748" s="3" t="s">
-        <v>1994</v>
       </c>
       <c r="C748" s="7"/>
       <c r="D748" s="8"/>
@@ -23910,15 +23910,15 @@
       <c r="H748" s="8"/>
       <c r="I748" s="7"/>
       <c r="J748" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A749" s="3" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C749" s="7" t="s">
         <v>810</v>
@@ -23930,15 +23930,15 @@
       <c r="H749" s="8"/>
       <c r="I749" s="7"/>
       <c r="J749" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="750" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A750" s="3" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C750" s="7" t="s">
         <v>772</v>
@@ -23954,15 +23954,15 @@
       </c>
       <c r="I750" s="7"/>
       <c r="J750" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="751" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A751" s="3" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B751" s="3" t="s">
         <v>1997</v>
-      </c>
-      <c r="B751" s="3" t="s">
-        <v>1998</v>
       </c>
       <c r="C751" s="7"/>
       <c r="D751" s="8"/>
@@ -23974,19 +23974,19 @@
       <c r="H751" s="8"/>
       <c r="I751" s="7"/>
       <c r="J751" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="752" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A752" s="3" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B752" s="3" t="s">
         <v>1999</v>
-      </c>
-      <c r="B752" s="3" t="s">
-        <v>2000</v>
       </c>
       <c r="C752" s="7"/>
       <c r="D752" s="8" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E752" s="7"/>
       <c r="F752" s="8"/>
@@ -23994,15 +23994,15 @@
       <c r="H752" s="8"/>
       <c r="I752" s="7"/>
       <c r="J752" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="753" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A753" s="3" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C753" s="7" t="s">
         <v>658</v>
@@ -24014,15 +24014,15 @@
       <c r="H753" s="8"/>
       <c r="I753" s="7"/>
       <c r="J753" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="754" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A754" s="3" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C754" s="7"/>
       <c r="D754" s="8"/>
@@ -24034,15 +24034,15 @@
       </c>
       <c r="I754" s="7"/>
       <c r="J754" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="755" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A755" s="3" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B755" s="3" t="s">
         <v>2004</v>
-      </c>
-      <c r="B755" s="3" t="s">
-        <v>2005</v>
       </c>
       <c r="C755" s="7"/>
       <c r="D755" s="8"/>
@@ -24054,7 +24054,7 @@
       </c>
       <c r="I755" s="7"/>
       <c r="J755" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="756" spans="1:10" x14ac:dyDescent="0.4">
@@ -24062,7 +24062,7 @@
         <v>351</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C756" s="7"/>
       <c r="D756" s="8"/>
@@ -24074,20 +24074,20 @@
       <c r="H756" s="8"/>
       <c r="I756" s="7"/>
       <c r="J756" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A757" s="3" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B757" s="3" t="s">
         <v>2007</v>
-      </c>
-      <c r="B757" s="3" t="s">
-        <v>2008</v>
       </c>
       <c r="C757" s="7"/>
       <c r="D757" s="8"/>
       <c r="E757" s="7" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F757" s="8"/>
       <c r="G757" s="7" t="s">
@@ -24096,35 +24096,35 @@
       <c r="H757" s="8"/>
       <c r="I757" s="7"/>
       <c r="J757" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="758" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A758" s="3" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C758" s="7"/>
       <c r="D758" s="8"/>
       <c r="E758" s="7" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F758" s="8"/>
       <c r="G758" s="7"/>
       <c r="H758" s="8"/>
       <c r="I758" s="7"/>
       <c r="J758" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="759" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A759" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B759" s="3" t="s">
         <v>2012</v>
-      </c>
-      <c r="B759" s="3" t="s">
-        <v>2013</v>
       </c>
       <c r="C759" s="7"/>
       <c r="D759" s="8"/>
@@ -24136,35 +24136,35 @@
       <c r="H759" s="8"/>
       <c r="I759" s="7"/>
       <c r="J759" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="760" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A760" s="3" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C760" s="7"/>
       <c r="D760" s="8"/>
       <c r="E760" s="7" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F760" s="8"/>
       <c r="G760" s="7"/>
       <c r="H760" s="8"/>
       <c r="I760" s="7"/>
       <c r="J760" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="761" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A761" s="3" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C761" s="7"/>
       <c r="D761" s="8"/>
@@ -24172,19 +24172,19 @@
       <c r="F761" s="8"/>
       <c r="G761" s="7"/>
       <c r="H761" s="8" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I761" s="7"/>
       <c r="J761" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="762" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A762" s="3" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C762" s="7"/>
       <c r="D762" s="8"/>
@@ -24196,15 +24196,15 @@
       </c>
       <c r="I762" s="7"/>
       <c r="J762" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="763" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A763" s="3" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C763" s="7"/>
       <c r="D763" s="8" t="s">
@@ -24216,15 +24216,15 @@
       <c r="H763" s="8"/>
       <c r="I763" s="7"/>
       <c r="J763" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="764" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A764" s="3" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C764" s="7"/>
       <c r="D764" s="8"/>
@@ -24238,15 +24238,15 @@
       </c>
       <c r="I764" s="7"/>
       <c r="J764" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="765" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A765" s="3" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B765" s="3" t="s">
         <v>2021</v>
-      </c>
-      <c r="B765" s="3" t="s">
-        <v>2022</v>
       </c>
       <c r="C765" s="7"/>
       <c r="D765" s="8"/>
@@ -24258,15 +24258,15 @@
       </c>
       <c r="I765" s="7"/>
       <c r="J765" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="766" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A766" s="3" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C766" s="7"/>
       <c r="D766" s="8"/>
@@ -24280,15 +24280,15 @@
       <c r="H766" s="8"/>
       <c r="I766" s="7"/>
       <c r="J766" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="767" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A767" s="3" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B767" s="3" t="s">
         <v>2024</v>
-      </c>
-      <c r="B767" s="3" t="s">
-        <v>2025</v>
       </c>
       <c r="C767" s="7"/>
       <c r="D767" s="8"/>
@@ -24300,15 +24300,15 @@
       <c r="H767" s="8"/>
       <c r="I767" s="7"/>
       <c r="J767" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="768" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A768" s="3" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C768" s="7"/>
       <c r="D768" s="8"/>
@@ -24320,15 +24320,15 @@
       </c>
       <c r="I768" s="7"/>
       <c r="J768" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="769" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A769" s="3" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B769" s="3" t="s">
         <v>2027</v>
-      </c>
-      <c r="B769" s="3" t="s">
-        <v>2028</v>
       </c>
       <c r="C769" s="7"/>
       <c r="D769" s="8"/>
@@ -24336,19 +24336,19 @@
       <c r="F769" s="8"/>
       <c r="G769" s="7"/>
       <c r="H769" s="8" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="I769" s="7"/>
       <c r="J769" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="770" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A770" s="3" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B770" s="3" t="s">
         <v>2030</v>
-      </c>
-      <c r="B770" s="3" t="s">
-        <v>2031</v>
       </c>
       <c r="C770" s="7"/>
       <c r="D770" s="8"/>
@@ -24360,15 +24360,15 @@
       <c r="H770" s="8"/>
       <c r="I770" s="7"/>
       <c r="J770" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="771" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A771" s="3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B771" s="3" t="s">
         <v>2032</v>
-      </c>
-      <c r="B771" s="3" t="s">
-        <v>2033</v>
       </c>
       <c r="C771" s="7"/>
       <c r="D771" s="8" t="s">
@@ -24380,29 +24380,29 @@
       <c r="H771" s="8"/>
       <c r="I771" s="7"/>
       <c r="J771" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A772" s="3" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B772" s="3" t="s">
         <v>2034</v>
-      </c>
-      <c r="B772" s="3" t="s">
-        <v>2035</v>
       </c>
       <c r="C772" s="7"/>
       <c r="D772" s="8"/>
       <c r="E772" s="7" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="F772" s="8"/>
       <c r="G772" s="7"/>
       <c r="H772" s="8" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="I772" s="7"/>
       <c r="J772" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="773" spans="1:10" x14ac:dyDescent="0.4">
@@ -24410,7 +24410,7 @@
         <v>361</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C773" s="7"/>
       <c r="D773" s="8"/>
@@ -24422,15 +24422,15 @@
       </c>
       <c r="I773" s="7"/>
       <c r="J773" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="774" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A774" s="3" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B774" s="3" t="s">
         <v>2039</v>
-      </c>
-      <c r="B774" s="3" t="s">
-        <v>2040</v>
       </c>
       <c r="C774" s="7"/>
       <c r="D774" s="8"/>
@@ -24442,7 +24442,7 @@
       </c>
       <c r="I774" s="7"/>
       <c r="J774" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="775" spans="1:10" x14ac:dyDescent="0.4">
@@ -24450,7 +24450,7 @@
         <v>390</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C775" s="7"/>
       <c r="D775" s="8"/>
@@ -24462,7 +24462,7 @@
       <c r="H775" s="8"/>
       <c r="I775" s="7"/>
       <c r="J775" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="776" spans="1:10" x14ac:dyDescent="0.4">
@@ -24470,7 +24470,7 @@
         <v>390</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C776" s="7"/>
       <c r="D776" s="8"/>
@@ -24484,7 +24484,7 @@
       </c>
       <c r="I776" s="7"/>
       <c r="J776" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="777" spans="1:10" x14ac:dyDescent="0.4">
@@ -24492,7 +24492,7 @@
         <v>390</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C777" s="7"/>
       <c r="D777" s="8"/>
@@ -24500,11 +24500,11 @@
       <c r="F777" s="8"/>
       <c r="G777" s="7"/>
       <c r="H777" s="8" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="I777" s="7"/>
       <c r="J777" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="778" spans="1:10" x14ac:dyDescent="0.4">
@@ -24512,7 +24512,7 @@
         <v>390</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C778" s="7"/>
       <c r="D778" s="8"/>
@@ -24524,7 +24524,7 @@
       </c>
       <c r="I778" s="7"/>
       <c r="J778" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="779" spans="1:10" x14ac:dyDescent="0.4">
@@ -24532,7 +24532,7 @@
         <v>390</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C779" s="7"/>
       <c r="D779" s="8"/>
@@ -24544,7 +24544,7 @@
       <c r="H779" s="8"/>
       <c r="I779" s="7"/>
       <c r="J779" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="780" spans="1:10" x14ac:dyDescent="0.4">
@@ -24552,13 +24552,13 @@
         <v>390</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C780" s="7"/>
       <c r="D780" s="8"/>
       <c r="E780" s="7"/>
       <c r="F780" s="8" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="G780" s="7" t="s">
         <v>826</v>
@@ -24566,7 +24566,7 @@
       <c r="H780" s="8"/>
       <c r="I780" s="7"/>
       <c r="J780" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="781" spans="1:10" x14ac:dyDescent="0.4">
@@ -24586,7 +24586,7 @@
       </c>
       <c r="I781" s="7"/>
       <c r="J781" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="782" spans="1:10" x14ac:dyDescent="0.4">
@@ -24594,7 +24594,7 @@
         <v>390</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C782" s="7"/>
       <c r="D782" s="8" t="s">
@@ -24608,7 +24608,7 @@
       </c>
       <c r="I782" s="7"/>
       <c r="J782" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="783" spans="1:10" x14ac:dyDescent="0.4">
@@ -24616,19 +24616,19 @@
         <v>390</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C783" s="7"/>
       <c r="D783" s="8"/>
       <c r="E783" s="7"/>
       <c r="F783" s="8" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="G783" s="7"/>
       <c r="H783" s="8"/>
       <c r="I783" s="7"/>
       <c r="J783" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="784" spans="1:10" x14ac:dyDescent="0.4">
@@ -24636,7 +24636,7 @@
         <v>390</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C784" s="7"/>
       <c r="D784" s="8"/>
@@ -24648,7 +24648,7 @@
       <c r="H784" s="8"/>
       <c r="I784" s="7"/>
       <c r="J784" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="785" spans="1:10" x14ac:dyDescent="0.4">
@@ -24656,7 +24656,7 @@
         <v>390</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C785" s="7"/>
       <c r="D785" s="8"/>
@@ -24670,7 +24670,7 @@
       </c>
       <c r="I785" s="7"/>
       <c r="J785" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="786" spans="1:10" x14ac:dyDescent="0.4">
@@ -24678,31 +24678,31 @@
         <v>390</v>
       </c>
       <c r="B786" s="3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C786" s="7" t="s">
         <v>2054</v>
-      </c>
-      <c r="C786" s="7" t="s">
-        <v>2055</v>
       </c>
       <c r="D786" s="8"/>
       <c r="E786" s="7" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="F786" s="8"/>
       <c r="G786" s="7"/>
       <c r="H786" s="8" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="I786" s="7"/>
       <c r="J786" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="787" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A787" s="3" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B787" s="3" t="s">
         <v>2058</v>
-      </c>
-      <c r="B787" s="3" t="s">
-        <v>2059</v>
       </c>
       <c r="C787" s="7" t="s">
         <v>1119</v>
@@ -24714,7 +24714,7 @@
       <c r="H787" s="8"/>
       <c r="I787" s="7"/>
       <c r="J787" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="788" spans="1:10" x14ac:dyDescent="0.4">
@@ -24722,14 +24722,14 @@
         <v>390</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C788" s="7" t="s">
         <v>750</v>
       </c>
       <c r="D788" s="8"/>
       <c r="E788" s="7" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="F788" s="8"/>
       <c r="G788" s="7" t="s">
@@ -24740,15 +24740,15 @@
       </c>
       <c r="I788" s="7"/>
       <c r="J788" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="789" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A789" s="3" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B789" s="3" t="s">
         <v>2062</v>
-      </c>
-      <c r="B789" s="3" t="s">
-        <v>2063</v>
       </c>
       <c r="C789" s="7" t="s">
         <v>939</v>
@@ -24760,15 +24760,15 @@
       <c r="H789" s="8"/>
       <c r="I789" s="7"/>
       <c r="J789" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="790" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A790" s="3" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C790" s="7"/>
       <c r="D790" s="8"/>
@@ -24782,40 +24782,40 @@
       </c>
       <c r="I790" s="7"/>
       <c r="J790" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="791" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A791" s="3" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B791" s="3" t="s">
         <v>2065</v>
       </c>
-      <c r="B791" s="3" t="s">
+      <c r="C791" s="7" t="s">
         <v>2066</v>
-      </c>
-      <c r="C791" s="7" t="s">
-        <v>2067</v>
       </c>
       <c r="D791" s="8"/>
       <c r="E791" s="7"/>
       <c r="F791" s="8"/>
       <c r="G791" s="7"/>
       <c r="H791" s="8" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="I791" s="7"/>
       <c r="J791" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="792" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A792" s="3" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B792" s="3" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C792" s="7" t="s">
         <v>2069</v>
-      </c>
-      <c r="C792" s="7" t="s">
-        <v>2070</v>
       </c>
       <c r="D792" s="8"/>
       <c r="E792" s="7"/>
@@ -24824,27 +24824,27 @@
       <c r="H792" s="8"/>
       <c r="I792" s="7"/>
       <c r="J792" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="793" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A793" s="3" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C793" s="7"/>
       <c r="D793" s="8"/>
       <c r="E793" s="7"/>
       <c r="F793" s="8" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="G793" s="7"/>
       <c r="H793" s="8"/>
       <c r="I793" s="7"/>
       <c r="J793" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="794" spans="1:10" x14ac:dyDescent="0.4">
@@ -24852,19 +24852,19 @@
         <v>414</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C794" s="7"/>
       <c r="D794" s="8"/>
       <c r="E794" s="7" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="F794" s="8"/>
       <c r="G794" s="7"/>
       <c r="H794" s="8"/>
       <c r="I794" s="7"/>
       <c r="J794" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="795" spans="1:10" x14ac:dyDescent="0.4">
@@ -24872,7 +24872,7 @@
         <v>414</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C795" s="7"/>
       <c r="D795" s="8"/>
@@ -24884,15 +24884,15 @@
       <c r="H795" s="8"/>
       <c r="I795" s="7"/>
       <c r="J795" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="796" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A796" s="3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B796" s="3" t="s">
         <v>2076</v>
-      </c>
-      <c r="B796" s="3" t="s">
-        <v>2077</v>
       </c>
       <c r="C796" s="7"/>
       <c r="D796" s="8"/>
@@ -24904,15 +24904,15 @@
       <c r="H796" s="8"/>
       <c r="I796" s="7"/>
       <c r="J796" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="797" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A797" s="3" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C797" s="7" t="s">
         <v>1002</v>
@@ -24924,15 +24924,15 @@
       <c r="H797" s="8"/>
       <c r="I797" s="7"/>
       <c r="J797" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="798" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A798" s="3" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C798" s="7" t="s">
         <v>722</v>
@@ -24944,20 +24944,20 @@
       <c r="H798" s="8"/>
       <c r="I798" s="7"/>
       <c r="J798" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="799" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A799" s="3" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C799" s="7"/>
       <c r="D799" s="8"/>
       <c r="E799" s="7" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="F799" s="8" t="s">
         <v>787</v>
@@ -24966,15 +24966,15 @@
       <c r="H799" s="8"/>
       <c r="I799" s="7"/>
       <c r="J799" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="800" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A800" s="3" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B800" s="3" t="s">
         <v>2082</v>
-      </c>
-      <c r="B800" s="3" t="s">
-        <v>2083</v>
       </c>
       <c r="C800" s="7"/>
       <c r="D800" s="8"/>
@@ -24986,15 +24986,15 @@
       <c r="H800" s="8"/>
       <c r="I800" s="7"/>
       <c r="J800" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="801" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A801" s="3" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B801" s="3" t="s">
         <v>2084</v>
-      </c>
-      <c r="B801" s="3" t="s">
-        <v>2085</v>
       </c>
       <c r="C801" s="7"/>
       <c r="D801" s="8"/>
@@ -25002,11 +25002,11 @@
       <c r="F801" s="8"/>
       <c r="G801" s="7"/>
       <c r="H801" s="8" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="I801" s="7"/>
       <c r="J801" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="802" spans="1:10" x14ac:dyDescent="0.4">
@@ -25014,7 +25014,7 @@
         <v>1403</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C802" s="7"/>
       <c r="D802" s="8"/>
@@ -25022,11 +25022,11 @@
       <c r="F802" s="8"/>
       <c r="G802" s="7"/>
       <c r="H802" s="8" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="I802" s="7"/>
       <c r="J802" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="803" spans="1:10" x14ac:dyDescent="0.4">
@@ -25034,7 +25034,7 @@
         <v>1403</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C803" s="7"/>
       <c r="D803" s="8"/>
@@ -25042,11 +25042,11 @@
       <c r="F803" s="8"/>
       <c r="G803" s="7"/>
       <c r="H803" s="8" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I803" s="7"/>
       <c r="J803" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="804" spans="1:10" x14ac:dyDescent="0.4">
@@ -25054,7 +25054,7 @@
         <v>1403</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C804" s="7"/>
       <c r="D804" s="8"/>
@@ -25066,35 +25066,35 @@
       </c>
       <c r="I804" s="7"/>
       <c r="J804" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="805" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A805" s="3" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B805" s="3" t="s">
         <v>2092</v>
-      </c>
-      <c r="B805" s="3" t="s">
-        <v>2093</v>
       </c>
       <c r="C805" s="7"/>
       <c r="D805" s="8"/>
       <c r="E805" s="7"/>
       <c r="F805" s="8" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="G805" s="7"/>
       <c r="H805" s="8"/>
       <c r="I805" s="7"/>
       <c r="J805" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="806" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A806" s="3" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B806" s="3" t="s">
         <v>2095</v>
-      </c>
-      <c r="B806" s="3" t="s">
-        <v>2096</v>
       </c>
       <c r="C806" s="7"/>
       <c r="D806" s="8"/>
@@ -25106,15 +25106,15 @@
       <c r="H806" s="8"/>
       <c r="I806" s="7"/>
       <c r="J806" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="807" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A807" s="3" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="C807" s="7"/>
       <c r="D807" s="8"/>
@@ -25126,21 +25126,21 @@
       </c>
       <c r="I807" s="7"/>
       <c r="J807" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="808" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A808" s="3" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C808" s="7"/>
       <c r="D808" s="8"/>
       <c r="E808" s="7"/>
       <c r="F808" s="8" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="G808" s="7"/>
       <c r="H808" s="8" t="s">
@@ -25148,22 +25148,22 @@
       </c>
       <c r="I808" s="7"/>
       <c r="J808" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="809" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A809" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B809" s="3" t="s">
         <v>2100</v>
-      </c>
-      <c r="B809" s="3" t="s">
-        <v>2101</v>
       </c>
       <c r="C809" s="7"/>
       <c r="D809" s="8" t="s">
         <v>799</v>
       </c>
       <c r="E809" s="7" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F809" s="8" t="s">
         <v>621</v>
@@ -25172,15 +25172,15 @@
       <c r="H809" s="8"/>
       <c r="I809" s="7"/>
       <c r="J809" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="810" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A810" s="3" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="C810" s="7"/>
       <c r="D810" s="8"/>
@@ -25190,19 +25190,19 @@
       <c r="F810" s="8"/>
       <c r="G810" s="7"/>
       <c r="H810" s="8" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="I810" s="7"/>
       <c r="J810" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="811" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A811" s="3" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B811" s="3" t="s">
         <v>2105</v>
-      </c>
-      <c r="B811" s="3" t="s">
-        <v>2106</v>
       </c>
       <c r="C811" s="7"/>
       <c r="D811" s="8"/>
@@ -25214,20 +25214,20 @@
       </c>
       <c r="I811" s="7"/>
       <c r="J811" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="812" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A812" s="3" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B812" s="3" t="s">
         <v>2107</v>
-      </c>
-      <c r="B812" s="3" t="s">
-        <v>2108</v>
       </c>
       <c r="C812" s="7"/>
       <c r="D812" s="8"/>
       <c r="E812" s="7" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="F812" s="8" t="s">
         <v>869</v>
@@ -25236,15 +25236,15 @@
       <c r="H812" s="8"/>
       <c r="I812" s="7"/>
       <c r="J812" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="813" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A813" s="3" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B813" s="3" t="s">
         <v>2110</v>
-      </c>
-      <c r="B813" s="3" t="s">
-        <v>2111</v>
       </c>
       <c r="C813" s="7"/>
       <c r="D813" s="8"/>
@@ -25256,15 +25256,15 @@
       </c>
       <c r="I813" s="7"/>
       <c r="J813" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="814" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A814" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B814" s="3" t="s">
         <v>2112</v>
-      </c>
-      <c r="B814" s="3" t="s">
-        <v>2113</v>
       </c>
       <c r="C814" s="7"/>
       <c r="D814" s="8"/>
@@ -25276,15 +25276,15 @@
       <c r="H814" s="8"/>
       <c r="I814" s="7"/>
       <c r="J814" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="815" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A815" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B815" s="3" t="s">
         <v>2114</v>
-      </c>
-      <c r="B815" s="3" t="s">
-        <v>2115</v>
       </c>
       <c r="C815" s="7"/>
       <c r="D815" s="8"/>
@@ -25296,15 +25296,15 @@
       </c>
       <c r="I815" s="7"/>
       <c r="J815" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="816" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A816" s="3" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="C816" s="7"/>
       <c r="D816" s="8"/>
@@ -25316,15 +25316,15 @@
       <c r="H816" s="8"/>
       <c r="I816" s="7"/>
       <c r="J816" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="817" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A817" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B817" s="3" t="s">
         <v>2117</v>
-      </c>
-      <c r="B817" s="3" t="s">
-        <v>2118</v>
       </c>
       <c r="C817" s="7"/>
       <c r="D817" s="8"/>
@@ -25334,19 +25334,19 @@
       <c r="F817" s="8"/>
       <c r="G817" s="7"/>
       <c r="H817" s="8" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="I817" s="7"/>
       <c r="J817" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="818" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A818" s="3" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B818" s="3" t="s">
         <v>2120</v>
-      </c>
-      <c r="B818" s="3" t="s">
-        <v>2121</v>
       </c>
       <c r="C818" s="7"/>
       <c r="D818" s="8"/>
@@ -25358,37 +25358,37 @@
       <c r="H818" s="8"/>
       <c r="I818" s="7"/>
       <c r="J818" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="819" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A819" s="3" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B819" s="3" t="s">
         <v>2122</v>
       </c>
-      <c r="B819" s="3" t="s">
-        <v>2123</v>
-      </c>
       <c r="C819" s="7" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D819" s="8"/>
       <c r="E819" s="7"/>
       <c r="F819" s="8"/>
       <c r="G819" s="7"/>
       <c r="H819" s="8" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="I819" s="7"/>
       <c r="J819" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="820" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A820" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="C820" s="7"/>
       <c r="D820" s="8" t="s">
@@ -25400,15 +25400,15 @@
       <c r="H820" s="8"/>
       <c r="I820" s="7"/>
       <c r="J820" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="821" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A821" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="C821" s="7"/>
       <c r="D821" s="8"/>
@@ -25420,59 +25420,59 @@
       <c r="H821" s="8"/>
       <c r="I821" s="7"/>
       <c r="J821" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="822" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A822" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C822" s="7"/>
       <c r="D822" s="8"/>
       <c r="E822" s="7" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F822" s="8" t="s">
         <v>2128</v>
-      </c>
-      <c r="F822" s="8" t="s">
-        <v>2129</v>
       </c>
       <c r="G822" s="7"/>
       <c r="H822" s="8" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="I822" s="7"/>
       <c r="J822" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="823" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A823" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="C823" s="7"/>
       <c r="D823" s="8"/>
       <c r="E823" s="7"/>
       <c r="F823" s="8" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="G823" s="7"/>
       <c r="H823" s="8"/>
       <c r="I823" s="7"/>
       <c r="J823" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="824" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A824" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C824" s="7"/>
       <c r="D824" s="8"/>
@@ -25484,15 +25484,15 @@
       </c>
       <c r="I824" s="7"/>
       <c r="J824" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="825" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A825" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C825" s="7"/>
       <c r="D825" s="8"/>
@@ -25504,37 +25504,37 @@
       <c r="H825" s="8"/>
       <c r="I825" s="7"/>
       <c r="J825" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="826" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A826" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="C826" s="7"/>
       <c r="D826" s="8"/>
       <c r="E826" s="7"/>
       <c r="F826" s="8" t="s">
+        <v>2135</v>
+      </c>
+      <c r="G826" s="7" t="s">
         <v>2136</v>
-      </c>
-      <c r="G826" s="7" t="s">
-        <v>2137</v>
       </c>
       <c r="H826" s="8"/>
       <c r="I826" s="7"/>
       <c r="J826" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="827" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A827" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C827" s="7"/>
       <c r="D827" s="8"/>
@@ -25546,19 +25546,19 @@
         <v>819</v>
       </c>
       <c r="J827" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="828" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A828" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C828" s="7"/>
       <c r="D828" s="8" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="E828" s="7"/>
       <c r="F828" s="8"/>
@@ -25566,35 +25566,35 @@
       <c r="H828" s="8"/>
       <c r="I828" s="7"/>
       <c r="J828" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="829" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A829" s="3" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C829" s="7"/>
       <c r="D829" s="8"/>
       <c r="E829" s="7"/>
       <c r="F829" s="8"/>
       <c r="G829" s="7" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="H829" s="8"/>
       <c r="I829" s="7"/>
       <c r="J829" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="830" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A830" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="C830" s="7"/>
       <c r="D830" s="8" t="s">
@@ -25606,20 +25606,20 @@
       <c r="H830" s="8"/>
       <c r="I830" s="7"/>
       <c r="J830" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="831" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A831" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="C831" s="7"/>
       <c r="D831" s="8"/>
       <c r="E831" s="7" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="F831" s="8"/>
       <c r="G831" s="7"/>
@@ -25628,15 +25628,15 @@
       </c>
       <c r="I831" s="7"/>
       <c r="J831" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="832" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A832" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="C832" s="7"/>
       <c r="D832" s="8"/>
@@ -25644,19 +25644,19 @@
       <c r="F832" s="8"/>
       <c r="G832" s="7"/>
       <c r="H832" s="8" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="I832" s="7"/>
       <c r="J832" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="833" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A833" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B833" s="3" t="s">
         <v>2148</v>
-      </c>
-      <c r="B833" s="3" t="s">
-        <v>2149</v>
       </c>
       <c r="C833" s="7"/>
       <c r="D833" s="8"/>
@@ -25668,15 +25668,15 @@
       </c>
       <c r="I833" s="7"/>
       <c r="J833" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="834" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A834" s="3" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B834" s="3" t="s">
         <v>2150</v>
-      </c>
-      <c r="B834" s="3" t="s">
-        <v>2151</v>
       </c>
       <c r="C834" s="7"/>
       <c r="D834" s="8"/>
@@ -25688,15 +25688,15 @@
       </c>
       <c r="I834" s="7"/>
       <c r="J834" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="835" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A835" s="3" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B835" s="3" t="s">
         <v>2152</v>
-      </c>
-      <c r="B835" s="3" t="s">
-        <v>2153</v>
       </c>
       <c r="C835" s="7"/>
       <c r="D835" s="8"/>
@@ -25708,15 +25708,15 @@
       <c r="H835" s="8"/>
       <c r="I835" s="7"/>
       <c r="J835" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="836" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A836" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B836" s="3" t="s">
         <v>2154</v>
-      </c>
-      <c r="B836" s="3" t="s">
-        <v>2155</v>
       </c>
       <c r="C836" s="7"/>
       <c r="D836" s="8"/>
@@ -25728,15 +25728,15 @@
       <c r="H836" s="8"/>
       <c r="I836" s="7"/>
       <c r="J836" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="837" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A837" s="3" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="C837" s="7"/>
       <c r="D837" s="8"/>
@@ -25748,15 +25748,15 @@
       </c>
       <c r="I837" s="7"/>
       <c r="J837" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="838" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A838" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B838" s="3" t="s">
         <v>2157</v>
-      </c>
-      <c r="B838" s="3" t="s">
-        <v>2158</v>
       </c>
       <c r="C838" s="7"/>
       <c r="D838" s="8"/>
@@ -25768,15 +25768,15 @@
       <c r="H838" s="8"/>
       <c r="I838" s="7"/>
       <c r="J838" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="839" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A839" s="3" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="C839" s="7" t="s">
         <v>722</v>
@@ -25790,15 +25790,15 @@
       </c>
       <c r="I839" s="7"/>
       <c r="J839" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="840" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A840" s="3" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B840" s="3" t="s">
         <v>2160</v>
-      </c>
-      <c r="B840" s="3" t="s">
-        <v>2161</v>
       </c>
       <c r="C840" s="7"/>
       <c r="D840" s="8"/>
@@ -25810,15 +25810,15 @@
       </c>
       <c r="I840" s="7"/>
       <c r="J840" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="841" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A841" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B841" s="3" t="s">
         <v>2162</v>
-      </c>
-      <c r="B841" s="3" t="s">
-        <v>2163</v>
       </c>
       <c r="C841" s="7"/>
       <c r="D841" s="8"/>
@@ -25832,15 +25832,15 @@
       </c>
       <c r="I841" s="7"/>
       <c r="J841" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="842" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A842" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B842" s="3" t="s">
         <v>2164</v>
-      </c>
-      <c r="B842" s="3" t="s">
-        <v>2165</v>
       </c>
       <c r="C842" s="7" t="s">
         <v>935</v>
@@ -25852,15 +25852,15 @@
       <c r="H842" s="8"/>
       <c r="I842" s="7"/>
       <c r="J842" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="843" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A843" s="3" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C843" s="7"/>
       <c r="D843" s="8"/>
@@ -25872,15 +25872,15 @@
       <c r="H843" s="8"/>
       <c r="I843" s="7"/>
       <c r="J843" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="844" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A844" s="3" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="C844" s="7"/>
       <c r="D844" s="8"/>
@@ -25892,15 +25892,15 @@
       <c r="H844" s="8"/>
       <c r="I844" s="7"/>
       <c r="J844" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="845" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A845" s="3" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C845" s="7"/>
       <c r="D845" s="8"/>
@@ -25912,15 +25912,15 @@
       </c>
       <c r="I845" s="7"/>
       <c r="J845" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="846" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A846" s="3" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B846" s="3" t="s">
         <v>2169</v>
-      </c>
-      <c r="B846" s="3" t="s">
-        <v>2170</v>
       </c>
       <c r="C846" s="7" t="s">
         <v>730</v>
@@ -25932,15 +25932,15 @@
       <c r="H846" s="8"/>
       <c r="I846" s="7"/>
       <c r="J846" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="847" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A847" s="3" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B847" s="3" t="s">
         <v>2171</v>
-      </c>
-      <c r="B847" s="3" t="s">
-        <v>2172</v>
       </c>
       <c r="C847" s="7"/>
       <c r="D847" s="8"/>
@@ -25950,19 +25950,19 @@
       <c r="F847" s="8"/>
       <c r="G847" s="7"/>
       <c r="H847" s="8" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="I847" s="7"/>
       <c r="J847" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="848" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A848" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B848" s="3" t="s">
         <v>2174</v>
-      </c>
-      <c r="B848" s="3" t="s">
-        <v>2175</v>
       </c>
       <c r="C848" s="7"/>
       <c r="D848" s="8"/>
@@ -25974,7 +25974,7 @@
       </c>
       <c r="I848" s="7"/>
       <c r="J848" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="849" spans="1:10" x14ac:dyDescent="0.4">
@@ -25982,7 +25982,7 @@
         <v>468</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="C849" s="7"/>
       <c r="D849" s="8"/>
@@ -25994,15 +25994,15 @@
       <c r="H849" s="8"/>
       <c r="I849" s="7"/>
       <c r="J849" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="850" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A850" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B850" s="3" t="s">
         <v>2177</v>
-      </c>
-      <c r="B850" s="3" t="s">
-        <v>2178</v>
       </c>
       <c r="C850" s="7"/>
       <c r="D850" s="8"/>
@@ -26018,15 +26018,15 @@
       </c>
       <c r="I850" s="7"/>
       <c r="J850" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="851" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A851" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B851" s="3" t="s">
         <v>2179</v>
-      </c>
-      <c r="B851" s="3" t="s">
-        <v>2180</v>
       </c>
       <c r="C851" s="7"/>
       <c r="D851" s="8"/>
@@ -26038,15 +26038,15 @@
       </c>
       <c r="I851" s="7"/>
       <c r="J851" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="852" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A852" s="3" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="C852" s="7"/>
       <c r="D852" s="8"/>
@@ -26058,35 +26058,35 @@
       <c r="H852" s="8"/>
       <c r="I852" s="7"/>
       <c r="J852" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="853" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A853" s="3" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="C853" s="7"/>
       <c r="D853" s="8"/>
       <c r="E853" s="7" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="F853" s="8"/>
       <c r="G853" s="7"/>
       <c r="H853" s="8"/>
       <c r="I853" s="7"/>
       <c r="J853" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="854" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A854" s="3" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="C854" s="7"/>
       <c r="D854" s="8"/>
@@ -26098,15 +26098,15 @@
       </c>
       <c r="I854" s="7"/>
       <c r="J854" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="855" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A855" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B855" s="3" t="s">
         <v>2185</v>
-      </c>
-      <c r="B855" s="3" t="s">
-        <v>2186</v>
       </c>
       <c r="C855" s="7" t="s">
         <v>1017</v>
@@ -26118,15 +26118,15 @@
       <c r="H855" s="8"/>
       <c r="I855" s="7"/>
       <c r="J855" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="856" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A856" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B856" s="3" t="s">
         <v>2187</v>
-      </c>
-      <c r="B856" s="3" t="s">
-        <v>2188</v>
       </c>
       <c r="C856" s="7"/>
       <c r="D856" s="8"/>
@@ -26138,7 +26138,7 @@
       </c>
       <c r="I856" s="7"/>
       <c r="J856" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="857" spans="1:10" x14ac:dyDescent="0.4">
@@ -26146,7 +26146,7 @@
         <v>488</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C857" s="7"/>
       <c r="D857" s="8"/>
@@ -26158,15 +26158,15 @@
       </c>
       <c r="I857" s="7"/>
       <c r="J857" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="858" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A858" s="3" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B858" s="3" t="s">
         <v>2190</v>
-      </c>
-      <c r="B858" s="3" t="s">
-        <v>2191</v>
       </c>
       <c r="C858" s="7"/>
       <c r="D858" s="8"/>
@@ -26174,11 +26174,11 @@
       <c r="F858" s="8"/>
       <c r="G858" s="7"/>
       <c r="H858" s="8" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="I858" s="7"/>
       <c r="J858" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="859" spans="1:10" x14ac:dyDescent="0.4">
@@ -26186,7 +26186,7 @@
         <v>491</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C859" s="7"/>
       <c r="D859" s="8"/>
@@ -26198,15 +26198,15 @@
       <c r="H859" s="8"/>
       <c r="I859" s="7"/>
       <c r="J859" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="860" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A860" s="3" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B860" s="3" t="s">
         <v>2193</v>
-      </c>
-      <c r="B860" s="3" t="s">
-        <v>2194</v>
       </c>
       <c r="C860" s="7"/>
       <c r="D860" s="8"/>
@@ -26218,18 +26218,18 @@
       </c>
       <c r="I860" s="7"/>
       <c r="J860" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="861" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A861" s="3" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B861" s="3" t="s">
         <v>2195</v>
       </c>
-      <c r="B861" s="3" t="s">
+      <c r="C861" s="7" t="s">
         <v>2196</v>
-      </c>
-      <c r="C861" s="7" t="s">
-        <v>2197</v>
       </c>
       <c r="D861" s="8"/>
       <c r="E861" s="7"/>
@@ -26238,15 +26238,15 @@
       <c r="H861" s="8"/>
       <c r="I861" s="7"/>
       <c r="J861" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="862" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A862" s="3" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="C862" s="7"/>
       <c r="D862" s="8"/>
@@ -26258,15 +26258,15 @@
       </c>
       <c r="I862" s="7"/>
       <c r="J862" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="863" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A863" s="3" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="C863" s="7"/>
       <c r="D863" s="8"/>
@@ -26278,18 +26278,18 @@
       </c>
       <c r="I863" s="7"/>
       <c r="J863" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="864" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A864" s="3" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B864" s="3" t="s">
         <v>2200</v>
       </c>
-      <c r="B864" s="3" t="s">
+      <c r="C864" s="7" t="s">
         <v>2201</v>
-      </c>
-      <c r="C864" s="7" t="s">
-        <v>2202</v>
       </c>
       <c r="D864" s="8"/>
       <c r="E864" s="7"/>
@@ -26298,18 +26298,18 @@
       <c r="H864" s="8"/>
       <c r="I864" s="7"/>
       <c r="J864" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="865" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A865" s="3" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B865" s="3" t="s">
         <v>2203</v>
       </c>
-      <c r="B865" s="3" t="s">
+      <c r="C865" s="7" t="s">
         <v>2204</v>
-      </c>
-      <c r="C865" s="7" t="s">
-        <v>2205</v>
       </c>
       <c r="D865" s="8"/>
       <c r="E865" s="7"/>
@@ -26318,15 +26318,15 @@
       <c r="H865" s="8"/>
       <c r="I865" s="7"/>
       <c r="J865" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="866" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A866" s="3" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B866" s="3" t="s">
         <v>2206</v>
-      </c>
-      <c r="B866" s="3" t="s">
-        <v>2207</v>
       </c>
       <c r="C866" s="7"/>
       <c r="D866" s="8"/>
@@ -26338,15 +26338,15 @@
       </c>
       <c r="I866" s="7"/>
       <c r="J866" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="867" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A867" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B867" s="3" t="s">
         <v>2208</v>
-      </c>
-      <c r="B867" s="3" t="s">
-        <v>2209</v>
       </c>
       <c r="C867" s="7"/>
       <c r="D867" s="8"/>
@@ -26358,15 +26358,15 @@
         <v>929</v>
       </c>
       <c r="J867" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="868" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A868" s="3" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="C868" s="7"/>
       <c r="D868" s="8"/>
@@ -26378,15 +26378,15 @@
         <v>1049</v>
       </c>
       <c r="J868" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="869" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A869" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B869" s="3" t="s">
         <v>2211</v>
-      </c>
-      <c r="B869" s="3" t="s">
-        <v>2212</v>
       </c>
       <c r="C869" s="7"/>
       <c r="D869" s="8"/>
@@ -26398,15 +26398,15 @@
         <v>1103</v>
       </c>
       <c r="J869" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="870" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A870" s="3" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B870" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C870" s="7"/>
       <c r="D870" s="8"/>
@@ -26418,15 +26418,15 @@
       </c>
       <c r="I870" s="7"/>
       <c r="J870" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="871" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A871" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B871" s="3" t="s">
         <v>2213</v>
-      </c>
-      <c r="B871" s="3" t="s">
-        <v>2214</v>
       </c>
       <c r="C871" s="7"/>
       <c r="D871" s="8"/>
@@ -26438,15 +26438,15 @@
       </c>
       <c r="I871" s="7"/>
       <c r="J871" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="872" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A872" s="3" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="C872" s="7"/>
       <c r="D872" s="8"/>
@@ -26454,19 +26454,19 @@
       <c r="F872" s="8"/>
       <c r="G872" s="7"/>
       <c r="H872" s="8" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="I872" s="7"/>
       <c r="J872" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="873" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A873" s="3" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="C873" s="7"/>
       <c r="D873" s="8"/>
@@ -26478,15 +26478,15 @@
       </c>
       <c r="I873" s="7"/>
       <c r="J873" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="874" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A874" s="3" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B874" s="3" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="C874" s="7"/>
       <c r="D874" s="8"/>
@@ -26498,15 +26498,15 @@
       <c r="H874" s="8"/>
       <c r="I874" s="7"/>
       <c r="J874" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="875" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A875" s="3" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="C875" s="7"/>
       <c r="D875" s="8"/>
@@ -26518,15 +26518,15 @@
       <c r="H875" s="8"/>
       <c r="I875" s="7"/>
       <c r="J875" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="876" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A876" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B876" s="3" t="s">
         <v>2220</v>
-      </c>
-      <c r="B876" s="3" t="s">
-        <v>2221</v>
       </c>
       <c r="C876" s="7"/>
       <c r="D876" s="8"/>
@@ -26538,15 +26538,15 @@
       <c r="H876" s="8"/>
       <c r="I876" s="7"/>
       <c r="J876" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="877" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A877" s="3" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B877" s="3" t="s">
         <v>2222</v>
-      </c>
-      <c r="B877" s="3" t="s">
-        <v>2223</v>
       </c>
       <c r="C877" s="7"/>
       <c r="D877" s="8"/>
@@ -26558,15 +26558,15 @@
       <c r="H877" s="8"/>
       <c r="I877" s="7"/>
       <c r="J877" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="878" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A878" s="3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B878" s="3" t="s">
         <v>2224</v>
-      </c>
-      <c r="B878" s="3" t="s">
-        <v>2225</v>
       </c>
       <c r="C878" s="7"/>
       <c r="D878" s="8"/>
@@ -26578,35 +26578,35 @@
       <c r="H878" s="8"/>
       <c r="I878" s="7"/>
       <c r="J878" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="879" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A879" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B879" s="3" t="s">
         <v>2226</v>
-      </c>
-      <c r="B879" s="3" t="s">
-        <v>2227</v>
       </c>
       <c r="C879" s="7"/>
       <c r="D879" s="8"/>
       <c r="E879" s="7"/>
       <c r="F879" s="8"/>
       <c r="G879" s="7" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="H879" s="8"/>
       <c r="I879" s="7"/>
       <c r="J879" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="880" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A880" s="3" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B880" s="3" t="s">
         <v>2229</v>
-      </c>
-      <c r="B880" s="3" t="s">
-        <v>2230</v>
       </c>
       <c r="C880" s="7"/>
       <c r="D880" s="8"/>
@@ -26618,15 +26618,15 @@
         <v>709</v>
       </c>
       <c r="J880" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="881" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A881" s="3" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B881" s="3" t="s">
         <v>2231</v>
-      </c>
-      <c r="B881" s="3" t="s">
-        <v>2232</v>
       </c>
       <c r="C881" s="7"/>
       <c r="D881" s="8"/>
@@ -26638,37 +26638,37 @@
         <v>1540</v>
       </c>
       <c r="J881" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="882" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A882" s="3" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B882" s="3" t="s">
         <v>2233</v>
       </c>
-      <c r="B882" s="3" t="s">
+      <c r="C882" s="7" t="s">
         <v>2234</v>
-      </c>
-      <c r="C882" s="7" t="s">
-        <v>2235</v>
       </c>
       <c r="D882" s="8"/>
       <c r="E882" s="7"/>
       <c r="F882" s="8" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="G882" s="7"/>
       <c r="H882" s="8"/>
       <c r="I882" s="7"/>
       <c r="J882" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="883" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A883" s="3" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="C883" s="7"/>
       <c r="D883" s="8"/>
@@ -26680,15 +26680,15 @@
       <c r="H883" s="8"/>
       <c r="I883" s="7"/>
       <c r="J883" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="884" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A884" s="3" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B884" s="3" t="s">
         <v>2238</v>
-      </c>
-      <c r="B884" s="3" t="s">
-        <v>2239</v>
       </c>
       <c r="C884" s="7"/>
       <c r="D884" s="8"/>
@@ -26700,15 +26700,15 @@
       <c r="H884" s="8"/>
       <c r="I884" s="7"/>
       <c r="J884" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="885" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A885" s="3" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B885" s="3" t="s">
         <v>2240</v>
-      </c>
-      <c r="B885" s="3" t="s">
-        <v>2241</v>
       </c>
       <c r="C885" s="7"/>
       <c r="D885" s="8"/>
@@ -26720,15 +26720,15 @@
       </c>
       <c r="I885" s="7"/>
       <c r="J885" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="886" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A886" s="3" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="C886" s="7"/>
       <c r="D886" s="8"/>
@@ -26740,19 +26740,19 @@
       <c r="H886" s="8"/>
       <c r="I886" s="7"/>
       <c r="J886" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="887" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A887" s="3" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B887" s="3" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="C887" s="7"/>
       <c r="D887" s="8" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="E887" s="7"/>
       <c r="F887" s="8"/>
@@ -26762,15 +26762,15 @@
       <c r="H887" s="8"/>
       <c r="I887" s="7"/>
       <c r="J887" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="888" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A888" s="3" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B888" s="3" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="C888" s="7"/>
       <c r="D888" s="8"/>
@@ -26778,39 +26778,39 @@
       <c r="F888" s="8"/>
       <c r="G888" s="7"/>
       <c r="H888" s="8" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="I888" s="7"/>
       <c r="J888" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="889" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A889" s="3" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B889" s="3" t="s">
         <v>2247</v>
-      </c>
-      <c r="B889" s="3" t="s">
-        <v>2248</v>
       </c>
       <c r="C889" s="7"/>
       <c r="D889" s="8"/>
       <c r="E889" s="7"/>
       <c r="F889" s="8" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="G889" s="7"/>
       <c r="H889" s="8"/>
       <c r="I889" s="7"/>
       <c r="J889" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="890" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A890" s="3" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B890" s="3" t="s">
         <v>2250</v>
-      </c>
-      <c r="B890" s="3" t="s">
-        <v>2251</v>
       </c>
       <c r="C890" s="7"/>
       <c r="D890" s="8"/>
@@ -26822,15 +26822,15 @@
       </c>
       <c r="I890" s="7"/>
       <c r="J890" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="891" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A891" s="3" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="B891" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C891" s="7"/>
       <c r="D891" s="8"/>
@@ -26842,7 +26842,7 @@
       <c r="H891" s="8"/>
       <c r="I891" s="7"/>
       <c r="J891" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="892" spans="1:10" x14ac:dyDescent="0.4">
@@ -26850,7 +26850,7 @@
         <v>540</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C892" s="7"/>
       <c r="D892" s="8"/>
@@ -26862,7 +26862,7 @@
       <c r="H892" s="8"/>
       <c r="I892" s="7"/>
       <c r="J892" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="893" spans="1:10" x14ac:dyDescent="0.4">
@@ -26870,10 +26870,10 @@
         <v>547</v>
       </c>
       <c r="B893" s="3" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C893" s="7" t="s">
         <v>2254</v>
-      </c>
-      <c r="C893" s="7" t="s">
-        <v>2255</v>
       </c>
       <c r="D893" s="8"/>
       <c r="E893" s="7"/>
@@ -26882,7 +26882,7 @@
       <c r="H893" s="8"/>
       <c r="I893" s="7"/>
       <c r="J893" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="894" spans="1:10" x14ac:dyDescent="0.4">
@@ -26890,10 +26890,10 @@
         <v>547</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="C894" s="7" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="D894" s="8"/>
       <c r="E894" s="7" t="s">
@@ -26904,15 +26904,15 @@
       <c r="H894" s="8"/>
       <c r="I894" s="7"/>
       <c r="J894" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="895" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A895" s="3" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B895" s="3" t="s">
         <v>2257</v>
-      </c>
-      <c r="B895" s="3" t="s">
-        <v>2258</v>
       </c>
       <c r="C895" s="7"/>
       <c r="D895" s="8"/>
@@ -26924,20 +26924,20 @@
         <v>982</v>
       </c>
       <c r="J895" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="896" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A896" s="3" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B896" s="3" t="s">
         <v>2259</v>
-      </c>
-      <c r="B896" s="3" t="s">
-        <v>2260</v>
       </c>
       <c r="C896" s="7"/>
       <c r="D896" s="8"/>
       <c r="E896" s="7" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="F896" s="8"/>
       <c r="G896" s="7"/>
@@ -26946,15 +26946,15 @@
       </c>
       <c r="I896" s="7"/>
       <c r="J896" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="897" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A897" s="3" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B897" s="3" t="s">
         <v>2262</v>
-      </c>
-      <c r="B897" s="3" t="s">
-        <v>2263</v>
       </c>
       <c r="C897" s="7"/>
       <c r="D897" s="8"/>
@@ -26966,35 +26966,35 @@
       <c r="H897" s="8"/>
       <c r="I897" s="7"/>
       <c r="J897" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="898" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A898" s="3" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C898" s="7"/>
       <c r="D898" s="8"/>
       <c r="E898" s="7"/>
       <c r="F898" s="8" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="G898" s="7"/>
       <c r="H898" s="8"/>
       <c r="I898" s="7"/>
       <c r="J898" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="899" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A899" s="3" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B899" s="3" t="s">
         <v>2265</v>
-      </c>
-      <c r="B899" s="3" t="s">
-        <v>2266</v>
       </c>
       <c r="C899" s="7"/>
       <c r="D899" s="8"/>
@@ -27002,39 +27002,39 @@
       <c r="F899" s="8"/>
       <c r="G899" s="7"/>
       <c r="H899" s="8" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="I899" s="7"/>
       <c r="J899" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="900" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A900" s="3" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B900" s="3" t="s">
         <v>2268</v>
-      </c>
-      <c r="B900" s="3" t="s">
-        <v>2269</v>
       </c>
       <c r="C900" s="7"/>
       <c r="D900" s="8"/>
       <c r="E900" s="7"/>
       <c r="F900" s="8" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="G900" s="7"/>
       <c r="H900" s="8"/>
       <c r="I900" s="7"/>
       <c r="J900" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="901" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A901" s="3" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C901" s="7"/>
       <c r="D901" s="8"/>
@@ -27042,19 +27042,19 @@
       <c r="F901" s="8"/>
       <c r="G901" s="7"/>
       <c r="H901" s="8" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="I901" s="7"/>
       <c r="J901" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="902" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A902" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B902" s="3" t="s">
         <v>2271</v>
-      </c>
-      <c r="B902" s="3" t="s">
-        <v>2272</v>
       </c>
       <c r="C902" s="7"/>
       <c r="D902" s="8"/>
@@ -27066,15 +27066,15 @@
       <c r="H902" s="8"/>
       <c r="I902" s="7"/>
       <c r="J902" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="903" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A903" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B903" s="3" t="s">
         <v>2273</v>
-      </c>
-      <c r="B903" s="3" t="s">
-        <v>2274</v>
       </c>
       <c r="C903" s="7"/>
       <c r="D903" s="8"/>
@@ -27086,55 +27086,55 @@
       <c r="H903" s="8"/>
       <c r="I903" s="7"/>
       <c r="J903" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="904" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A904" s="3" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="C904" s="7"/>
       <c r="D904" s="8"/>
       <c r="E904" s="7" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F904" s="8"/>
       <c r="G904" s="7"/>
       <c r="H904" s="8"/>
       <c r="I904" s="7"/>
       <c r="J904" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="905" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A905" s="3" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="C905" s="7"/>
       <c r="D905" s="8"/>
       <c r="E905" s="7"/>
       <c r="F905" s="8" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="G905" s="7"/>
       <c r="H905" s="8"/>
       <c r="I905" s="7"/>
       <c r="J905" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="906" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A906" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B906" s="3" t="s">
         <v>2278</v>
-      </c>
-      <c r="B906" s="3" t="s">
-        <v>2279</v>
       </c>
       <c r="C906" s="7"/>
       <c r="D906" s="8"/>
@@ -27146,15 +27146,15 @@
       <c r="H906" s="8"/>
       <c r="I906" s="7"/>
       <c r="J906" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="907" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A907" s="3" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="C907" s="7"/>
       <c r="D907" s="8"/>
@@ -27166,15 +27166,15 @@
       </c>
       <c r="I907" s="7"/>
       <c r="J907" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="908" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A908" s="3" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="B908" s="3" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="C908" s="7"/>
       <c r="D908" s="8"/>
@@ -27186,15 +27186,15 @@
       </c>
       <c r="I908" s="7"/>
       <c r="J908" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="909" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A909" s="3" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B909" s="3" t="s">
         <v>2282</v>
-      </c>
-      <c r="B909" s="3" t="s">
-        <v>2283</v>
       </c>
       <c r="C909" s="7"/>
       <c r="D909" s="8"/>
@@ -27206,15 +27206,15 @@
       <c r="H909" s="8"/>
       <c r="I909" s="7"/>
       <c r="J909" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="910" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A910" s="3" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B910" s="3" t="s">
         <v>2284</v>
-      </c>
-      <c r="B910" s="3" t="s">
-        <v>2285</v>
       </c>
       <c r="C910" s="7"/>
       <c r="D910" s="8"/>
@@ -27226,15 +27226,15 @@
       <c r="H910" s="8"/>
       <c r="I910" s="7"/>
       <c r="J910" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="911" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A911" s="3" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B911" s="3" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="C911" s="7"/>
       <c r="D911" s="8"/>
@@ -27246,15 +27246,15 @@
       </c>
       <c r="I911" s="7"/>
       <c r="J911" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="912" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A912" s="3" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B912" s="3" t="s">
         <v>2287</v>
-      </c>
-      <c r="B912" s="3" t="s">
-        <v>2288</v>
       </c>
       <c r="C912" s="7" t="s">
         <v>817</v>
@@ -27266,7 +27266,7 @@
       <c r="H912" s="8"/>
       <c r="I912" s="7"/>
       <c r="J912" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="913" spans="1:10" x14ac:dyDescent="0.4">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\litfind\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E68A975-610E-4017-B974-B034E9DC52CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E495314-4B04-41B8-A69B-47E072A0873F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9407" uniqueCount="4059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9408" uniqueCount="4059">
   <si>
     <t>강경애</t>
   </si>
@@ -14235,8 +14235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A871A3E-29B2-4725-A114-674E3D4FE56E}">
   <dimension ref="A1:J2050"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1488" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1499" sqref="B1499"/>
+    <sheetView tabSelected="1" topLeftCell="G2030" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2050" sqref="J2050"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -46214,7 +46214,9 @@
       </c>
       <c r="H1499" s="8"/>
       <c r="I1499" s="7"/>
-      <c r="J1499" s="8"/>
+      <c r="J1499" s="8" t="s">
+        <v>2285</v>
+      </c>
     </row>
     <row r="1500" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1500" s="3" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\litfind\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19828BE4-BED2-4AE0-AED9-E7E9CC96D269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1BC189-6FEB-4346-AA96-5AA35713B300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10709" uniqueCount="4632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10710" uniqueCount="4632">
   <si>
     <t>강경애</t>
   </si>
@@ -16267,8 +16267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A871A3E-29B2-4725-A114-674E3D4FE56E}">
   <dimension ref="A1:J2305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1836" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1850" sqref="B1850"/>
+    <sheetView tabSelected="1" topLeftCell="A1917" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1927" sqref="F1927"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -57450,7 +57450,9 @@
       <c r="C1927" s="7"/>
       <c r="D1927" s="8"/>
       <c r="E1927" s="7"/>
-      <c r="F1927" s="8"/>
+      <c r="F1927" s="8" t="s">
+        <v>873</v>
+      </c>
       <c r="G1927" s="7" t="s">
         <v>1740</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\litfind\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01B8057-5BAA-4BC3-9195-5F7B48AD1771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBED8AE-83A5-49BE-968B-05695A629C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10727" uniqueCount="4641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="4644">
   <si>
     <t>강경애</t>
   </si>
@@ -15878,6 +15878,17 @@
   </si>
   <si>
     <t>얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1212B(영남)@</t>
+  </si>
+  <si>
+    <t>이덕무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책에 미친 바보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16301,10 +16312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A871A3E-29B2-4725-A114-674E3D4FE56E}">
-  <dimension ref="A1:J2308"/>
+  <dimension ref="A1:J2309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2288" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2308" sqref="J2308"/>
+    <sheetView tabSelected="1" topLeftCell="F2289" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2309" sqref="J2309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -57902,40 +57913,40 @@
     </row>
     <row r="1947" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1947" s="3" t="s">
-        <v>1942</v>
+        <v>4642</v>
       </c>
       <c r="B1947" s="3" t="s">
-        <v>1943</v>
+        <v>4643</v>
       </c>
       <c r="C1947" s="7"/>
       <c r="D1947" s="8"/>
       <c r="E1947" s="7"/>
-      <c r="F1947" s="8"/>
+      <c r="F1947" s="8" t="s">
+        <v>4641</v>
+      </c>
       <c r="G1947" s="7"/>
       <c r="H1947" s="8"/>
-      <c r="I1947" s="7" t="s">
-        <v>738</v>
-      </c>
+      <c r="I1947" s="7"/>
       <c r="J1947" s="8" t="s">
         <v>2278</v>
       </c>
     </row>
     <row r="1948" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1948" s="3" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="B1948" s="3" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="C1948" s="7"/>
       <c r="D1948" s="8"/>
       <c r="E1948" s="7"/>
       <c r="F1948" s="8"/>
       <c r="G1948" s="7"/>
-      <c r="H1948" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="I1948" s="7"/>
+      <c r="H1948" s="8"/>
+      <c r="I1948" s="7" t="s">
+        <v>738</v>
+      </c>
       <c r="J1948" s="8" t="s">
         <v>2278</v>
       </c>
@@ -57945,19 +57956,15 @@
         <v>1944</v>
       </c>
       <c r="B1949" s="3" t="s">
-        <v>1946</v>
-      </c>
-      <c r="C1949" s="7" t="s">
-        <v>695</v>
-      </c>
+        <v>1945</v>
+      </c>
+      <c r="C1949" s="7"/>
       <c r="D1949" s="8"/>
       <c r="E1949" s="7"/>
       <c r="F1949" s="8"/>
-      <c r="G1949" s="7" t="s">
-        <v>940</v>
-      </c>
+      <c r="G1949" s="7"/>
       <c r="H1949" s="8" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="I1949" s="7"/>
       <c r="J1949" s="8" t="s">
@@ -57966,18 +57973,22 @@
     </row>
     <row r="1950" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1950" s="3" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="B1950" s="3" t="s">
-        <v>1948</v>
-      </c>
-      <c r="C1950" s="7"/>
+        <v>1946</v>
+      </c>
+      <c r="C1950" s="7" t="s">
+        <v>695</v>
+      </c>
       <c r="D1950" s="8"/>
       <c r="E1950" s="7"/>
       <c r="F1950" s="8"/>
-      <c r="G1950" s="7"/>
+      <c r="G1950" s="7" t="s">
+        <v>940</v>
+      </c>
       <c r="H1950" s="8" t="s">
-        <v>590</v>
+        <v>649</v>
       </c>
       <c r="I1950" s="7"/>
       <c r="J1950" s="8" t="s">
@@ -57986,19 +57997,19 @@
     </row>
     <row r="1951" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1951" s="3" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B1951" s="3" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="C1951" s="7"/>
       <c r="D1951" s="8"/>
-      <c r="E1951" s="7" t="s">
-        <v>668</v>
-      </c>
+      <c r="E1951" s="7"/>
       <c r="F1951" s="8"/>
       <c r="G1951" s="7"/>
-      <c r="H1951" s="8"/>
+      <c r="H1951" s="8" t="s">
+        <v>590</v>
+      </c>
       <c r="I1951" s="7"/>
       <c r="J1951" s="8" t="s">
         <v>2278</v>
@@ -58006,21 +58017,19 @@
     </row>
     <row r="1952" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1952" s="3" t="s">
-        <v>339</v>
+        <v>1949</v>
       </c>
       <c r="B1952" s="3" t="s">
-        <v>1951</v>
-      </c>
-      <c r="C1952" s="7" t="s">
-        <v>1048</v>
-      </c>
+        <v>1950</v>
+      </c>
+      <c r="C1952" s="7"/>
       <c r="D1952" s="8"/>
-      <c r="E1952" s="7"/>
+      <c r="E1952" s="7" t="s">
+        <v>668</v>
+      </c>
       <c r="F1952" s="8"/>
       <c r="G1952" s="7"/>
-      <c r="H1952" s="8" t="s">
-        <v>1952</v>
-      </c>
+      <c r="H1952" s="8"/>
       <c r="I1952" s="7"/>
       <c r="J1952" s="8" t="s">
         <v>2278</v>
@@ -58031,15 +58040,17 @@
         <v>339</v>
       </c>
       <c r="B1953" s="3" t="s">
-        <v>1953</v>
-      </c>
-      <c r="C1953" s="7"/>
+        <v>1951</v>
+      </c>
+      <c r="C1953" s="7" t="s">
+        <v>1048</v>
+      </c>
       <c r="D1953" s="8"/>
       <c r="E1953" s="7"/>
       <c r="F1953" s="8"/>
       <c r="G1953" s="7"/>
       <c r="H1953" s="8" t="s">
-        <v>590</v>
+        <v>1952</v>
       </c>
       <c r="I1953" s="7"/>
       <c r="J1953" s="8" t="s">
@@ -58051,17 +58062,15 @@
         <v>339</v>
       </c>
       <c r="B1954" s="3" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C1954" s="7"/>
       <c r="D1954" s="8"/>
-      <c r="E1954" s="7" t="s">
-        <v>1955</v>
-      </c>
+      <c r="E1954" s="7"/>
       <c r="F1954" s="8"/>
       <c r="G1954" s="7"/>
       <c r="H1954" s="8" t="s">
-        <v>1956</v>
+        <v>590</v>
       </c>
       <c r="I1954" s="7"/>
       <c r="J1954" s="8" t="s">
@@ -58073,16 +58082,18 @@
         <v>339</v>
       </c>
       <c r="B1955" s="3" t="s">
-        <v>1957</v>
-      </c>
-      <c r="C1955" s="7" t="s">
-        <v>730</v>
-      </c>
+        <v>1954</v>
+      </c>
+      <c r="C1955" s="7"/>
       <c r="D1955" s="8"/>
-      <c r="E1955" s="7"/>
+      <c r="E1955" s="7" t="s">
+        <v>1955</v>
+      </c>
       <c r="F1955" s="8"/>
       <c r="G1955" s="7"/>
-      <c r="H1955" s="8"/>
+      <c r="H1955" s="8" t="s">
+        <v>1956</v>
+      </c>
       <c r="I1955" s="7"/>
       <c r="J1955" s="8" t="s">
         <v>2278</v>
@@ -58090,16 +58101,16 @@
     </row>
     <row r="1956" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1956" s="3" t="s">
-        <v>1958</v>
+        <v>339</v>
       </c>
       <c r="B1956" s="3" t="s">
-        <v>1959</v>
-      </c>
-      <c r="C1956" s="7"/>
+        <v>1957</v>
+      </c>
+      <c r="C1956" s="7" t="s">
+        <v>730</v>
+      </c>
       <c r="D1956" s="8"/>
-      <c r="E1956" s="7" t="s">
-        <v>884</v>
-      </c>
+      <c r="E1956" s="7"/>
       <c r="F1956" s="8"/>
       <c r="G1956" s="7"/>
       <c r="H1956" s="8"/>
@@ -58110,21 +58121,19 @@
     </row>
     <row r="1957" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1957" s="3" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="B1957" s="3" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="C1957" s="7"/>
       <c r="D1957" s="8"/>
       <c r="E1957" s="7" t="s">
-        <v>1962</v>
+        <v>884</v>
       </c>
       <c r="F1957" s="8"/>
       <c r="G1957" s="7"/>
-      <c r="H1957" s="8" t="s">
-        <v>652</v>
-      </c>
+      <c r="H1957" s="8"/>
       <c r="I1957" s="7"/>
       <c r="J1957" s="8" t="s">
         <v>2278</v>
@@ -58132,19 +58141,21 @@
     </row>
     <row r="1958" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1958" s="3" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="B1958" s="3" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="C1958" s="7"/>
       <c r="D1958" s="8"/>
       <c r="E1958" s="7" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="F1958" s="8"/>
       <c r="G1958" s="7"/>
-      <c r="H1958" s="8"/>
+      <c r="H1958" s="8" t="s">
+        <v>652</v>
+      </c>
       <c r="I1958" s="7"/>
       <c r="J1958" s="8" t="s">
         <v>2278</v>
@@ -58152,15 +58163,15 @@
     </row>
     <row r="1959" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1959" s="3" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="B1959" s="3" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="C1959" s="7"/>
       <c r="D1959" s="8"/>
       <c r="E1959" s="7" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="F1959" s="8"/>
       <c r="G1959" s="7"/>
@@ -58172,19 +58183,19 @@
     </row>
     <row r="1960" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1960" s="3" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="B1960" s="3" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="C1960" s="7"/>
       <c r="D1960" s="8"/>
-      <c r="E1960" s="7"/>
+      <c r="E1960" s="7" t="s">
+        <v>1968</v>
+      </c>
       <c r="F1960" s="8"/>
       <c r="G1960" s="7"/>
-      <c r="H1960" s="8" t="s">
-        <v>1316</v>
-      </c>
+      <c r="H1960" s="8"/>
       <c r="I1960" s="7"/>
       <c r="J1960" s="8" t="s">
         <v>2278</v>
@@ -58192,19 +58203,19 @@
     </row>
     <row r="1961" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1961" s="3" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="B1961" s="3" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="C1961" s="7"/>
       <c r="D1961" s="8"/>
       <c r="E1961" s="7"/>
-      <c r="F1961" s="8" t="s">
-        <v>746</v>
-      </c>
+      <c r="F1961" s="8"/>
       <c r="G1961" s="7"/>
-      <c r="H1961" s="8"/>
+      <c r="H1961" s="8" t="s">
+        <v>1316</v>
+      </c>
       <c r="I1961" s="7"/>
       <c r="J1961" s="8" t="s">
         <v>2278</v>
@@ -58212,23 +58223,19 @@
     </row>
     <row r="1962" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1962" s="3" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="B1962" s="3" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="C1962" s="7"/>
       <c r="D1962" s="8"/>
-      <c r="E1962" s="7" t="s">
-        <v>1017</v>
-      </c>
+      <c r="E1962" s="7"/>
       <c r="F1962" s="8" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="G1962" s="7"/>
-      <c r="H1962" s="8" t="s">
-        <v>652</v>
-      </c>
+      <c r="H1962" s="8"/>
       <c r="I1962" s="7"/>
       <c r="J1962" s="8" t="s">
         <v>2278</v>
@@ -58236,23 +58243,23 @@
     </row>
     <row r="1963" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1963" s="3" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="B1963" s="3" t="s">
-        <v>1976</v>
-      </c>
-      <c r="C1963" s="7" t="s">
-        <v>1977</v>
-      </c>
+        <v>1974</v>
+      </c>
+      <c r="C1963" s="7"/>
       <c r="D1963" s="8"/>
-      <c r="E1963" s="7"/>
+      <c r="E1963" s="7" t="s">
+        <v>1017</v>
+      </c>
       <c r="F1963" s="8" t="s">
-        <v>873</v>
-      </c>
-      <c r="G1963" s="7" t="s">
-        <v>1459</v>
-      </c>
-      <c r="H1963" s="8"/>
+        <v>664</v>
+      </c>
+      <c r="G1963" s="7"/>
+      <c r="H1963" s="8" t="s">
+        <v>652</v>
+      </c>
       <c r="I1963" s="7"/>
       <c r="J1963" s="8" t="s">
         <v>2278</v>
@@ -58263,16 +58270,20 @@
         <v>1975</v>
       </c>
       <c r="B1964" s="3" t="s">
-        <v>1978</v>
-      </c>
-      <c r="C1964" s="7"/>
+        <v>1976</v>
+      </c>
+      <c r="C1964" s="7" t="s">
+        <v>1977</v>
+      </c>
       <c r="D1964" s="8"/>
       <c r="E1964" s="7"/>
-      <c r="F1964" s="8"/>
-      <c r="G1964" s="7"/>
-      <c r="H1964" s="8" t="s">
-        <v>671</v>
-      </c>
+      <c r="F1964" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="G1964" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H1964" s="8"/>
       <c r="I1964" s="7"/>
       <c r="J1964" s="8" t="s">
         <v>2278</v>
@@ -58283,18 +58294,16 @@
         <v>1975</v>
       </c>
       <c r="B1965" s="3" t="s">
-        <v>1979</v>
-      </c>
-      <c r="C1965" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="D1965" s="8" t="s">
-        <v>1980</v>
-      </c>
+        <v>1978</v>
+      </c>
+      <c r="C1965" s="7"/>
+      <c r="D1965" s="8"/>
       <c r="E1965" s="7"/>
       <c r="F1965" s="8"/>
       <c r="G1965" s="7"/>
-      <c r="H1965" s="8"/>
+      <c r="H1965" s="8" t="s">
+        <v>671</v>
+      </c>
       <c r="I1965" s="7"/>
       <c r="J1965" s="8" t="s">
         <v>2278</v>
@@ -58302,16 +58311,18 @@
     </row>
     <row r="1966" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1966" s="3" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="B1966" s="3" t="s">
-        <v>1982</v>
-      </c>
-      <c r="C1966" s="7"/>
-      <c r="D1966" s="8"/>
-      <c r="E1966" s="7" t="s">
-        <v>632</v>
-      </c>
+        <v>1979</v>
+      </c>
+      <c r="C1966" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="D1966" s="8" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1966" s="7"/>
       <c r="F1966" s="8"/>
       <c r="G1966" s="7"/>
       <c r="H1966" s="8"/>
@@ -58322,17 +58333,17 @@
     </row>
     <row r="1967" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1967" s="3" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B1967" s="3" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="C1967" s="7"/>
       <c r="D1967" s="8"/>
-      <c r="E1967" s="7"/>
-      <c r="F1967" s="8" t="s">
-        <v>983</v>
-      </c>
+      <c r="E1967" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F1967" s="8"/>
       <c r="G1967" s="7"/>
       <c r="H1967" s="8"/>
       <c r="I1967" s="7"/>
@@ -58342,19 +58353,19 @@
     </row>
     <row r="1968" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1968" s="3" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="B1968" s="3" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1968" s="7"/>
       <c r="D1968" s="8"/>
       <c r="E1968" s="7"/>
-      <c r="F1968" s="8"/>
+      <c r="F1968" s="8" t="s">
+        <v>983</v>
+      </c>
       <c r="G1968" s="7"/>
-      <c r="H1968" s="8" t="s">
-        <v>649</v>
-      </c>
+      <c r="H1968" s="8"/>
       <c r="I1968" s="7"/>
       <c r="J1968" s="8" t="s">
         <v>2278</v>
@@ -58365,16 +58376,16 @@
         <v>1981</v>
       </c>
       <c r="B1969" s="3" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C1969" s="7"/>
       <c r="D1969" s="8"/>
       <c r="E1969" s="7"/>
       <c r="F1969" s="8"/>
-      <c r="G1969" s="7" t="s">
-        <v>1591</v>
-      </c>
-      <c r="H1969" s="8"/>
+      <c r="G1969" s="7"/>
+      <c r="H1969" s="8" t="s">
+        <v>649</v>
+      </c>
       <c r="I1969" s="7"/>
       <c r="J1969" s="8" t="s">
         <v>2278</v>
@@ -58385,18 +58396,16 @@
         <v>1981</v>
       </c>
       <c r="B1970" s="3" t="s">
-        <v>1987</v>
-      </c>
-      <c r="C1970" s="7" t="s">
-        <v>739</v>
-      </c>
+        <v>1986</v>
+      </c>
+      <c r="C1970" s="7"/>
       <c r="D1970" s="8"/>
       <c r="E1970" s="7"/>
       <c r="F1970" s="8"/>
-      <c r="G1970" s="7"/>
-      <c r="H1970" s="8" t="s">
-        <v>905</v>
-      </c>
+      <c r="G1970" s="7" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H1970" s="8"/>
       <c r="I1970" s="7"/>
       <c r="J1970" s="8" t="s">
         <v>2278</v>
@@ -58404,21 +58413,21 @@
     </row>
     <row r="1971" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1971" s="3" t="s">
-        <v>1988</v>
+        <v>1981</v>
       </c>
       <c r="B1971" s="3" t="s">
-        <v>2280</v>
-      </c>
-      <c r="C1971" s="7"/>
+        <v>1987</v>
+      </c>
+      <c r="C1971" s="7" t="s">
+        <v>739</v>
+      </c>
       <c r="D1971" s="8"/>
-      <c r="E1971" s="7" t="s">
-        <v>2281</v>
-      </c>
+      <c r="E1971" s="7"/>
       <c r="F1971" s="8"/>
-      <c r="G1971" s="7" t="s">
-        <v>1040</v>
-      </c>
-      <c r="H1971" s="8"/>
+      <c r="G1971" s="7"/>
+      <c r="H1971" s="8" t="s">
+        <v>905</v>
+      </c>
       <c r="I1971" s="7"/>
       <c r="J1971" s="8" t="s">
         <v>2278</v>
@@ -58429,15 +58438,17 @@
         <v>1988</v>
       </c>
       <c r="B1972" s="3" t="s">
-        <v>1989</v>
-      </c>
-      <c r="C1972" s="7" t="s">
-        <v>809</v>
-      </c>
+        <v>2280</v>
+      </c>
+      <c r="C1972" s="7"/>
       <c r="D1972" s="8"/>
-      <c r="E1972" s="7"/>
+      <c r="E1972" s="7" t="s">
+        <v>2281</v>
+      </c>
       <c r="F1972" s="8"/>
-      <c r="G1972" s="7"/>
+      <c r="G1972" s="7" t="s">
+        <v>1040</v>
+      </c>
       <c r="H1972" s="8"/>
       <c r="I1972" s="7"/>
       <c r="J1972" s="8" t="s">
@@ -58449,20 +58460,16 @@
         <v>1988</v>
       </c>
       <c r="B1973" s="3" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C1973" s="7" t="s">
-        <v>772</v>
+        <v>809</v>
       </c>
       <c r="D1973" s="8"/>
       <c r="E1973" s="7"/>
       <c r="F1973" s="8"/>
-      <c r="G1973" s="7" t="s">
-        <v>831</v>
-      </c>
-      <c r="H1973" s="8" t="s">
-        <v>591</v>
-      </c>
+      <c r="G1973" s="7"/>
+      <c r="H1973" s="8"/>
       <c r="I1973" s="7"/>
       <c r="J1973" s="8" t="s">
         <v>2278</v>
@@ -58470,19 +58477,23 @@
     </row>
     <row r="1974" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1974" s="3" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="B1974" s="3" t="s">
-        <v>1992</v>
-      </c>
-      <c r="C1974" s="7"/>
-      <c r="D1974" s="8" t="s">
-        <v>1993</v>
-      </c>
+        <v>1990</v>
+      </c>
+      <c r="C1974" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="D1974" s="8"/>
       <c r="E1974" s="7"/>
       <c r="F1974" s="8"/>
-      <c r="G1974" s="7"/>
-      <c r="H1974" s="8"/>
+      <c r="G1974" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="H1974" s="8" t="s">
+        <v>591</v>
+      </c>
       <c r="I1974" s="7"/>
       <c r="J1974" s="8" t="s">
         <v>2278</v>
@@ -58493,12 +58504,12 @@
         <v>1991</v>
       </c>
       <c r="B1975" s="3" t="s">
-        <v>1994</v>
-      </c>
-      <c r="C1975" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="D1975" s="8"/>
+        <v>1992</v>
+      </c>
+      <c r="C1975" s="7"/>
+      <c r="D1975" s="8" t="s">
+        <v>1993</v>
+      </c>
       <c r="E1975" s="7"/>
       <c r="F1975" s="8"/>
       <c r="G1975" s="7"/>
@@ -58513,16 +58524,16 @@
         <v>1991</v>
       </c>
       <c r="B1976" s="3" t="s">
-        <v>1995</v>
-      </c>
-      <c r="C1976" s="7"/>
+        <v>1994</v>
+      </c>
+      <c r="C1976" s="7" t="s">
+        <v>658</v>
+      </c>
       <c r="D1976" s="8"/>
       <c r="E1976" s="7"/>
       <c r="F1976" s="8"/>
       <c r="G1976" s="7"/>
-      <c r="H1976" s="8" t="s">
-        <v>645</v>
-      </c>
+      <c r="H1976" s="8"/>
       <c r="I1976" s="7"/>
       <c r="J1976" s="8" t="s">
         <v>2278</v>
@@ -58530,10 +58541,10 @@
     </row>
     <row r="1977" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1977" s="3" t="s">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="B1977" s="3" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C1977" s="7"/>
       <c r="D1977" s="8"/>
@@ -58541,7 +58552,7 @@
       <c r="F1977" s="8"/>
       <c r="G1977" s="7"/>
       <c r="H1977" s="8" t="s">
-        <v>591</v>
+        <v>645</v>
       </c>
       <c r="I1977" s="7"/>
       <c r="J1977" s="8" t="s">
@@ -58550,19 +58561,19 @@
     </row>
     <row r="1978" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1978" s="3" t="s">
-        <v>351</v>
+        <v>1996</v>
       </c>
       <c r="B1978" s="3" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C1978" s="7"/>
       <c r="D1978" s="8"/>
-      <c r="E1978" s="7" t="s">
-        <v>906</v>
-      </c>
+      <c r="E1978" s="7"/>
       <c r="F1978" s="8"/>
       <c r="G1978" s="7"/>
-      <c r="H1978" s="8"/>
+      <c r="H1978" s="8" t="s">
+        <v>591</v>
+      </c>
       <c r="I1978" s="7"/>
       <c r="J1978" s="8" t="s">
         <v>2278</v>
@@ -58570,20 +58581,18 @@
     </row>
     <row r="1979" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1979" s="3" t="s">
-        <v>1999</v>
+        <v>351</v>
       </c>
       <c r="B1979" s="3" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C1979" s="7"/>
       <c r="D1979" s="8"/>
       <c r="E1979" s="7" t="s">
-        <v>2001</v>
+        <v>906</v>
       </c>
       <c r="F1979" s="8"/>
-      <c r="G1979" s="7" t="s">
-        <v>871</v>
-      </c>
+      <c r="G1979" s="7"/>
       <c r="H1979" s="8"/>
       <c r="I1979" s="7"/>
       <c r="J1979" s="8" t="s">
@@ -58595,15 +58604,19 @@
         <v>1999</v>
       </c>
       <c r="B1980" s="3" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C1980" s="7"/>
       <c r="D1980" s="8"/>
       <c r="E1980" s="7" t="s">
-        <v>2003</v>
-      </c>
-      <c r="F1980" s="8"/>
-      <c r="G1980" s="7"/>
+        <v>2001</v>
+      </c>
+      <c r="F1980" s="8" t="s">
+        <v>4641</v>
+      </c>
+      <c r="G1980" s="7" t="s">
+        <v>871</v>
+      </c>
       <c r="H1980" s="8"/>
       <c r="I1980" s="7"/>
       <c r="J1980" s="8" t="s">
@@ -58612,15 +58625,15 @@
     </row>
     <row r="1981" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1981" s="3" t="s">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="B1981" s="3" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C1981" s="7"/>
       <c r="D1981" s="8"/>
       <c r="E1981" s="7" t="s">
-        <v>1002</v>
+        <v>2003</v>
       </c>
       <c r="F1981" s="8"/>
       <c r="G1981" s="7"/>
@@ -58635,12 +58648,12 @@
         <v>2004</v>
       </c>
       <c r="B1982" s="3" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C1982" s="7"/>
       <c r="D1982" s="8"/>
       <c r="E1982" s="7" t="s">
-        <v>2007</v>
+        <v>1002</v>
       </c>
       <c r="F1982" s="8"/>
       <c r="G1982" s="7"/>
@@ -58655,16 +58668,16 @@
         <v>2004</v>
       </c>
       <c r="B1983" s="3" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C1983" s="7"/>
       <c r="D1983" s="8"/>
-      <c r="E1983" s="7"/>
+      <c r="E1983" s="7" t="s">
+        <v>2007</v>
+      </c>
       <c r="F1983" s="8"/>
       <c r="G1983" s="7"/>
-      <c r="H1983" s="8" t="s">
-        <v>2009</v>
-      </c>
+      <c r="H1983" s="8"/>
       <c r="I1983" s="7"/>
       <c r="J1983" s="8" t="s">
         <v>2278</v>
@@ -58675,7 +58688,7 @@
         <v>2004</v>
       </c>
       <c r="B1984" s="3" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C1984" s="7"/>
       <c r="D1984" s="8"/>
@@ -58683,7 +58696,7 @@
       <c r="F1984" s="8"/>
       <c r="G1984" s="7"/>
       <c r="H1984" s="8" t="s">
-        <v>733</v>
+        <v>2009</v>
       </c>
       <c r="I1984" s="7"/>
       <c r="J1984" s="8" t="s">
@@ -58695,16 +58708,16 @@
         <v>2004</v>
       </c>
       <c r="B1985" s="3" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C1985" s="7"/>
-      <c r="D1985" s="8" t="s">
-        <v>698</v>
-      </c>
+      <c r="D1985" s="8"/>
       <c r="E1985" s="7"/>
       <c r="F1985" s="8"/>
       <c r="G1985" s="7"/>
-      <c r="H1985" s="8"/>
+      <c r="H1985" s="8" t="s">
+        <v>733</v>
+      </c>
       <c r="I1985" s="7"/>
       <c r="J1985" s="8" t="s">
         <v>2278</v>
@@ -58715,18 +58728,16 @@
         <v>2004</v>
       </c>
       <c r="B1986" s="3" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C1986" s="7"/>
-      <c r="D1986" s="8"/>
+      <c r="D1986" s="8" t="s">
+        <v>698</v>
+      </c>
       <c r="E1986" s="7"/>
-      <c r="F1986" s="8" t="s">
-        <v>1126</v>
-      </c>
+      <c r="F1986" s="8"/>
       <c r="G1986" s="7"/>
-      <c r="H1986" s="8" t="s">
-        <v>712</v>
-      </c>
+      <c r="H1986" s="8"/>
       <c r="I1986" s="7"/>
       <c r="J1986" s="8" t="s">
         <v>2278</v>
@@ -58734,18 +58745,20 @@
     </row>
     <row r="1987" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1987" s="3" t="s">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="B1987" s="3" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C1987" s="7"/>
       <c r="D1987" s="8"/>
       <c r="E1987" s="7"/>
-      <c r="F1987" s="8"/>
+      <c r="F1987" s="8" t="s">
+        <v>1126</v>
+      </c>
       <c r="G1987" s="7"/>
       <c r="H1987" s="8" t="s">
-        <v>589</v>
+        <v>712</v>
       </c>
       <c r="I1987" s="7"/>
       <c r="J1987" s="8" t="s">
@@ -58757,18 +58770,16 @@
         <v>2013</v>
       </c>
       <c r="B1988" s="3" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C1988" s="7"/>
       <c r="D1988" s="8"/>
       <c r="E1988" s="7"/>
-      <c r="F1988" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="G1988" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="H1988" s="8"/>
+      <c r="F1988" s="8"/>
+      <c r="G1988" s="7"/>
+      <c r="H1988" s="8" t="s">
+        <v>589</v>
+      </c>
       <c r="I1988" s="7"/>
       <c r="J1988" s="8" t="s">
         <v>2278</v>
@@ -58776,18 +58787,20 @@
     </row>
     <row r="1989" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1989" s="3" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B1989" s="3" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C1989" s="7"/>
       <c r="D1989" s="8"/>
-      <c r="E1989" s="7" t="s">
-        <v>954</v>
-      </c>
-      <c r="F1989" s="8"/>
-      <c r="G1989" s="7"/>
+      <c r="E1989" s="7"/>
+      <c r="F1989" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="G1989" s="7" t="s">
+        <v>782</v>
+      </c>
       <c r="H1989" s="8"/>
       <c r="I1989" s="7"/>
       <c r="J1989" s="8" t="s">
@@ -58799,16 +58812,16 @@
         <v>2016</v>
       </c>
       <c r="B1990" s="3" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C1990" s="7"/>
       <c r="D1990" s="8"/>
-      <c r="E1990" s="7"/>
+      <c r="E1990" s="7" t="s">
+        <v>954</v>
+      </c>
       <c r="F1990" s="8"/>
       <c r="G1990" s="7"/>
-      <c r="H1990" s="8" t="s">
-        <v>645</v>
-      </c>
+      <c r="H1990" s="8"/>
       <c r="I1990" s="7"/>
       <c r="J1990" s="8" t="s">
         <v>2278</v>
@@ -58816,10 +58829,10 @@
     </row>
     <row r="1991" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1991" s="3" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B1991" s="3" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C1991" s="7"/>
       <c r="D1991" s="8"/>
@@ -58827,7 +58840,7 @@
       <c r="F1991" s="8"/>
       <c r="G1991" s="7"/>
       <c r="H1991" s="8" t="s">
-        <v>2021</v>
+        <v>645</v>
       </c>
       <c r="I1991" s="7"/>
       <c r="J1991" s="8" t="s">
@@ -58836,19 +58849,19 @@
     </row>
     <row r="1992" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1992" s="3" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B1992" s="3" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C1992" s="7"/>
       <c r="D1992" s="8"/>
       <c r="E1992" s="7"/>
-      <c r="F1992" s="8" t="s">
-        <v>695</v>
-      </c>
+      <c r="F1992" s="8"/>
       <c r="G1992" s="7"/>
-      <c r="H1992" s="8"/>
+      <c r="H1992" s="8" t="s">
+        <v>2021</v>
+      </c>
       <c r="I1992" s="7"/>
       <c r="J1992" s="8" t="s">
         <v>2278</v>
@@ -58856,17 +58869,17 @@
     </row>
     <row r="1993" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1993" s="3" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B1993" s="3" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C1993" s="7"/>
-      <c r="D1993" s="8" t="s">
-        <v>1004</v>
-      </c>
+      <c r="D1993" s="8"/>
       <c r="E1993" s="7"/>
-      <c r="F1993" s="8"/>
+      <c r="F1993" s="8" t="s">
+        <v>695</v>
+      </c>
       <c r="G1993" s="7"/>
       <c r="H1993" s="8"/>
       <c r="I1993" s="7"/>
@@ -58876,21 +58889,19 @@
     </row>
     <row r="1994" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1994" s="3" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="B1994" s="3" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="C1994" s="7"/>
-      <c r="D1994" s="8"/>
-      <c r="E1994" s="7" t="s">
-        <v>2028</v>
-      </c>
+      <c r="D1994" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E1994" s="7"/>
       <c r="F1994" s="8"/>
       <c r="G1994" s="7"/>
-      <c r="H1994" s="8" t="s">
-        <v>2029</v>
-      </c>
+      <c r="H1994" s="8"/>
       <c r="I1994" s="7"/>
       <c r="J1994" s="8" t="s">
         <v>2278</v>
@@ -58898,18 +58909,20 @@
     </row>
     <row r="1995" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1995" s="3" t="s">
-        <v>361</v>
+        <v>2026</v>
       </c>
       <c r="B1995" s="3" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="C1995" s="7"/>
       <c r="D1995" s="8"/>
-      <c r="E1995" s="7"/>
+      <c r="E1995" s="7" t="s">
+        <v>2028</v>
+      </c>
       <c r="F1995" s="8"/>
       <c r="G1995" s="7"/>
       <c r="H1995" s="8" t="s">
-        <v>588</v>
+        <v>2029</v>
       </c>
       <c r="I1995" s="7"/>
       <c r="J1995" s="8" t="s">
@@ -58918,10 +58931,10 @@
     </row>
     <row r="1996" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1996" s="3" t="s">
-        <v>2031</v>
+        <v>361</v>
       </c>
       <c r="B1996" s="3" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="C1996" s="7"/>
       <c r="D1996" s="8"/>
@@ -58929,7 +58942,7 @@
       <c r="F1996" s="8"/>
       <c r="G1996" s="7"/>
       <c r="H1996" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I1996" s="7"/>
       <c r="J1996" s="8" t="s">
@@ -58938,19 +58951,19 @@
     </row>
     <row r="1997" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1997" s="3" t="s">
-        <v>390</v>
+        <v>2031</v>
       </c>
       <c r="B1997" s="3" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C1997" s="7"/>
       <c r="D1997" s="8"/>
       <c r="E1997" s="7"/>
       <c r="F1997" s="8"/>
-      <c r="G1997" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="H1997" s="8"/>
+      <c r="G1997" s="7"/>
+      <c r="H1997" s="8" t="s">
+        <v>590</v>
+      </c>
       <c r="I1997" s="7"/>
       <c r="J1997" s="8" t="s">
         <v>2278</v>
@@ -58961,18 +58974,16 @@
         <v>390</v>
       </c>
       <c r="B1998" s="3" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C1998" s="7"/>
       <c r="D1998" s="8"/>
-      <c r="E1998" s="7" t="s">
-        <v>812</v>
-      </c>
+      <c r="E1998" s="7"/>
       <c r="F1998" s="8"/>
-      <c r="G1998" s="7"/>
-      <c r="H1998" s="8" t="s">
-        <v>642</v>
-      </c>
+      <c r="G1998" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="H1998" s="8"/>
       <c r="I1998" s="7"/>
       <c r="J1998" s="8" t="s">
         <v>2278</v>
@@ -58983,15 +58994,17 @@
         <v>390</v>
       </c>
       <c r="B1999" s="3" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C1999" s="7"/>
       <c r="D1999" s="8"/>
-      <c r="E1999" s="7"/>
+      <c r="E1999" s="7" t="s">
+        <v>812</v>
+      </c>
       <c r="F1999" s="8"/>
       <c r="G1999" s="7"/>
       <c r="H1999" s="8" t="s">
-        <v>2036</v>
+        <v>642</v>
       </c>
       <c r="I1999" s="7"/>
       <c r="J1999" s="8" t="s">
@@ -59003,7 +59016,7 @@
         <v>390</v>
       </c>
       <c r="B2000" s="3" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="C2000" s="7"/>
       <c r="D2000" s="8"/>
@@ -59011,7 +59024,7 @@
       <c r="F2000" s="8"/>
       <c r="G2000" s="7"/>
       <c r="H2000" s="8" t="s">
-        <v>628</v>
+        <v>2036</v>
       </c>
       <c r="I2000" s="7"/>
       <c r="J2000" s="8" t="s">
@@ -59023,16 +59036,16 @@
         <v>390</v>
       </c>
       <c r="B2001" s="3" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C2001" s="7"/>
       <c r="D2001" s="8"/>
-      <c r="E2001" s="7" t="s">
-        <v>813</v>
-      </c>
+      <c r="E2001" s="7"/>
       <c r="F2001" s="8"/>
       <c r="G2001" s="7"/>
-      <c r="H2001" s="8"/>
+      <c r="H2001" s="8" t="s">
+        <v>628</v>
+      </c>
       <c r="I2001" s="7"/>
       <c r="J2001" s="8" t="s">
         <v>2278</v>
@@ -59043,17 +59056,15 @@
         <v>390</v>
       </c>
       <c r="B2002" s="3" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C2002" s="7"/>
       <c r="D2002" s="8"/>
-      <c r="E2002" s="7"/>
-      <c r="F2002" s="8" t="s">
-        <v>2040</v>
-      </c>
-      <c r="G2002" s="7" t="s">
-        <v>825</v>
-      </c>
+      <c r="E2002" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F2002" s="8"/>
+      <c r="G2002" s="7"/>
       <c r="H2002" s="8"/>
       <c r="I2002" s="7"/>
       <c r="J2002" s="8" t="s">
@@ -59065,16 +59076,18 @@
         <v>390</v>
       </c>
       <c r="B2003" s="3" t="s">
-        <v>417</v>
+        <v>2039</v>
       </c>
       <c r="C2003" s="7"/>
       <c r="D2003" s="8"/>
       <c r="E2003" s="7"/>
-      <c r="F2003" s="8"/>
-      <c r="G2003" s="7"/>
-      <c r="H2003" s="8" t="s">
-        <v>590</v>
-      </c>
+      <c r="F2003" s="8" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G2003" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="H2003" s="8"/>
       <c r="I2003" s="7"/>
       <c r="J2003" s="8" t="s">
         <v>2278</v>
@@ -59085,17 +59098,15 @@
         <v>390</v>
       </c>
       <c r="B2004" s="3" t="s">
-        <v>2041</v>
+        <v>417</v>
       </c>
       <c r="C2004" s="7"/>
-      <c r="D2004" s="8" t="s">
-        <v>798</v>
-      </c>
+      <c r="D2004" s="8"/>
       <c r="E2004" s="7"/>
       <c r="F2004" s="8"/>
       <c r="G2004" s="7"/>
       <c r="H2004" s="8" t="s">
-        <v>1110</v>
+        <v>590</v>
       </c>
       <c r="I2004" s="7"/>
       <c r="J2004" s="8" t="s">
@@ -59107,16 +59118,18 @@
         <v>390</v>
       </c>
       <c r="B2005" s="3" t="s">
-        <v>4047</v>
+        <v>2041</v>
       </c>
       <c r="C2005" s="7"/>
-      <c r="D2005" s="8"/>
+      <c r="D2005" s="8" t="s">
+        <v>798</v>
+      </c>
       <c r="E2005" s="7"/>
-      <c r="F2005" s="8" t="s">
-        <v>2042</v>
-      </c>
+      <c r="F2005" s="8"/>
       <c r="G2005" s="7"/>
-      <c r="H2005" s="8"/>
+      <c r="H2005" s="8" t="s">
+        <v>1110</v>
+      </c>
       <c r="I2005" s="7"/>
       <c r="J2005" s="8" t="s">
         <v>2278</v>
@@ -59127,13 +59140,13 @@
         <v>390</v>
       </c>
       <c r="B2006" s="3" t="s">
-        <v>2043</v>
+        <v>4047</v>
       </c>
       <c r="C2006" s="7"/>
       <c r="D2006" s="8"/>
       <c r="E2006" s="7"/>
       <c r="F2006" s="8" t="s">
-        <v>869</v>
+        <v>2042</v>
       </c>
       <c r="G2006" s="7"/>
       <c r="H2006" s="8"/>
@@ -59147,18 +59160,16 @@
         <v>390</v>
       </c>
       <c r="B2007" s="3" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C2007" s="7"/>
       <c r="D2007" s="8"/>
-      <c r="E2007" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="F2007" s="8"/>
+      <c r="E2007" s="7"/>
+      <c r="F2007" s="8" t="s">
+        <v>869</v>
+      </c>
       <c r="G2007" s="7"/>
-      <c r="H2007" s="8" t="s">
-        <v>624</v>
-      </c>
+      <c r="H2007" s="8"/>
       <c r="I2007" s="7"/>
       <c r="J2007" s="8" t="s">
         <v>2278</v>
@@ -59169,19 +59180,17 @@
         <v>390</v>
       </c>
       <c r="B2008" s="3" t="s">
-        <v>2045</v>
-      </c>
-      <c r="C2008" s="7" t="s">
-        <v>2046</v>
-      </c>
+        <v>2044</v>
+      </c>
+      <c r="C2008" s="7"/>
       <c r="D2008" s="8"/>
       <c r="E2008" s="7" t="s">
-        <v>2047</v>
+        <v>735</v>
       </c>
       <c r="F2008" s="8"/>
       <c r="G2008" s="7"/>
       <c r="H2008" s="8" t="s">
-        <v>2048</v>
+        <v>624</v>
       </c>
       <c r="I2008" s="7"/>
       <c r="J2008" s="8" t="s">
@@ -59190,19 +59199,23 @@
     </row>
     <row r="2009" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2009" s="3" t="s">
-        <v>2049</v>
+        <v>390</v>
       </c>
       <c r="B2009" s="3" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="C2009" s="7" t="s">
-        <v>1117</v>
+        <v>2046</v>
       </c>
       <c r="D2009" s="8"/>
-      <c r="E2009" s="7"/>
+      <c r="E2009" s="7" t="s">
+        <v>2047</v>
+      </c>
       <c r="F2009" s="8"/>
       <c r="G2009" s="7"/>
-      <c r="H2009" s="8"/>
+      <c r="H2009" s="8" t="s">
+        <v>2048</v>
+      </c>
       <c r="I2009" s="7"/>
       <c r="J2009" s="8" t="s">
         <v>2278</v>
@@ -59210,25 +59223,19 @@
     </row>
     <row r="2010" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2010" s="3" t="s">
-        <v>390</v>
+        <v>2049</v>
       </c>
       <c r="B2010" s="3" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C2010" s="7" t="s">
-        <v>750</v>
+        <v>1117</v>
       </c>
       <c r="D2010" s="8"/>
-      <c r="E2010" s="7" t="s">
-        <v>2052</v>
-      </c>
+      <c r="E2010" s="7"/>
       <c r="F2010" s="8"/>
-      <c r="G2010" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="H2010" s="8" t="s">
-        <v>645</v>
-      </c>
+      <c r="G2010" s="7"/>
+      <c r="H2010" s="8"/>
       <c r="I2010" s="7"/>
       <c r="J2010" s="8" t="s">
         <v>2278</v>
@@ -59236,19 +59243,25 @@
     </row>
     <row r="2011" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2011" s="3" t="s">
-        <v>2053</v>
+        <v>390</v>
       </c>
       <c r="B2011" s="3" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="C2011" s="7" t="s">
-        <v>937</v>
+        <v>750</v>
       </c>
       <c r="D2011" s="8"/>
-      <c r="E2011" s="7"/>
+      <c r="E2011" s="7" t="s">
+        <v>2052</v>
+      </c>
       <c r="F2011" s="8"/>
-      <c r="G2011" s="7"/>
-      <c r="H2011" s="8"/>
+      <c r="G2011" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="H2011" s="8" t="s">
+        <v>645</v>
+      </c>
       <c r="I2011" s="7"/>
       <c r="J2011" s="8" t="s">
         <v>2278</v>
@@ -59259,18 +59272,16 @@
         <v>2053</v>
       </c>
       <c r="B2012" s="3" t="s">
-        <v>2055</v>
-      </c>
-      <c r="C2012" s="7"/>
+        <v>2054</v>
+      </c>
+      <c r="C2012" s="7" t="s">
+        <v>937</v>
+      </c>
       <c r="D2012" s="8"/>
       <c r="E2012" s="7"/>
-      <c r="F2012" s="8" t="s">
-        <v>615</v>
-      </c>
+      <c r="F2012" s="8"/>
       <c r="G2012" s="7"/>
-      <c r="H2012" s="8" t="s">
-        <v>593</v>
-      </c>
+      <c r="H2012" s="8"/>
       <c r="I2012" s="7"/>
       <c r="J2012" s="8" t="s">
         <v>2278</v>
@@ -59278,20 +59289,20 @@
     </row>
     <row r="2013" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2013" s="3" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="B2013" s="3" t="s">
-        <v>2057</v>
-      </c>
-      <c r="C2013" s="7" t="s">
-        <v>2058</v>
-      </c>
+        <v>2055</v>
+      </c>
+      <c r="C2013" s="7"/>
       <c r="D2013" s="8"/>
       <c r="E2013" s="7"/>
-      <c r="F2013" s="8"/>
+      <c r="F2013" s="8" t="s">
+        <v>615</v>
+      </c>
       <c r="G2013" s="7"/>
       <c r="H2013" s="8" t="s">
-        <v>2059</v>
+        <v>593</v>
       </c>
       <c r="I2013" s="7"/>
       <c r="J2013" s="8" t="s">
@@ -59303,16 +59314,18 @@
         <v>2056</v>
       </c>
       <c r="B2014" s="3" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="C2014" s="7" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="D2014" s="8"/>
       <c r="E2014" s="7"/>
       <c r="F2014" s="8"/>
       <c r="G2014" s="7"/>
-      <c r="H2014" s="8"/>
+      <c r="H2014" s="8" t="s">
+        <v>2059</v>
+      </c>
       <c r="I2014" s="7"/>
       <c r="J2014" s="8" t="s">
         <v>2278</v>
@@ -59323,14 +59336,14 @@
         <v>2056</v>
       </c>
       <c r="B2015" s="3" t="s">
-        <v>2062</v>
-      </c>
-      <c r="C2015" s="7"/>
+        <v>2060</v>
+      </c>
+      <c r="C2015" s="7" t="s">
+        <v>2061</v>
+      </c>
       <c r="D2015" s="8"/>
       <c r="E2015" s="7"/>
-      <c r="F2015" s="8" t="s">
-        <v>2063</v>
-      </c>
+      <c r="F2015" s="8"/>
       <c r="G2015" s="7"/>
       <c r="H2015" s="8"/>
       <c r="I2015" s="7"/>
@@ -59340,17 +59353,17 @@
     </row>
     <row r="2016" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2016" s="3" t="s">
-        <v>414</v>
+        <v>2056</v>
       </c>
       <c r="B2016" s="3" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="C2016" s="7"/>
       <c r="D2016" s="8"/>
-      <c r="E2016" s="7" t="s">
-        <v>2065</v>
-      </c>
-      <c r="F2016" s="8"/>
+      <c r="E2016" s="7"/>
+      <c r="F2016" s="8" t="s">
+        <v>2063</v>
+      </c>
       <c r="G2016" s="7"/>
       <c r="H2016" s="8"/>
       <c r="I2016" s="7"/>
@@ -59363,15 +59376,15 @@
         <v>414</v>
       </c>
       <c r="B2017" s="3" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="C2017" s="7"/>
       <c r="D2017" s="8"/>
-      <c r="E2017" s="7"/>
+      <c r="E2017" s="7" t="s">
+        <v>2065</v>
+      </c>
       <c r="F2017" s="8"/>
-      <c r="G2017" s="7" t="s">
-        <v>809</v>
-      </c>
+      <c r="G2017" s="7"/>
       <c r="H2017" s="8"/>
       <c r="I2017" s="7"/>
       <c r="J2017" s="8" t="s">
@@ -59380,18 +59393,18 @@
     </row>
     <row r="2018" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2018" s="3" t="s">
-        <v>2067</v>
+        <v>414</v>
       </c>
       <c r="B2018" s="3" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="C2018" s="7"/>
       <c r="D2018" s="8"/>
       <c r="E2018" s="7"/>
-      <c r="F2018" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="G2018" s="7"/>
+      <c r="F2018" s="8"/>
+      <c r="G2018" s="7" t="s">
+        <v>809</v>
+      </c>
       <c r="H2018" s="8"/>
       <c r="I2018" s="7"/>
       <c r="J2018" s="8" t="s">
@@ -59403,14 +59416,14 @@
         <v>2067</v>
       </c>
       <c r="B2019" s="3" t="s">
-        <v>2069</v>
-      </c>
-      <c r="C2019" s="7" t="s">
-        <v>1000</v>
-      </c>
+        <v>2068</v>
+      </c>
+      <c r="C2019" s="7"/>
       <c r="D2019" s="8"/>
       <c r="E2019" s="7"/>
-      <c r="F2019" s="8"/>
+      <c r="F2019" s="8" t="s">
+        <v>743</v>
+      </c>
       <c r="G2019" s="7"/>
       <c r="H2019" s="8"/>
       <c r="I2019" s="7"/>
@@ -59423,10 +59436,10 @@
         <v>2067</v>
       </c>
       <c r="B2020" s="3" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C2020" s="7" t="s">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="D2020" s="8"/>
       <c r="E2020" s="7"/>
@@ -59440,19 +59453,17 @@
     </row>
     <row r="2021" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2021" s="3" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B2021" s="3" t="s">
-        <v>1900</v>
-      </c>
-      <c r="C2021" s="7"/>
+        <v>2070</v>
+      </c>
+      <c r="C2021" s="7" t="s">
+        <v>722</v>
+      </c>
       <c r="D2021" s="8"/>
-      <c r="E2021" s="7" t="s">
-        <v>2072</v>
-      </c>
-      <c r="F2021" s="8" t="s">
-        <v>786</v>
-      </c>
+      <c r="E2021" s="7"/>
+      <c r="F2021" s="8"/>
       <c r="G2021" s="7"/>
       <c r="H2021" s="8"/>
       <c r="I2021" s="7"/>
@@ -59462,16 +59473,18 @@
     </row>
     <row r="2022" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2022" s="3" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B2022" s="3" t="s">
-        <v>2074</v>
+        <v>1900</v>
       </c>
       <c r="C2022" s="7"/>
       <c r="D2022" s="8"/>
-      <c r="E2022" s="7"/>
+      <c r="E2022" s="7" t="s">
+        <v>2072</v>
+      </c>
       <c r="F2022" s="8" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="G2022" s="7"/>
       <c r="H2022" s="8"/>
@@ -59482,19 +59495,19 @@
     </row>
     <row r="2023" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2023" s="3" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="B2023" s="3" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="C2023" s="7"/>
       <c r="D2023" s="8"/>
       <c r="E2023" s="7"/>
-      <c r="F2023" s="8"/>
+      <c r="F2023" s="8" t="s">
+        <v>797</v>
+      </c>
       <c r="G2023" s="7"/>
-      <c r="H2023" s="8" t="s">
-        <v>2077</v>
-      </c>
+      <c r="H2023" s="8"/>
       <c r="I2023" s="7"/>
       <c r="J2023" s="8" t="s">
         <v>2278</v>
@@ -59502,10 +59515,10 @@
     </row>
     <row r="2024" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2024" s="3" t="s">
-        <v>1401</v>
+        <v>2075</v>
       </c>
       <c r="B2024" s="3" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="C2024" s="7"/>
       <c r="D2024" s="8"/>
@@ -59513,7 +59526,7 @@
       <c r="F2024" s="8"/>
       <c r="G2024" s="7"/>
       <c r="H2024" s="8" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="I2024" s="7"/>
       <c r="J2024" s="8" t="s">
@@ -59525,7 +59538,7 @@
         <v>1401</v>
       </c>
       <c r="B2025" s="3" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="C2025" s="7"/>
       <c r="D2025" s="8"/>
@@ -59533,7 +59546,7 @@
       <c r="F2025" s="8"/>
       <c r="G2025" s="7"/>
       <c r="H2025" s="8" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="I2025" s="7"/>
       <c r="J2025" s="8" t="s">
@@ -59545,7 +59558,7 @@
         <v>1401</v>
       </c>
       <c r="B2026" s="3" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="C2026" s="7"/>
       <c r="D2026" s="8"/>
@@ -59553,7 +59566,7 @@
       <c r="F2026" s="8"/>
       <c r="G2026" s="7"/>
       <c r="H2026" s="8" t="s">
-        <v>591</v>
+        <v>2081</v>
       </c>
       <c r="I2026" s="7"/>
       <c r="J2026" s="8" t="s">
@@ -59562,19 +59575,19 @@
     </row>
     <row r="2027" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2027" s="3" t="s">
-        <v>2083</v>
+        <v>1401</v>
       </c>
       <c r="B2027" s="3" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="C2027" s="7"/>
       <c r="D2027" s="8"/>
       <c r="E2027" s="7"/>
-      <c r="F2027" s="8" t="s">
-        <v>2085</v>
-      </c>
+      <c r="F2027" s="8"/>
       <c r="G2027" s="7"/>
-      <c r="H2027" s="8"/>
+      <c r="H2027" s="8" t="s">
+        <v>591</v>
+      </c>
       <c r="I2027" s="7"/>
       <c r="J2027" s="8" t="s">
         <v>2278</v>
@@ -59582,18 +59595,18 @@
     </row>
     <row r="2028" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2028" s="3" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="B2028" s="3" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="C2028" s="7"/>
       <c r="D2028" s="8"/>
       <c r="E2028" s="7"/>
-      <c r="F2028" s="8"/>
-      <c r="G2028" s="7" t="s">
-        <v>797</v>
-      </c>
+      <c r="F2028" s="8" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G2028" s="7"/>
       <c r="H2028" s="8"/>
       <c r="I2028" s="7"/>
       <c r="J2028" s="8" t="s">
@@ -59605,16 +59618,16 @@
         <v>2086</v>
       </c>
       <c r="B2029" s="3" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C2029" s="7"/>
       <c r="D2029" s="8"/>
       <c r="E2029" s="7"/>
       <c r="F2029" s="8"/>
-      <c r="G2029" s="7"/>
-      <c r="H2029" s="8" t="s">
-        <v>589</v>
-      </c>
+      <c r="G2029" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="H2029" s="8"/>
       <c r="I2029" s="7"/>
       <c r="J2029" s="8" t="s">
         <v>2278</v>
@@ -59625,17 +59638,15 @@
         <v>2086</v>
       </c>
       <c r="B2030" s="3" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C2030" s="7"/>
       <c r="D2030" s="8"/>
       <c r="E2030" s="7"/>
-      <c r="F2030" s="8" t="s">
-        <v>2090</v>
-      </c>
+      <c r="F2030" s="8"/>
       <c r="G2030" s="7"/>
       <c r="H2030" s="8" t="s">
-        <v>624</v>
+        <v>589</v>
       </c>
       <c r="I2030" s="7"/>
       <c r="J2030" s="8" t="s">
@@ -59644,23 +59655,21 @@
     </row>
     <row r="2031" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2031" s="3" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="B2031" s="3" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="C2031" s="7"/>
-      <c r="D2031" s="8" t="s">
-        <v>798</v>
-      </c>
-      <c r="E2031" s="7" t="s">
-        <v>2093</v>
-      </c>
+      <c r="D2031" s="8"/>
+      <c r="E2031" s="7"/>
       <c r="F2031" s="8" t="s">
-        <v>621</v>
+        <v>2090</v>
       </c>
       <c r="G2031" s="7"/>
-      <c r="H2031" s="8"/>
+      <c r="H2031" s="8" t="s">
+        <v>624</v>
+      </c>
       <c r="I2031" s="7"/>
       <c r="J2031" s="8" t="s">
         <v>2278</v>
@@ -59671,18 +59680,20 @@
         <v>2091</v>
       </c>
       <c r="B2032" s="3" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="C2032" s="7"/>
-      <c r="D2032" s="8"/>
+      <c r="D2032" s="8" t="s">
+        <v>798</v>
+      </c>
       <c r="E2032" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="F2032" s="8"/>
+        <v>2093</v>
+      </c>
+      <c r="F2032" s="8" t="s">
+        <v>621</v>
+      </c>
       <c r="G2032" s="7"/>
-      <c r="H2032" s="8" t="s">
-        <v>2095</v>
-      </c>
+      <c r="H2032" s="8"/>
       <c r="I2032" s="7"/>
       <c r="J2032" s="8" t="s">
         <v>2278</v>
@@ -59690,18 +59701,20 @@
     </row>
     <row r="2033" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2033" s="3" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="B2033" s="3" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="C2033" s="7"/>
       <c r="D2033" s="8"/>
-      <c r="E2033" s="7"/>
+      <c r="E2033" s="7" t="s">
+        <v>595</v>
+      </c>
       <c r="F2033" s="8"/>
       <c r="G2033" s="7"/>
       <c r="H2033" s="8" t="s">
-        <v>653</v>
+        <v>2095</v>
       </c>
       <c r="I2033" s="7"/>
       <c r="J2033" s="8" t="s">
@@ -59710,21 +59723,19 @@
     </row>
     <row r="2034" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2034" s="3" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B2034" s="3" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="C2034" s="7"/>
       <c r="D2034" s="8"/>
-      <c r="E2034" s="7" t="s">
-        <v>2100</v>
-      </c>
-      <c r="F2034" s="8" t="s">
-        <v>867</v>
-      </c>
+      <c r="E2034" s="7"/>
+      <c r="F2034" s="8"/>
       <c r="G2034" s="7"/>
-      <c r="H2034" s="8"/>
+      <c r="H2034" s="8" t="s">
+        <v>653</v>
+      </c>
       <c r="I2034" s="7"/>
       <c r="J2034" s="8" t="s">
         <v>2278</v>
@@ -59732,19 +59743,21 @@
     </row>
     <row r="2035" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2035" s="3" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="B2035" s="3" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="C2035" s="7"/>
       <c r="D2035" s="8"/>
-      <c r="E2035" s="7"/>
-      <c r="F2035" s="8"/>
+      <c r="E2035" s="7" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F2035" s="8" t="s">
+        <v>867</v>
+      </c>
       <c r="G2035" s="7"/>
-      <c r="H2035" s="8" t="s">
-        <v>645</v>
-      </c>
+      <c r="H2035" s="8"/>
       <c r="I2035" s="7"/>
       <c r="J2035" s="8" t="s">
         <v>2278</v>
@@ -59752,19 +59765,19 @@
     </row>
     <row r="2036" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2036" s="3" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="B2036" s="3" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="C2036" s="7"/>
       <c r="D2036" s="8"/>
       <c r="E2036" s="7"/>
       <c r="F2036" s="8"/>
-      <c r="G2036" s="7" t="s">
-        <v>825</v>
-      </c>
-      <c r="H2036" s="8"/>
+      <c r="G2036" s="7"/>
+      <c r="H2036" s="8" t="s">
+        <v>645</v>
+      </c>
       <c r="I2036" s="7"/>
       <c r="J2036" s="8" t="s">
         <v>2278</v>
@@ -59772,19 +59785,19 @@
     </row>
     <row r="2037" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2037" s="3" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="B2037" s="3" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="C2037" s="7"/>
       <c r="D2037" s="8"/>
       <c r="E2037" s="7"/>
       <c r="F2037" s="8"/>
-      <c r="G2037" s="7"/>
-      <c r="H2037" s="8" t="s">
-        <v>588</v>
-      </c>
+      <c r="G2037" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="H2037" s="8"/>
       <c r="I2037" s="7"/>
       <c r="J2037" s="8" t="s">
         <v>2278</v>
@@ -59795,16 +59808,16 @@
         <v>2105</v>
       </c>
       <c r="B2038" s="3" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="C2038" s="7"/>
       <c r="D2038" s="8"/>
       <c r="E2038" s="7"/>
       <c r="F2038" s="8"/>
-      <c r="G2038" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="H2038" s="8"/>
+      <c r="G2038" s="7"/>
+      <c r="H2038" s="8" t="s">
+        <v>588</v>
+      </c>
       <c r="I2038" s="7"/>
       <c r="J2038" s="8" t="s">
         <v>2278</v>
@@ -59812,21 +59825,19 @@
     </row>
     <row r="2039" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2039" s="3" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="B2039" s="3" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="C2039" s="7"/>
       <c r="D2039" s="8"/>
-      <c r="E2039" s="7" t="s">
-        <v>660</v>
-      </c>
+      <c r="E2039" s="7"/>
       <c r="F2039" s="8"/>
-      <c r="G2039" s="7"/>
-      <c r="H2039" s="8" t="s">
-        <v>2110</v>
-      </c>
+      <c r="G2039" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2039" s="8"/>
       <c r="I2039" s="7"/>
       <c r="J2039" s="8" t="s">
         <v>2278</v>
@@ -59834,19 +59845,21 @@
     </row>
     <row r="2040" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2040" s="3" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="B2040" s="3" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="C2040" s="7"/>
       <c r="D2040" s="8"/>
-      <c r="E2040" s="7"/>
+      <c r="E2040" s="7" t="s">
+        <v>660</v>
+      </c>
       <c r="F2040" s="8"/>
-      <c r="G2040" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H2040" s="8"/>
+      <c r="G2040" s="7"/>
+      <c r="H2040" s="8" t="s">
+        <v>2110</v>
+      </c>
       <c r="I2040" s="7"/>
       <c r="J2040" s="8" t="s">
         <v>2278</v>
@@ -59854,21 +59867,19 @@
     </row>
     <row r="2041" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2041" s="3" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="B2041" s="3" t="s">
-        <v>2114</v>
-      </c>
-      <c r="C2041" s="7" t="s">
-        <v>2061</v>
-      </c>
+        <v>2112</v>
+      </c>
+      <c r="C2041" s="7"/>
       <c r="D2041" s="8"/>
       <c r="E2041" s="7"/>
       <c r="F2041" s="8"/>
-      <c r="G2041" s="7"/>
-      <c r="H2041" s="8" t="s">
-        <v>2115</v>
-      </c>
+      <c r="G2041" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H2041" s="8"/>
       <c r="I2041" s="7"/>
       <c r="J2041" s="8" t="s">
         <v>2278</v>
@@ -59879,16 +59890,18 @@
         <v>2113</v>
       </c>
       <c r="B2042" s="3" t="s">
-        <v>2116</v>
-      </c>
-      <c r="C2042" s="7"/>
-      <c r="D2042" s="8" t="s">
-        <v>1071</v>
-      </c>
+        <v>2114</v>
+      </c>
+      <c r="C2042" s="7" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D2042" s="8"/>
       <c r="E2042" s="7"/>
       <c r="F2042" s="8"/>
       <c r="G2042" s="7"/>
-      <c r="H2042" s="8"/>
+      <c r="H2042" s="8" t="s">
+        <v>2115</v>
+      </c>
       <c r="I2042" s="7"/>
       <c r="J2042" s="8" t="s">
         <v>2278</v>
@@ -59899,15 +59912,15 @@
         <v>2113</v>
       </c>
       <c r="B2043" s="3" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C2043" s="7"/>
-      <c r="D2043" s="8"/>
+      <c r="D2043" s="8" t="s">
+        <v>1071</v>
+      </c>
       <c r="E2043" s="7"/>
       <c r="F2043" s="8"/>
-      <c r="G2043" s="7" t="s">
-        <v>748</v>
-      </c>
+      <c r="G2043" s="7"/>
       <c r="H2043" s="8"/>
       <c r="I2043" s="7"/>
       <c r="J2043" s="8" t="s">
@@ -59919,20 +59932,16 @@
         <v>2113</v>
       </c>
       <c r="B2044" s="3" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C2044" s="7"/>
       <c r="D2044" s="8"/>
-      <c r="E2044" s="7" t="s">
-        <v>2119</v>
-      </c>
-      <c r="F2044" s="8" t="s">
-        <v>2120</v>
-      </c>
-      <c r="G2044" s="7"/>
-      <c r="H2044" s="8" t="s">
-        <v>2121</v>
-      </c>
+      <c r="E2044" s="7"/>
+      <c r="F2044" s="8"/>
+      <c r="G2044" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="H2044" s="8"/>
       <c r="I2044" s="7"/>
       <c r="J2044" s="8" t="s">
         <v>2278</v>
@@ -59943,16 +59952,20 @@
         <v>2113</v>
       </c>
       <c r="B2045" s="3" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="C2045" s="7"/>
       <c r="D2045" s="8"/>
-      <c r="E2045" s="7"/>
+      <c r="E2045" s="7" t="s">
+        <v>2119</v>
+      </c>
       <c r="F2045" s="8" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="G2045" s="7"/>
-      <c r="H2045" s="8"/>
+      <c r="H2045" s="8" t="s">
+        <v>2121</v>
+      </c>
       <c r="I2045" s="7"/>
       <c r="J2045" s="8" t="s">
         <v>2278</v>
@@ -59963,16 +59976,16 @@
         <v>2113</v>
       </c>
       <c r="B2046" s="3" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="C2046" s="7"/>
       <c r="D2046" s="8"/>
       <c r="E2046" s="7"/>
-      <c r="F2046" s="8"/>
+      <c r="F2046" s="8" t="s">
+        <v>2123</v>
+      </c>
       <c r="G2046" s="7"/>
-      <c r="H2046" s="8" t="s">
-        <v>652</v>
-      </c>
+      <c r="H2046" s="8"/>
       <c r="I2046" s="7"/>
       <c r="J2046" s="8" t="s">
         <v>2278</v>
@@ -59983,16 +59996,16 @@
         <v>2113</v>
       </c>
       <c r="B2047" s="3" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="C2047" s="7"/>
       <c r="D2047" s="8"/>
       <c r="E2047" s="7"/>
-      <c r="F2047" s="8" t="s">
-        <v>1008</v>
-      </c>
+      <c r="F2047" s="8"/>
       <c r="G2047" s="7"/>
-      <c r="H2047" s="8"/>
+      <c r="H2047" s="8" t="s">
+        <v>652</v>
+      </c>
       <c r="I2047" s="7"/>
       <c r="J2047" s="8" t="s">
         <v>2278</v>
@@ -60003,17 +60016,15 @@
         <v>2113</v>
       </c>
       <c r="B2048" s="3" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="C2048" s="7"/>
       <c r="D2048" s="8"/>
       <c r="E2048" s="7"/>
       <c r="F2048" s="8" t="s">
-        <v>2127</v>
-      </c>
-      <c r="G2048" s="7" t="s">
-        <v>2128</v>
-      </c>
+        <v>1008</v>
+      </c>
+      <c r="G2048" s="7"/>
       <c r="H2048" s="8"/>
       <c r="I2048" s="7"/>
       <c r="J2048" s="8" t="s">
@@ -60025,17 +60036,19 @@
         <v>2113</v>
       </c>
       <c r="B2049" s="3" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="C2049" s="7"/>
       <c r="D2049" s="8"/>
       <c r="E2049" s="7"/>
-      <c r="F2049" s="8"/>
-      <c r="G2049" s="7"/>
+      <c r="F2049" s="8" t="s">
+        <v>2127</v>
+      </c>
+      <c r="G2049" s="7" t="s">
+        <v>2128</v>
+      </c>
       <c r="H2049" s="8"/>
-      <c r="I2049" s="7" t="s">
-        <v>818</v>
-      </c>
+      <c r="I2049" s="7"/>
       <c r="J2049" s="8" t="s">
         <v>2278</v>
       </c>
@@ -60045,35 +60058,35 @@
         <v>2113</v>
       </c>
       <c r="B2050" s="3" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="C2050" s="7"/>
-      <c r="D2050" s="8" t="s">
-        <v>2131</v>
-      </c>
+      <c r="D2050" s="8"/>
       <c r="E2050" s="7"/>
       <c r="F2050" s="8"/>
       <c r="G2050" s="7"/>
       <c r="H2050" s="8"/>
-      <c r="I2050" s="7"/>
+      <c r="I2050" s="7" t="s">
+        <v>818</v>
+      </c>
       <c r="J2050" s="8" t="s">
         <v>2278</v>
       </c>
     </row>
     <row r="2051" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2051" s="3" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="B2051" s="3" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="C2051" s="7"/>
-      <c r="D2051" s="8"/>
+      <c r="D2051" s="8" t="s">
+        <v>2131</v>
+      </c>
       <c r="E2051" s="7"/>
       <c r="F2051" s="8"/>
-      <c r="G2051" s="7" t="s">
-        <v>2133</v>
-      </c>
+      <c r="G2051" s="7"/>
       <c r="H2051" s="8"/>
       <c r="I2051" s="7"/>
       <c r="J2051" s="8" t="s">
@@ -60082,18 +60095,18 @@
     </row>
     <row r="2052" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2052" s="3" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="B2052" s="3" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="C2052" s="7"/>
-      <c r="D2052" s="8" t="s">
-        <v>1017</v>
-      </c>
+      <c r="D2052" s="8"/>
       <c r="E2052" s="7"/>
       <c r="F2052" s="8"/>
-      <c r="G2052" s="7"/>
+      <c r="G2052" s="7" t="s">
+        <v>2133</v>
+      </c>
       <c r="H2052" s="8"/>
       <c r="I2052" s="7"/>
       <c r="J2052" s="8" t="s">
@@ -60105,18 +60118,16 @@
         <v>2113</v>
       </c>
       <c r="B2053" s="3" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="C2053" s="7"/>
-      <c r="D2053" s="8"/>
-      <c r="E2053" s="7" t="s">
-        <v>2136</v>
-      </c>
+      <c r="D2053" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E2053" s="7"/>
       <c r="F2053" s="8"/>
       <c r="G2053" s="7"/>
-      <c r="H2053" s="8" t="s">
-        <v>732</v>
-      </c>
+      <c r="H2053" s="8"/>
       <c r="I2053" s="7"/>
       <c r="J2053" s="8" t="s">
         <v>2278</v>
@@ -60127,15 +60138,17 @@
         <v>2113</v>
       </c>
       <c r="B2054" s="3" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="C2054" s="7"/>
       <c r="D2054" s="8"/>
-      <c r="E2054" s="7"/>
+      <c r="E2054" s="7" t="s">
+        <v>2136</v>
+      </c>
       <c r="F2054" s="8"/>
       <c r="G2054" s="7"/>
       <c r="H2054" s="8" t="s">
-        <v>2138</v>
+        <v>732</v>
       </c>
       <c r="I2054" s="7"/>
       <c r="J2054" s="8" t="s">
@@ -60144,10 +60157,10 @@
     </row>
     <row r="2055" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2055" s="3" t="s">
-        <v>2139</v>
+        <v>2113</v>
       </c>
       <c r="B2055" s="3" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="C2055" s="7"/>
       <c r="D2055" s="8"/>
@@ -60155,7 +60168,7 @@
       <c r="F2055" s="8"/>
       <c r="G2055" s="7"/>
       <c r="H2055" s="8" t="s">
-        <v>588</v>
+        <v>2138</v>
       </c>
       <c r="I2055" s="7"/>
       <c r="J2055" s="8" t="s">
@@ -60164,10 +60177,10 @@
     </row>
     <row r="2056" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2056" s="3" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="B2056" s="3" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="C2056" s="7"/>
       <c r="D2056" s="8"/>
@@ -60175,7 +60188,7 @@
       <c r="F2056" s="8"/>
       <c r="G2056" s="7"/>
       <c r="H2056" s="8" t="s">
-        <v>864</v>
+        <v>588</v>
       </c>
       <c r="I2056" s="7"/>
       <c r="J2056" s="8" t="s">
@@ -60184,19 +60197,19 @@
     </row>
     <row r="2057" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2057" s="3" t="s">
-        <v>4051</v>
+        <v>2141</v>
       </c>
       <c r="B2057" s="3" t="s">
-        <v>4052</v>
+        <v>2142</v>
       </c>
       <c r="C2057" s="7"/>
       <c r="D2057" s="8"/>
-      <c r="E2057" s="7" t="s">
-        <v>4053</v>
-      </c>
+      <c r="E2057" s="7"/>
       <c r="F2057" s="8"/>
       <c r="G2057" s="7"/>
-      <c r="H2057" s="8"/>
+      <c r="H2057" s="8" t="s">
+        <v>864</v>
+      </c>
       <c r="I2057" s="7"/>
       <c r="J2057" s="8" t="s">
         <v>2278</v>
@@ -60204,17 +60217,17 @@
     </row>
     <row r="2058" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2058" s="3" t="s">
-        <v>2143</v>
+        <v>4051</v>
       </c>
       <c r="B2058" s="3" t="s">
-        <v>2144</v>
+        <v>4052</v>
       </c>
       <c r="C2058" s="7"/>
       <c r="D2058" s="8"/>
-      <c r="E2058" s="7"/>
-      <c r="F2058" s="8" t="s">
-        <v>660</v>
-      </c>
+      <c r="E2058" s="7" t="s">
+        <v>4053</v>
+      </c>
+      <c r="F2058" s="8"/>
       <c r="G2058" s="7"/>
       <c r="H2058" s="8"/>
       <c r="I2058" s="7"/>
@@ -60224,17 +60237,17 @@
     </row>
     <row r="2059" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2059" s="3" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="B2059" s="3" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="C2059" s="7"/>
       <c r="D2059" s="8"/>
-      <c r="E2059" s="7" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F2059" s="8"/>
+      <c r="E2059" s="7"/>
+      <c r="F2059" s="8" t="s">
+        <v>660</v>
+      </c>
       <c r="G2059" s="7"/>
       <c r="H2059" s="8"/>
       <c r="I2059" s="7"/>
@@ -60247,16 +60260,16 @@
         <v>2145</v>
       </c>
       <c r="B2060" s="3" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="C2060" s="7"/>
       <c r="D2060" s="8"/>
-      <c r="E2060" s="7"/>
+      <c r="E2060" s="7" t="s">
+        <v>1002</v>
+      </c>
       <c r="F2060" s="8"/>
       <c r="G2060" s="7"/>
-      <c r="H2060" s="8" t="s">
-        <v>602</v>
-      </c>
+      <c r="H2060" s="8"/>
       <c r="I2060" s="7"/>
       <c r="J2060" s="8" t="s">
         <v>2278</v>
@@ -60264,19 +60277,19 @@
     </row>
     <row r="2061" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2061" s="3" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="B2061" s="3" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="C2061" s="7"/>
       <c r="D2061" s="8"/>
       <c r="E2061" s="7"/>
-      <c r="F2061" s="8" t="s">
-        <v>720</v>
-      </c>
+      <c r="F2061" s="8"/>
       <c r="G2061" s="7"/>
-      <c r="H2061" s="8"/>
+      <c r="H2061" s="8" t="s">
+        <v>602</v>
+      </c>
       <c r="I2061" s="7"/>
       <c r="J2061" s="8" t="s">
         <v>2278</v>
@@ -60284,21 +60297,19 @@
     </row>
     <row r="2062" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2062" s="3" t="s">
-        <v>2145</v>
+        <v>2148</v>
       </c>
       <c r="B2062" s="3" t="s">
-        <v>2150</v>
-      </c>
-      <c r="C2062" s="7" t="s">
-        <v>722</v>
-      </c>
+        <v>2149</v>
+      </c>
+      <c r="C2062" s="7"/>
       <c r="D2062" s="8"/>
       <c r="E2062" s="7"/>
-      <c r="F2062" s="8"/>
+      <c r="F2062" s="8" t="s">
+        <v>720</v>
+      </c>
       <c r="G2062" s="7"/>
-      <c r="H2062" s="8" t="s">
-        <v>624</v>
-      </c>
+      <c r="H2062" s="8"/>
       <c r="I2062" s="7"/>
       <c r="J2062" s="8" t="s">
         <v>2278</v>
@@ -60306,18 +60317,20 @@
     </row>
     <row r="2063" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2063" s="3" t="s">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="B2063" s="3" t="s">
-        <v>2152</v>
-      </c>
-      <c r="C2063" s="7"/>
+        <v>2150</v>
+      </c>
+      <c r="C2063" s="7" t="s">
+        <v>722</v>
+      </c>
       <c r="D2063" s="8"/>
       <c r="E2063" s="7"/>
       <c r="F2063" s="8"/>
       <c r="G2063" s="7"/>
       <c r="H2063" s="8" t="s">
-        <v>593</v>
+        <v>624</v>
       </c>
       <c r="I2063" s="7"/>
       <c r="J2063" s="8" t="s">
@@ -60326,20 +60339,18 @@
     </row>
     <row r="2064" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2064" s="3" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="B2064" s="3" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C2064" s="7"/>
       <c r="D2064" s="8"/>
-      <c r="E2064" s="7" t="s">
-        <v>882</v>
-      </c>
+      <c r="E2064" s="7"/>
       <c r="F2064" s="8"/>
       <c r="G2064" s="7"/>
       <c r="H2064" s="8" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="I2064" s="7"/>
       <c r="J2064" s="8" t="s">
@@ -60348,19 +60359,21 @@
     </row>
     <row r="2065" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2065" s="3" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="B2065" s="3" t="s">
-        <v>2156</v>
-      </c>
-      <c r="C2065" s="7" t="s">
-        <v>933</v>
-      </c>
+        <v>2154</v>
+      </c>
+      <c r="C2065" s="7"/>
       <c r="D2065" s="8"/>
-      <c r="E2065" s="7"/>
+      <c r="E2065" s="7" t="s">
+        <v>882</v>
+      </c>
       <c r="F2065" s="8"/>
       <c r="G2065" s="7"/>
-      <c r="H2065" s="8"/>
+      <c r="H2065" s="8" t="s">
+        <v>588</v>
+      </c>
       <c r="I2065" s="7"/>
       <c r="J2065" s="8" t="s">
         <v>2278</v>
@@ -60371,13 +60384,13 @@
         <v>2155</v>
       </c>
       <c r="B2066" s="3" t="s">
-        <v>2157</v>
-      </c>
-      <c r="C2066" s="7"/>
+        <v>2156</v>
+      </c>
+      <c r="C2066" s="7" t="s">
+        <v>933</v>
+      </c>
       <c r="D2066" s="8"/>
-      <c r="E2066" s="7" t="s">
-        <v>788</v>
-      </c>
+      <c r="E2066" s="7"/>
       <c r="F2066" s="8"/>
       <c r="G2066" s="7"/>
       <c r="H2066" s="8"/>
@@ -60391,14 +60404,14 @@
         <v>2155</v>
       </c>
       <c r="B2067" s="3" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C2067" s="7"/>
       <c r="D2067" s="8"/>
-      <c r="E2067" s="7"/>
-      <c r="F2067" s="8" t="s">
-        <v>650</v>
-      </c>
+      <c r="E2067" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="F2067" s="8"/>
       <c r="G2067" s="7"/>
       <c r="H2067" s="8"/>
       <c r="I2067" s="7"/>
@@ -60411,16 +60424,16 @@
         <v>2155</v>
       </c>
       <c r="B2068" s="3" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="C2068" s="7"/>
       <c r="D2068" s="8"/>
       <c r="E2068" s="7"/>
-      <c r="F2068" s="8"/>
+      <c r="F2068" s="8" t="s">
+        <v>650</v>
+      </c>
       <c r="G2068" s="7"/>
-      <c r="H2068" s="8" t="s">
-        <v>918</v>
-      </c>
+      <c r="H2068" s="8"/>
       <c r="I2068" s="7"/>
       <c r="J2068" s="8" t="s">
         <v>2278</v>
@@ -60428,19 +60441,19 @@
     </row>
     <row r="2069" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2069" s="3" t="s">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="B2069" s="3" t="s">
-        <v>2161</v>
-      </c>
-      <c r="C2069" s="7" t="s">
-        <v>730</v>
-      </c>
+        <v>2159</v>
+      </c>
+      <c r="C2069" s="7"/>
       <c r="D2069" s="8"/>
       <c r="E2069" s="7"/>
       <c r="F2069" s="8"/>
       <c r="G2069" s="7"/>
-      <c r="H2069" s="8"/>
+      <c r="H2069" s="8" t="s">
+        <v>918</v>
+      </c>
       <c r="I2069" s="7"/>
       <c r="J2069" s="8" t="s">
         <v>2278</v>
@@ -60448,21 +60461,19 @@
     </row>
     <row r="2070" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2070" s="3" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="B2070" s="3" t="s">
-        <v>2163</v>
-      </c>
-      <c r="C2070" s="7"/>
+        <v>2161</v>
+      </c>
+      <c r="C2070" s="7" t="s">
+        <v>730</v>
+      </c>
       <c r="D2070" s="8"/>
-      <c r="E2070" s="7" t="s">
-        <v>995</v>
-      </c>
+      <c r="E2070" s="7"/>
       <c r="F2070" s="8"/>
       <c r="G2070" s="7"/>
-      <c r="H2070" s="8" t="s">
-        <v>2164</v>
-      </c>
+      <c r="H2070" s="8"/>
       <c r="I2070" s="7"/>
       <c r="J2070" s="8" t="s">
         <v>2278</v>
@@ -60470,18 +60481,20 @@
     </row>
     <row r="2071" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2071" s="3" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="B2071" s="3" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="C2071" s="7"/>
       <c r="D2071" s="8"/>
-      <c r="E2071" s="7"/>
+      <c r="E2071" s="7" t="s">
+        <v>995</v>
+      </c>
       <c r="F2071" s="8"/>
       <c r="G2071" s="7"/>
       <c r="H2071" s="8" t="s">
-        <v>918</v>
+        <v>2164</v>
       </c>
       <c r="I2071" s="7"/>
       <c r="J2071" s="8" t="s">
@@ -60490,19 +60503,19 @@
     </row>
     <row r="2072" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2072" s="3" t="s">
-        <v>468</v>
+        <v>2165</v>
       </c>
       <c r="B2072" s="3" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="C2072" s="7"/>
       <c r="D2072" s="8"/>
-      <c r="E2072" s="7" t="s">
-        <v>1031</v>
-      </c>
+      <c r="E2072" s="7"/>
       <c r="F2072" s="8"/>
       <c r="G2072" s="7"/>
-      <c r="H2072" s="8"/>
+      <c r="H2072" s="8" t="s">
+        <v>918</v>
+      </c>
       <c r="I2072" s="7"/>
       <c r="J2072" s="8" t="s">
         <v>2278</v>
@@ -60510,23 +60523,19 @@
     </row>
     <row r="2073" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2073" s="3" t="s">
-        <v>2168</v>
+        <v>468</v>
       </c>
       <c r="B2073" s="3" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="C2073" s="7"/>
       <c r="D2073" s="8"/>
       <c r="E2073" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="F2073" s="8" t="s">
-        <v>838</v>
-      </c>
+        <v>1031</v>
+      </c>
+      <c r="F2073" s="8"/>
       <c r="G2073" s="7"/>
-      <c r="H2073" s="8" t="s">
-        <v>652</v>
-      </c>
+      <c r="H2073" s="8"/>
       <c r="I2073" s="7"/>
       <c r="J2073" s="8" t="s">
         <v>2278</v>
@@ -60534,18 +60543,22 @@
     </row>
     <row r="2074" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2074" s="3" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="B2074" s="3" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="C2074" s="7"/>
       <c r="D2074" s="8"/>
-      <c r="E2074" s="7"/>
-      <c r="F2074" s="8"/>
+      <c r="E2074" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F2074" s="8" t="s">
+        <v>838</v>
+      </c>
       <c r="G2074" s="7"/>
       <c r="H2074" s="8" t="s">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="I2074" s="7"/>
       <c r="J2074" s="8" t="s">
@@ -60557,16 +60570,16 @@
         <v>2170</v>
       </c>
       <c r="B2075" s="3" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C2075" s="7"/>
       <c r="D2075" s="8"/>
       <c r="E2075" s="7"/>
-      <c r="F2075" s="8" t="s">
-        <v>782</v>
-      </c>
+      <c r="F2075" s="8"/>
       <c r="G2075" s="7"/>
-      <c r="H2075" s="8"/>
+      <c r="H2075" s="8" t="s">
+        <v>590</v>
+      </c>
       <c r="I2075" s="7"/>
       <c r="J2075" s="8" t="s">
         <v>2278</v>
@@ -60577,14 +60590,14 @@
         <v>2170</v>
       </c>
       <c r="B2076" s="3" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C2076" s="7"/>
       <c r="D2076" s="8"/>
-      <c r="E2076" s="7" t="s">
-        <v>2174</v>
-      </c>
-      <c r="F2076" s="8"/>
+      <c r="E2076" s="7"/>
+      <c r="F2076" s="8" t="s">
+        <v>782</v>
+      </c>
       <c r="G2076" s="7"/>
       <c r="H2076" s="8"/>
       <c r="I2076" s="7"/>
@@ -60597,16 +60610,16 @@
         <v>2170</v>
       </c>
       <c r="B2077" s="3" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="C2077" s="7"/>
       <c r="D2077" s="8"/>
-      <c r="E2077" s="7"/>
+      <c r="E2077" s="7" t="s">
+        <v>2174</v>
+      </c>
       <c r="F2077" s="8"/>
       <c r="G2077" s="7"/>
-      <c r="H2077" s="8" t="s">
-        <v>712</v>
-      </c>
+      <c r="H2077" s="8"/>
       <c r="I2077" s="7"/>
       <c r="J2077" s="8" t="s">
         <v>2278</v>
@@ -60614,19 +60627,19 @@
     </row>
     <row r="2078" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2078" s="3" t="s">
-        <v>2176</v>
+        <v>2170</v>
       </c>
       <c r="B2078" s="3" t="s">
-        <v>2177</v>
-      </c>
-      <c r="C2078" s="7" t="s">
-        <v>1015</v>
-      </c>
+        <v>2175</v>
+      </c>
+      <c r="C2078" s="7"/>
       <c r="D2078" s="8"/>
       <c r="E2078" s="7"/>
       <c r="F2078" s="8"/>
       <c r="G2078" s="7"/>
-      <c r="H2078" s="8"/>
+      <c r="H2078" s="8" t="s">
+        <v>712</v>
+      </c>
       <c r="I2078" s="7"/>
       <c r="J2078" s="8" t="s">
         <v>2278</v>
@@ -60634,19 +60647,19 @@
     </row>
     <row r="2079" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2079" s="3" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="B2079" s="3" t="s">
-        <v>2179</v>
-      </c>
-      <c r="C2079" s="7"/>
+        <v>2177</v>
+      </c>
+      <c r="C2079" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="D2079" s="8"/>
       <c r="E2079" s="7"/>
       <c r="F2079" s="8"/>
       <c r="G2079" s="7"/>
-      <c r="H2079" s="8" t="s">
-        <v>1110</v>
-      </c>
+      <c r="H2079" s="8"/>
       <c r="I2079" s="7"/>
       <c r="J2079" s="8" t="s">
         <v>2278</v>
@@ -60654,10 +60667,10 @@
     </row>
     <row r="2080" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2080" s="3" t="s">
-        <v>488</v>
+        <v>2178</v>
       </c>
       <c r="B2080" s="3" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="C2080" s="7"/>
       <c r="D2080" s="8"/>
@@ -60665,7 +60678,7 @@
       <c r="F2080" s="8"/>
       <c r="G2080" s="7"/>
       <c r="H2080" s="8" t="s">
-        <v>589</v>
+        <v>1110</v>
       </c>
       <c r="I2080" s="7"/>
       <c r="J2080" s="8" t="s">
@@ -60674,19 +60687,19 @@
     </row>
     <row r="2081" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2081" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B2081" s="3" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="C2081" s="7"/>
       <c r="D2081" s="8"/>
       <c r="E2081" s="7"/>
       <c r="F2081" s="8"/>
-      <c r="G2081" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="H2081" s="8"/>
+      <c r="G2081" s="7"/>
+      <c r="H2081" s="8" t="s">
+        <v>589</v>
+      </c>
       <c r="I2081" s="7"/>
       <c r="J2081" s="8" t="s">
         <v>2278</v>
@@ -60694,19 +60707,19 @@
     </row>
     <row r="2082" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2082" s="3" t="s">
-        <v>2182</v>
+        <v>491</v>
       </c>
       <c r="B2082" s="3" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="C2082" s="7"/>
       <c r="D2082" s="8"/>
       <c r="E2082" s="7"/>
       <c r="F2082" s="8"/>
-      <c r="G2082" s="7"/>
-      <c r="H2082" s="8" t="s">
-        <v>593</v>
-      </c>
+      <c r="G2082" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="H2082" s="8"/>
       <c r="I2082" s="7"/>
       <c r="J2082" s="8" t="s">
         <v>2278</v>
@@ -60714,19 +60727,19 @@
     </row>
     <row r="2083" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2083" s="3" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="B2083" s="3" t="s">
-        <v>2185</v>
-      </c>
-      <c r="C2083" s="7" t="s">
-        <v>2186</v>
-      </c>
+        <v>2183</v>
+      </c>
+      <c r="C2083" s="7"/>
       <c r="D2083" s="8"/>
       <c r="E2083" s="7"/>
       <c r="F2083" s="8"/>
       <c r="G2083" s="7"/>
-      <c r="H2083" s="8"/>
+      <c r="H2083" s="8" t="s">
+        <v>593</v>
+      </c>
       <c r="I2083" s="7"/>
       <c r="J2083" s="8" t="s">
         <v>2278</v>
@@ -60737,16 +60750,16 @@
         <v>2184</v>
       </c>
       <c r="B2084" s="3" t="s">
-        <v>2187</v>
-      </c>
-      <c r="C2084" s="7"/>
+        <v>2185</v>
+      </c>
+      <c r="C2084" s="7" t="s">
+        <v>2186</v>
+      </c>
       <c r="D2084" s="8"/>
       <c r="E2084" s="7"/>
       <c r="F2084" s="8"/>
       <c r="G2084" s="7"/>
-      <c r="H2084" s="8" t="s">
-        <v>642</v>
-      </c>
+      <c r="H2084" s="8"/>
       <c r="I2084" s="7"/>
       <c r="J2084" s="8" t="s">
         <v>2278</v>
@@ -60757,7 +60770,7 @@
         <v>2184</v>
       </c>
       <c r="B2085" s="3" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C2085" s="7"/>
       <c r="D2085" s="8"/>
@@ -60765,7 +60778,7 @@
       <c r="F2085" s="8"/>
       <c r="G2085" s="7"/>
       <c r="H2085" s="8" t="s">
-        <v>588</v>
+        <v>642</v>
       </c>
       <c r="I2085" s="7"/>
       <c r="J2085" s="8" t="s">
@@ -60774,19 +60787,19 @@
     </row>
     <row r="2086" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2086" s="3" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
       <c r="B2086" s="3" t="s">
-        <v>2190</v>
-      </c>
-      <c r="C2086" s="7" t="s">
-        <v>2191</v>
-      </c>
+        <v>2188</v>
+      </c>
+      <c r="C2086" s="7"/>
       <c r="D2086" s="8"/>
       <c r="E2086" s="7"/>
       <c r="F2086" s="8"/>
       <c r="G2086" s="7"/>
-      <c r="H2086" s="8"/>
+      <c r="H2086" s="8" t="s">
+        <v>588</v>
+      </c>
       <c r="I2086" s="7"/>
       <c r="J2086" s="8" t="s">
         <v>2278</v>
@@ -60794,13 +60807,13 @@
     </row>
     <row r="2087" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2087" s="3" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="B2087" s="3" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="C2087" s="7" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="D2087" s="8"/>
       <c r="E2087" s="7"/>
@@ -60814,19 +60827,19 @@
     </row>
     <row r="2088" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2088" s="3" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="B2088" s="3" t="s">
-        <v>2196</v>
-      </c>
-      <c r="C2088" s="7"/>
+        <v>2193</v>
+      </c>
+      <c r="C2088" s="7" t="s">
+        <v>2194</v>
+      </c>
       <c r="D2088" s="8"/>
       <c r="E2088" s="7"/>
       <c r="F2088" s="8"/>
       <c r="G2088" s="7"/>
-      <c r="H2088" s="8" t="s">
-        <v>1110</v>
-      </c>
+      <c r="H2088" s="8"/>
       <c r="I2088" s="7"/>
       <c r="J2088" s="8" t="s">
         <v>2278</v>
@@ -60834,20 +60847,20 @@
     </row>
     <row r="2089" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2089" s="3" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="B2089" s="3" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="C2089" s="7"/>
       <c r="D2089" s="8"/>
       <c r="E2089" s="7"/>
       <c r="F2089" s="8"/>
       <c r="G2089" s="7"/>
-      <c r="H2089" s="8"/>
-      <c r="I2089" s="7" t="s">
-        <v>927</v>
-      </c>
+      <c r="H2089" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I2089" s="7"/>
       <c r="J2089" s="8" t="s">
         <v>2278</v>
       </c>
@@ -60857,7 +60870,7 @@
         <v>2197</v>
       </c>
       <c r="B2090" s="3" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="C2090" s="7"/>
       <c r="D2090" s="8"/>
@@ -60866,7 +60879,7 @@
       <c r="G2090" s="7"/>
       <c r="H2090" s="8"/>
       <c r="I2090" s="7" t="s">
-        <v>1047</v>
+        <v>927</v>
       </c>
       <c r="J2090" s="8" t="s">
         <v>2278</v>
@@ -60874,10 +60887,10 @@
     </row>
     <row r="2091" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2091" s="3" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="B2091" s="3" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="C2091" s="7"/>
       <c r="D2091" s="8"/>
@@ -60886,7 +60899,7 @@
       <c r="G2091" s="7"/>
       <c r="H2091" s="8"/>
       <c r="I2091" s="7" t="s">
-        <v>1101</v>
+        <v>1047</v>
       </c>
       <c r="J2091" s="8" t="s">
         <v>2278</v>
@@ -60894,20 +60907,20 @@
     </row>
     <row r="2092" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2092" s="3" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="B2092" s="3" t="s">
-        <v>1886</v>
+        <v>2201</v>
       </c>
       <c r="C2092" s="7"/>
       <c r="D2092" s="8"/>
       <c r="E2092" s="7"/>
       <c r="F2092" s="8"/>
       <c r="G2092" s="7"/>
-      <c r="H2092" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="I2092" s="7"/>
+      <c r="H2092" s="8"/>
+      <c r="I2092" s="7" t="s">
+        <v>1101</v>
+      </c>
       <c r="J2092" s="8" t="s">
         <v>2278</v>
       </c>
@@ -60917,7 +60930,7 @@
         <v>2202</v>
       </c>
       <c r="B2093" s="3" t="s">
-        <v>2203</v>
+        <v>1886</v>
       </c>
       <c r="C2093" s="7"/>
       <c r="D2093" s="8"/>
@@ -60925,7 +60938,7 @@
       <c r="F2093" s="8"/>
       <c r="G2093" s="7"/>
       <c r="H2093" s="8" t="s">
-        <v>764</v>
+        <v>864</v>
       </c>
       <c r="I2093" s="7"/>
       <c r="J2093" s="8" t="s">
@@ -60937,7 +60950,7 @@
         <v>2202</v>
       </c>
       <c r="B2094" s="3" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="C2094" s="7"/>
       <c r="D2094" s="8"/>
@@ -60945,7 +60958,7 @@
       <c r="F2094" s="8"/>
       <c r="G2094" s="7"/>
       <c r="H2094" s="8" t="s">
-        <v>2205</v>
+        <v>764</v>
       </c>
       <c r="I2094" s="7"/>
       <c r="J2094" s="8" t="s">
@@ -60957,7 +60970,7 @@
         <v>2202</v>
       </c>
       <c r="B2095" s="3" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="C2095" s="7"/>
       <c r="D2095" s="8"/>
@@ -60965,7 +60978,7 @@
       <c r="F2095" s="8"/>
       <c r="G2095" s="7"/>
       <c r="H2095" s="8" t="s">
-        <v>653</v>
+        <v>2205</v>
       </c>
       <c r="I2095" s="7"/>
       <c r="J2095" s="8" t="s">
@@ -60977,16 +60990,16 @@
         <v>2202</v>
       </c>
       <c r="B2096" s="3" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C2096" s="7"/>
       <c r="D2096" s="8"/>
-      <c r="E2096" s="7" t="s">
-        <v>939</v>
-      </c>
+      <c r="E2096" s="7"/>
       <c r="F2096" s="8"/>
       <c r="G2096" s="7"/>
-      <c r="H2096" s="8"/>
+      <c r="H2096" s="8" t="s">
+        <v>653</v>
+      </c>
       <c r="I2096" s="7"/>
       <c r="J2096" s="8" t="s">
         <v>2278</v>
@@ -60997,15 +61010,15 @@
         <v>2202</v>
       </c>
       <c r="B2097" s="3" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="C2097" s="7"/>
       <c r="D2097" s="8"/>
-      <c r="E2097" s="7"/>
+      <c r="E2097" s="7" t="s">
+        <v>939</v>
+      </c>
       <c r="F2097" s="8"/>
-      <c r="G2097" s="7" t="s">
-        <v>678</v>
-      </c>
+      <c r="G2097" s="7"/>
       <c r="H2097" s="8"/>
       <c r="I2097" s="7"/>
       <c r="J2097" s="8" t="s">
@@ -61014,18 +61027,18 @@
     </row>
     <row r="2098" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2098" s="3" t="s">
-        <v>2209</v>
+        <v>2202</v>
       </c>
       <c r="B2098" s="3" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="C2098" s="7"/>
       <c r="D2098" s="8"/>
-      <c r="E2098" s="7" t="s">
-        <v>1560</v>
-      </c>
+      <c r="E2098" s="7"/>
       <c r="F2098" s="8"/>
-      <c r="G2098" s="7"/>
+      <c r="G2098" s="7" t="s">
+        <v>678</v>
+      </c>
       <c r="H2098" s="8"/>
       <c r="I2098" s="7"/>
       <c r="J2098" s="8" t="s">
@@ -61034,17 +61047,17 @@
     </row>
     <row r="2099" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2099" s="3" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="B2099" s="3" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="C2099" s="7"/>
       <c r="D2099" s="8"/>
-      <c r="E2099" s="7"/>
-      <c r="F2099" s="8" t="s">
-        <v>750</v>
-      </c>
+      <c r="E2099" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F2099" s="8"/>
       <c r="G2099" s="7"/>
       <c r="H2099" s="8"/>
       <c r="I2099" s="7"/>
@@ -61054,18 +61067,18 @@
     </row>
     <row r="2100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2100" s="3" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="B2100" s="3" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="C2100" s="7"/>
       <c r="D2100" s="8"/>
       <c r="E2100" s="7"/>
-      <c r="F2100" s="8"/>
-      <c r="G2100" s="7" t="s">
-        <v>786</v>
-      </c>
+      <c r="F2100" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="G2100" s="7"/>
       <c r="H2100" s="8"/>
       <c r="I2100" s="7"/>
       <c r="J2100" s="8" t="s">
@@ -61074,17 +61087,17 @@
     </row>
     <row r="2101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2101" s="3" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="B2101" s="3" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="C2101" s="7"/>
       <c r="D2101" s="8"/>
       <c r="E2101" s="7"/>
       <c r="F2101" s="8"/>
       <c r="G2101" s="7" t="s">
-        <v>2217</v>
+        <v>786</v>
       </c>
       <c r="H2101" s="8"/>
       <c r="I2101" s="7"/>
@@ -61094,30 +61107,30 @@
     </row>
     <row r="2102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2102" s="3" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="B2102" s="3" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="C2102" s="7"/>
       <c r="D2102" s="8"/>
       <c r="E2102" s="7"/>
       <c r="F2102" s="8"/>
-      <c r="G2102" s="7"/>
+      <c r="G2102" s="7" t="s">
+        <v>2217</v>
+      </c>
       <c r="H2102" s="8"/>
-      <c r="I2102" s="7" t="s">
-        <v>709</v>
-      </c>
+      <c r="I2102" s="7"/>
       <c r="J2102" s="8" t="s">
         <v>2278</v>
       </c>
     </row>
     <row r="2103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2103" s="3" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B2103" s="3" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="C2103" s="7"/>
       <c r="D2103" s="8"/>
@@ -61126,7 +61139,7 @@
       <c r="G2103" s="7"/>
       <c r="H2103" s="8"/>
       <c r="I2103" s="7" t="s">
-        <v>1537</v>
+        <v>709</v>
       </c>
       <c r="J2103" s="8" t="s">
         <v>2278</v>
@@ -61134,22 +61147,20 @@
     </row>
     <row r="2104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2104" s="3" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B2104" s="3" t="s">
-        <v>2223</v>
-      </c>
-      <c r="C2104" s="7" t="s">
-        <v>2224</v>
-      </c>
+        <v>2221</v>
+      </c>
+      <c r="C2104" s="7"/>
       <c r="D2104" s="8"/>
       <c r="E2104" s="7"/>
-      <c r="F2104" s="8" t="s">
-        <v>2225</v>
-      </c>
+      <c r="F2104" s="8"/>
       <c r="G2104" s="7"/>
       <c r="H2104" s="8"/>
-      <c r="I2104" s="7"/>
+      <c r="I2104" s="7" t="s">
+        <v>1537</v>
+      </c>
       <c r="J2104" s="8" t="s">
         <v>2278</v>
       </c>
@@ -61159,14 +61170,16 @@
         <v>2222</v>
       </c>
       <c r="B2105" s="3" t="s">
-        <v>2226</v>
-      </c>
-      <c r="C2105" s="7"/>
+        <v>2223</v>
+      </c>
+      <c r="C2105" s="7" t="s">
+        <v>2224</v>
+      </c>
       <c r="D2105" s="8"/>
-      <c r="E2105" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="F2105" s="8"/>
+      <c r="E2105" s="7"/>
+      <c r="F2105" s="8" t="s">
+        <v>2225</v>
+      </c>
       <c r="G2105" s="7"/>
       <c r="H2105" s="8"/>
       <c r="I2105" s="7"/>
@@ -61176,18 +61189,18 @@
     </row>
     <row r="2106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2106" s="3" t="s">
-        <v>2227</v>
+        <v>2222</v>
       </c>
       <c r="B2106" s="3" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="C2106" s="7"/>
       <c r="D2106" s="8"/>
-      <c r="E2106" s="7"/>
+      <c r="E2106" s="7" t="s">
+        <v>749</v>
+      </c>
       <c r="F2106" s="8"/>
-      <c r="G2106" s="7" t="s">
-        <v>661</v>
-      </c>
+      <c r="G2106" s="7"/>
       <c r="H2106" s="8"/>
       <c r="I2106" s="7"/>
       <c r="J2106" s="8" t="s">
@@ -61196,19 +61209,19 @@
     </row>
     <row r="2107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2107" s="3" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="B2107" s="3" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="C2107" s="7"/>
       <c r="D2107" s="8"/>
       <c r="E2107" s="7"/>
       <c r="F2107" s="8"/>
-      <c r="G2107" s="7"/>
-      <c r="H2107" s="8" t="s">
-        <v>590</v>
-      </c>
+      <c r="G2107" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="H2107" s="8"/>
       <c r="I2107" s="7"/>
       <c r="J2107" s="8" t="s">
         <v>2278</v>
@@ -61219,16 +61232,16 @@
         <v>2229</v>
       </c>
       <c r="B2108" s="3" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="C2108" s="7"/>
       <c r="D2108" s="8"/>
-      <c r="E2108" s="7" t="s">
-        <v>984</v>
-      </c>
+      <c r="E2108" s="7"/>
       <c r="F2108" s="8"/>
       <c r="G2108" s="7"/>
-      <c r="H2108" s="8"/>
+      <c r="H2108" s="8" t="s">
+        <v>590</v>
+      </c>
       <c r="I2108" s="7"/>
       <c r="J2108" s="8" t="s">
         <v>2278</v>
@@ -61239,17 +61252,15 @@
         <v>2229</v>
       </c>
       <c r="B2109" s="3" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="C2109" s="7"/>
-      <c r="D2109" s="8" t="s">
-        <v>2233</v>
-      </c>
-      <c r="E2109" s="7"/>
+      <c r="D2109" s="8"/>
+      <c r="E2109" s="7" t="s">
+        <v>984</v>
+      </c>
       <c r="F2109" s="8"/>
-      <c r="G2109" s="7" t="s">
-        <v>679</v>
-      </c>
+      <c r="G2109" s="7"/>
       <c r="H2109" s="8"/>
       <c r="I2109" s="7"/>
       <c r="J2109" s="8" t="s">
@@ -61261,16 +61272,18 @@
         <v>2229</v>
       </c>
       <c r="B2110" s="3" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="C2110" s="7"/>
-      <c r="D2110" s="8"/>
+      <c r="D2110" s="8" t="s">
+        <v>2233</v>
+      </c>
       <c r="E2110" s="7"/>
       <c r="F2110" s="8"/>
-      <c r="G2110" s="7"/>
-      <c r="H2110" s="8" t="s">
-        <v>2235</v>
-      </c>
+      <c r="G2110" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="H2110" s="8"/>
       <c r="I2110" s="7"/>
       <c r="J2110" s="8" t="s">
         <v>2278</v>
@@ -61278,19 +61291,19 @@
     </row>
     <row r="2111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2111" s="3" t="s">
-        <v>2236</v>
+        <v>2229</v>
       </c>
       <c r="B2111" s="3" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="C2111" s="7"/>
       <c r="D2111" s="8"/>
       <c r="E2111" s="7"/>
-      <c r="F2111" s="8" t="s">
-        <v>2238</v>
-      </c>
+      <c r="F2111" s="8"/>
       <c r="G2111" s="7"/>
-      <c r="H2111" s="8"/>
+      <c r="H2111" s="8" t="s">
+        <v>2235</v>
+      </c>
       <c r="I2111" s="7"/>
       <c r="J2111" s="8" t="s">
         <v>2278</v>
@@ -61298,19 +61311,19 @@
     </row>
     <row r="2112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2112" s="3" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="B2112" s="3" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="C2112" s="7"/>
       <c r="D2112" s="8"/>
       <c r="E2112" s="7"/>
-      <c r="F2112" s="8"/>
+      <c r="F2112" s="8" t="s">
+        <v>2238</v>
+      </c>
       <c r="G2112" s="7"/>
-      <c r="H2112" s="8" t="s">
-        <v>771</v>
-      </c>
+      <c r="H2112" s="8"/>
       <c r="I2112" s="7"/>
       <c r="J2112" s="8" t="s">
         <v>2278</v>
@@ -61321,16 +61334,16 @@
         <v>2239</v>
       </c>
       <c r="B2113" s="3" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="C2113" s="7"/>
       <c r="D2113" s="8"/>
-      <c r="E2113" s="7" t="s">
-        <v>974</v>
-      </c>
+      <c r="E2113" s="7"/>
       <c r="F2113" s="8"/>
       <c r="G2113" s="7"/>
-      <c r="H2113" s="8"/>
+      <c r="H2113" s="8" t="s">
+        <v>771</v>
+      </c>
       <c r="I2113" s="7"/>
       <c r="J2113" s="8" t="s">
         <v>2278</v>
@@ -61338,15 +61351,15 @@
     </row>
     <row r="2114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2114" s="3" t="s">
-        <v>540</v>
+        <v>2239</v>
       </c>
       <c r="B2114" s="3" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="C2114" s="7"/>
       <c r="D2114" s="8"/>
       <c r="E2114" s="7" t="s">
-        <v>737</v>
+        <v>974</v>
       </c>
       <c r="F2114" s="8"/>
       <c r="G2114" s="7"/>
@@ -61358,16 +61371,16 @@
     </row>
     <row r="2115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2115" s="3" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B2115" s="3" t="s">
-        <v>2243</v>
-      </c>
-      <c r="C2115" s="7" t="s">
-        <v>2244</v>
-      </c>
+        <v>2242</v>
+      </c>
+      <c r="C2115" s="7"/>
       <c r="D2115" s="8"/>
-      <c r="E2115" s="7"/>
+      <c r="E2115" s="7" t="s">
+        <v>737</v>
+      </c>
       <c r="F2115" s="8"/>
       <c r="G2115" s="7"/>
       <c r="H2115" s="8"/>
@@ -61381,15 +61394,13 @@
         <v>547</v>
       </c>
       <c r="B2116" s="3" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="C2116" s="7" t="s">
-        <v>2186</v>
+        <v>2244</v>
       </c>
       <c r="D2116" s="8"/>
-      <c r="E2116" s="7" t="s">
-        <v>1056</v>
-      </c>
+      <c r="E2116" s="7"/>
       <c r="F2116" s="8"/>
       <c r="G2116" s="7"/>
       <c r="H2116" s="8"/>
@@ -61400,61 +61411,63 @@
     </row>
     <row r="2117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2117" s="3" t="s">
-        <v>2246</v>
+        <v>547</v>
       </c>
       <c r="B2117" s="3" t="s">
-        <v>2247</v>
-      </c>
-      <c r="C2117" s="7"/>
+        <v>2245</v>
+      </c>
+      <c r="C2117" s="7" t="s">
+        <v>2186</v>
+      </c>
       <c r="D2117" s="8"/>
-      <c r="E2117" s="7"/>
+      <c r="E2117" s="7" t="s">
+        <v>1056</v>
+      </c>
       <c r="F2117" s="8"/>
       <c r="G2117" s="7"/>
       <c r="H2117" s="8"/>
-      <c r="I2117" s="7" t="s">
-        <v>980</v>
-      </c>
+      <c r="I2117" s="7"/>
       <c r="J2117" s="8" t="s">
         <v>2278</v>
       </c>
     </row>
     <row r="2118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2118" s="3" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="B2118" s="3" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="C2118" s="7"/>
       <c r="D2118" s="8"/>
-      <c r="E2118" s="7" t="s">
-        <v>2250</v>
-      </c>
+      <c r="E2118" s="7"/>
       <c r="F2118" s="8"/>
       <c r="G2118" s="7"/>
-      <c r="H2118" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="I2118" s="7"/>
+      <c r="H2118" s="8"/>
+      <c r="I2118" s="7" t="s">
+        <v>980</v>
+      </c>
       <c r="J2118" s="8" t="s">
         <v>2278</v>
       </c>
     </row>
     <row r="2119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2119" s="3" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="B2119" s="3" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
       <c r="C2119" s="7"/>
       <c r="D2119" s="8"/>
       <c r="E2119" s="7" t="s">
-        <v>1805</v>
+        <v>2250</v>
       </c>
       <c r="F2119" s="8"/>
       <c r="G2119" s="7"/>
-      <c r="H2119" s="8"/>
+      <c r="H2119" s="8" t="s">
+        <v>639</v>
+      </c>
       <c r="I2119" s="7"/>
       <c r="J2119" s="8" t="s">
         <v>2278</v>
@@ -61465,14 +61478,14 @@
         <v>2251</v>
       </c>
       <c r="B2120" s="3" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C2120" s="7"/>
       <c r="D2120" s="8"/>
-      <c r="E2120" s="7"/>
-      <c r="F2120" s="8" t="s">
-        <v>1937</v>
-      </c>
+      <c r="E2120" s="7" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F2120" s="8"/>
       <c r="G2120" s="7"/>
       <c r="H2120" s="8"/>
       <c r="I2120" s="7"/>
@@ -61482,19 +61495,19 @@
     </row>
     <row r="2121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2121" s="3" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
       <c r="B2121" s="3" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="C2121" s="7"/>
       <c r="D2121" s="8"/>
       <c r="E2121" s="7"/>
-      <c r="F2121" s="8"/>
+      <c r="F2121" s="8" t="s">
+        <v>1937</v>
+      </c>
       <c r="G2121" s="7"/>
-      <c r="H2121" s="8" t="s">
-        <v>2256</v>
-      </c>
+      <c r="H2121" s="8"/>
       <c r="I2121" s="7"/>
       <c r="J2121" s="8" t="s">
         <v>2278</v>
@@ -61502,19 +61515,19 @@
     </row>
     <row r="2122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2122" s="3" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="B2122" s="3" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
       <c r="C2122" s="7"/>
       <c r="D2122" s="8"/>
       <c r="E2122" s="7"/>
-      <c r="F2122" s="8" t="s">
-        <v>2063</v>
-      </c>
+      <c r="F2122" s="8"/>
       <c r="G2122" s="7"/>
-      <c r="H2122" s="8"/>
+      <c r="H2122" s="8" t="s">
+        <v>2256</v>
+      </c>
       <c r="I2122" s="7"/>
       <c r="J2122" s="8" t="s">
         <v>2278</v>
@@ -61522,19 +61535,19 @@
     </row>
     <row r="2123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2123" s="3" t="s">
-        <v>2254</v>
+        <v>2257</v>
       </c>
       <c r="B2123" s="3" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="C2123" s="7"/>
       <c r="D2123" s="8"/>
       <c r="E2123" s="7"/>
-      <c r="F2123" s="8"/>
+      <c r="F2123" s="8" t="s">
+        <v>2063</v>
+      </c>
       <c r="G2123" s="7"/>
-      <c r="H2123" s="8" t="s">
-        <v>1935</v>
-      </c>
+      <c r="H2123" s="8"/>
       <c r="I2123" s="7"/>
       <c r="J2123" s="8" t="s">
         <v>2278</v>
@@ -61542,19 +61555,19 @@
     </row>
     <row r="2124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2124" s="3" t="s">
-        <v>2260</v>
+        <v>2254</v>
       </c>
       <c r="B2124" s="3" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="C2124" s="7"/>
       <c r="D2124" s="8"/>
       <c r="E2124" s="7"/>
       <c r="F2124" s="8"/>
-      <c r="G2124" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="H2124" s="8"/>
+      <c r="G2124" s="7"/>
+      <c r="H2124" s="8" t="s">
+        <v>1935</v>
+      </c>
       <c r="I2124" s="7"/>
       <c r="J2124" s="8" t="s">
         <v>2278</v>
@@ -61562,17 +61575,17 @@
     </row>
     <row r="2125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2125" s="3" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B2125" s="3" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="C2125" s="7"/>
       <c r="D2125" s="8"/>
       <c r="E2125" s="7"/>
       <c r="F2125" s="8"/>
       <c r="G2125" s="7" t="s">
-        <v>901</v>
+        <v>616</v>
       </c>
       <c r="H2125" s="8"/>
       <c r="I2125" s="7"/>
@@ -61585,15 +61598,15 @@
         <v>2262</v>
       </c>
       <c r="B2126" s="3" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C2126" s="7"/>
       <c r="D2126" s="8"/>
-      <c r="E2126" s="7" t="s">
-        <v>1814</v>
-      </c>
+      <c r="E2126" s="7"/>
       <c r="F2126" s="8"/>
-      <c r="G2126" s="7"/>
+      <c r="G2126" s="7" t="s">
+        <v>901</v>
+      </c>
       <c r="H2126" s="8"/>
       <c r="I2126" s="7"/>
       <c r="J2126" s="8" t="s">
@@ -61605,14 +61618,14 @@
         <v>2262</v>
       </c>
       <c r="B2127" s="3" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="C2127" s="7"/>
       <c r="D2127" s="8"/>
-      <c r="E2127" s="7"/>
-      <c r="F2127" s="8" t="s">
-        <v>2266</v>
-      </c>
+      <c r="E2127" s="7" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F2127" s="8"/>
       <c r="G2127" s="7"/>
       <c r="H2127" s="8"/>
       <c r="I2127" s="7"/>
@@ -61622,17 +61635,17 @@
     </row>
     <row r="2128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2128" s="3" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
       <c r="B2128" s="3" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="C2128" s="7"/>
       <c r="D2128" s="8"/>
-      <c r="E2128" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="F2128" s="8"/>
+      <c r="E2128" s="7"/>
+      <c r="F2128" s="8" t="s">
+        <v>2266</v>
+      </c>
       <c r="G2128" s="7"/>
       <c r="H2128" s="8"/>
       <c r="I2128" s="7"/>
@@ -61645,16 +61658,16 @@
         <v>2267</v>
       </c>
       <c r="B2129" s="3" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="C2129" s="7"/>
       <c r="D2129" s="8"/>
-      <c r="E2129" s="7"/>
+      <c r="E2129" s="7" t="s">
+        <v>650</v>
+      </c>
       <c r="F2129" s="8"/>
       <c r="G2129" s="7"/>
-      <c r="H2129" s="8" t="s">
-        <v>645</v>
-      </c>
+      <c r="H2129" s="8"/>
       <c r="I2129" s="7"/>
       <c r="J2129" s="8" t="s">
         <v>2278</v>
@@ -61665,7 +61678,7 @@
         <v>2267</v>
       </c>
       <c r="B2130" s="3" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C2130" s="7"/>
       <c r="D2130" s="8"/>
@@ -61673,7 +61686,7 @@
       <c r="F2130" s="8"/>
       <c r="G2130" s="7"/>
       <c r="H2130" s="8" t="s">
-        <v>768</v>
+        <v>645</v>
       </c>
       <c r="I2130" s="7"/>
       <c r="J2130" s="8" t="s">
@@ -61682,19 +61695,19 @@
     </row>
     <row r="2131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2131" s="3" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="B2131" s="3" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="C2131" s="7"/>
       <c r="D2131" s="8"/>
       <c r="E2131" s="7"/>
-      <c r="F2131" s="8" t="s">
-        <v>988</v>
-      </c>
+      <c r="F2131" s="8"/>
       <c r="G2131" s="7"/>
-      <c r="H2131" s="8"/>
+      <c r="H2131" s="8" t="s">
+        <v>768</v>
+      </c>
       <c r="I2131" s="7"/>
       <c r="J2131" s="8" t="s">
         <v>2278</v>
@@ -61702,16 +61715,16 @@
     </row>
     <row r="2132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2132" s="3" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="B2132" s="3" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="C2132" s="7"/>
       <c r="D2132" s="8"/>
       <c r="E2132" s="7"/>
       <c r="F2132" s="8" t="s">
-        <v>809</v>
+        <v>988</v>
       </c>
       <c r="G2132" s="7"/>
       <c r="H2132" s="8"/>
@@ -61725,16 +61738,16 @@
         <v>2273</v>
       </c>
       <c r="B2133" s="3" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="C2133" s="7"/>
       <c r="D2133" s="8"/>
       <c r="E2133" s="7"/>
-      <c r="F2133" s="8"/>
+      <c r="F2133" s="8" t="s">
+        <v>809</v>
+      </c>
       <c r="G2133" s="7"/>
-      <c r="H2133" s="8" t="s">
-        <v>589</v>
-      </c>
+      <c r="H2133" s="8"/>
       <c r="I2133" s="7"/>
       <c r="J2133" s="8" t="s">
         <v>2278</v>
@@ -61742,19 +61755,19 @@
     </row>
     <row r="2134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2134" s="3" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="B2134" s="3" t="s">
-        <v>2277</v>
-      </c>
-      <c r="C2134" s="7" t="s">
-        <v>816</v>
-      </c>
+        <v>2275</v>
+      </c>
+      <c r="C2134" s="7"/>
       <c r="D2134" s="8"/>
       <c r="E2134" s="7"/>
       <c r="F2134" s="8"/>
       <c r="G2134" s="7"/>
-      <c r="H2134" s="8"/>
+      <c r="H2134" s="8" t="s">
+        <v>589</v>
+      </c>
       <c r="I2134" s="7"/>
       <c r="J2134" s="8" t="s">
         <v>2278</v>
@@ -61762,40 +61775,40 @@
     </row>
     <row r="2135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2135" s="3" t="s">
-        <v>1149</v>
+        <v>2276</v>
       </c>
       <c r="B2135" s="3" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C2135" s="5"/>
-      <c r="D2135" s="6"/>
-      <c r="E2135" s="5"/>
-      <c r="F2135" s="6"/>
-      <c r="G2135" s="5" t="s">
-        <v>1151</v>
-      </c>
-      <c r="H2135" s="6" t="s">
-        <v>1152</v>
-      </c>
-      <c r="I2135" s="5"/>
-      <c r="J2135" s="6" t="s">
-        <v>1509</v>
+        <v>2277</v>
+      </c>
+      <c r="C2135" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="D2135" s="8"/>
+      <c r="E2135" s="7"/>
+      <c r="F2135" s="8"/>
+      <c r="G2135" s="7"/>
+      <c r="H2135" s="8"/>
+      <c r="I2135" s="7"/>
+      <c r="J2135" s="8" t="s">
+        <v>2278</v>
       </c>
     </row>
     <row r="2136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2136" s="3" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="B2136" s="3" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C2136" s="5"/>
       <c r="D2136" s="6"/>
       <c r="E2136" s="5"/>
       <c r="F2136" s="6"/>
-      <c r="G2136" s="5"/>
+      <c r="G2136" s="5" t="s">
+        <v>1151</v>
+      </c>
       <c r="H2136" s="6" t="s">
-        <v>768</v>
+        <v>1152</v>
       </c>
       <c r="I2136" s="5"/>
       <c r="J2136" s="6" t="s">
@@ -61804,10 +61817,10 @@
     </row>
     <row r="2137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2137" s="3" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B2137" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C2137" s="5"/>
       <c r="D2137" s="6"/>
@@ -61815,7 +61828,7 @@
       <c r="F2137" s="6"/>
       <c r="G2137" s="5"/>
       <c r="H2137" s="6" t="s">
-        <v>1157</v>
+        <v>768</v>
       </c>
       <c r="I2137" s="5"/>
       <c r="J2137" s="6" t="s">
@@ -61824,61 +61837,61 @@
     </row>
     <row r="2138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2138" s="3" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B2138" s="3" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C2138" s="5"/>
       <c r="D2138" s="6"/>
       <c r="E2138" s="5"/>
       <c r="F2138" s="6"/>
       <c r="G2138" s="5"/>
-      <c r="H2138" s="6"/>
-      <c r="I2138" s="5" t="s">
-        <v>785</v>
-      </c>
+      <c r="H2138" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I2138" s="5"/>
       <c r="J2138" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2139" s="3" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B2139" s="3" t="s">
-        <v>19</v>
+        <v>1159</v>
       </c>
       <c r="C2139" s="5"/>
       <c r="D2139" s="6"/>
-      <c r="E2139" s="5" t="s">
-        <v>1161</v>
-      </c>
+      <c r="E2139" s="5"/>
       <c r="F2139" s="6"/>
       <c r="G2139" s="5"/>
-      <c r="H2139" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="I2139" s="5"/>
+      <c r="H2139" s="6"/>
+      <c r="I2139" s="5" t="s">
+        <v>785</v>
+      </c>
       <c r="J2139" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2140" s="3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B2140" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C2140" s="5"/>
       <c r="D2140" s="6"/>
-      <c r="E2140" s="5"/>
+      <c r="E2140" s="5" t="s">
+        <v>1161</v>
+      </c>
       <c r="F2140" s="6"/>
-      <c r="G2140" s="5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="H2140" s="6"/>
+      <c r="G2140" s="5"/>
+      <c r="H2140" s="6" t="s">
+        <v>590</v>
+      </c>
       <c r="I2140" s="5"/>
       <c r="J2140" s="6" t="s">
         <v>1509</v>
@@ -61886,19 +61899,19 @@
     </row>
     <row r="2141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2141" s="3" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B2141" s="3" t="s">
-        <v>1165</v>
+        <v>19</v>
       </c>
       <c r="C2141" s="5"/>
       <c r="D2141" s="6"/>
       <c r="E2141" s="5"/>
       <c r="F2141" s="6"/>
-      <c r="G2141" s="5"/>
-      <c r="H2141" s="6" t="s">
-        <v>1166</v>
-      </c>
+      <c r="G2141" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H2141" s="6"/>
       <c r="I2141" s="5"/>
       <c r="J2141" s="6" t="s">
         <v>1509</v>
@@ -61906,10 +61919,10 @@
     </row>
     <row r="2142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2142" s="3" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B2142" s="3" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C2142" s="5"/>
       <c r="D2142" s="6"/>
@@ -61917,7 +61930,7 @@
       <c r="F2142" s="6"/>
       <c r="G2142" s="5"/>
       <c r="H2142" s="6" t="s">
-        <v>603</v>
+        <v>1166</v>
       </c>
       <c r="I2142" s="5"/>
       <c r="J2142" s="6" t="s">
@@ -61926,52 +61939,46 @@
     </row>
     <row r="2143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2143" s="3" t="s">
-        <v>43</v>
+        <v>1167</v>
       </c>
       <c r="B2143" s="3" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C2143" s="5" t="s">
-        <v>635</v>
-      </c>
+        <v>1168</v>
+      </c>
+      <c r="C2143" s="5"/>
       <c r="D2143" s="6"/>
       <c r="E2143" s="5"/>
-      <c r="F2143" s="6" t="s">
-        <v>633</v>
-      </c>
+      <c r="F2143" s="6"/>
       <c r="G2143" s="5"/>
       <c r="H2143" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="I2143" s="5" t="s">
-        <v>811</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="I2143" s="5"/>
       <c r="J2143" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2144" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B2144" s="3" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C2144" s="5" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="D2144" s="6"/>
       <c r="E2144" s="5"/>
       <c r="F2144" s="6" t="s">
-        <v>973</v>
-      </c>
-      <c r="G2144" s="5" t="s">
-        <v>660</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="G2144" s="5"/>
       <c r="H2144" s="6" t="s">
-        <v>1172</v>
-      </c>
-      <c r="I2144" s="5"/>
+        <v>1170</v>
+      </c>
+      <c r="I2144" s="5" t="s">
+        <v>811</v>
+      </c>
       <c r="J2144" s="6" t="s">
         <v>1509</v>
       </c>
@@ -61981,15 +61988,21 @@
         <v>62</v>
       </c>
       <c r="B2145" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C2145" s="5"/>
+        <v>1171</v>
+      </c>
+      <c r="C2145" s="5" t="s">
+        <v>657</v>
+      </c>
       <c r="D2145" s="6"/>
       <c r="E2145" s="5"/>
-      <c r="F2145" s="6"/>
-      <c r="G2145" s="5"/>
+      <c r="F2145" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="G2145" s="5" t="s">
+        <v>660</v>
+      </c>
       <c r="H2145" s="6" t="s">
-        <v>628</v>
+        <v>1172</v>
       </c>
       <c r="I2145" s="5"/>
       <c r="J2145" s="6" t="s">
@@ -61998,20 +62011,18 @@
     </row>
     <row r="2146" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2146" s="3" t="s">
-        <v>1174</v>
+        <v>62</v>
       </c>
       <c r="B2146" s="3" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C2146" s="5"/>
       <c r="D2146" s="6"/>
       <c r="E2146" s="5"/>
       <c r="F2146" s="6"/>
-      <c r="G2146" s="5" t="s">
-        <v>868</v>
-      </c>
+      <c r="G2146" s="5"/>
       <c r="H2146" s="6" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="I2146" s="5"/>
       <c r="J2146" s="6" t="s">
@@ -62020,22 +62031,20 @@
     </row>
     <row r="2147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2147" s="3" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B2147" s="3" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C2147" s="5"/>
       <c r="D2147" s="6"/>
-      <c r="E2147" s="5" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F2147" s="6" t="s">
-        <v>941</v>
-      </c>
-      <c r="G2147" s="5"/>
+      <c r="E2147" s="5"/>
+      <c r="F2147" s="6"/>
+      <c r="G2147" s="5" t="s">
+        <v>868</v>
+      </c>
       <c r="H2147" s="6" t="s">
-        <v>1179</v>
+        <v>639</v>
       </c>
       <c r="I2147" s="5"/>
       <c r="J2147" s="6" t="s">
@@ -62044,19 +62053,23 @@
     </row>
     <row r="2148" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2148" s="3" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="B2148" s="3" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="C2148" s="5"/>
       <c r="D2148" s="6"/>
-      <c r="E2148" s="5"/>
+      <c r="E2148" s="5" t="s">
+        <v>1178</v>
+      </c>
       <c r="F2148" s="6" t="s">
-        <v>598</v>
+        <v>941</v>
       </c>
       <c r="G2148" s="5"/>
-      <c r="H2148" s="6"/>
+      <c r="H2148" s="6" t="s">
+        <v>1179</v>
+      </c>
       <c r="I2148" s="5"/>
       <c r="J2148" s="6" t="s">
         <v>1509</v>
@@ -62064,16 +62077,16 @@
     </row>
     <row r="2149" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2149" s="3" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B2149" s="3" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C2149" s="5"/>
       <c r="D2149" s="6"/>
       <c r="E2149" s="5"/>
       <c r="F2149" s="6" t="s">
-        <v>1163</v>
+        <v>598</v>
       </c>
       <c r="G2149" s="5"/>
       <c r="H2149" s="6"/>
@@ -62084,100 +62097,100 @@
     </row>
     <row r="2150" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2150" s="3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B2150" s="3" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C2150" s="5"/>
       <c r="D2150" s="6"/>
       <c r="E2150" s="5"/>
-      <c r="F2150" s="6"/>
+      <c r="F2150" s="6" t="s">
+        <v>1163</v>
+      </c>
       <c r="G2150" s="5"/>
       <c r="H2150" s="6"/>
-      <c r="I2150" s="5" t="s">
-        <v>1186</v>
-      </c>
+      <c r="I2150" s="5"/>
       <c r="J2150" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2151" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2151" s="3" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B2151" s="3" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C2151" s="5"/>
       <c r="D2151" s="6"/>
       <c r="E2151" s="5"/>
       <c r="F2151" s="6"/>
-      <c r="G2151" s="5" t="s">
-        <v>855</v>
-      </c>
+      <c r="G2151" s="5"/>
       <c r="H2151" s="6"/>
-      <c r="I2151" s="5"/>
+      <c r="I2151" s="5" t="s">
+        <v>1186</v>
+      </c>
       <c r="J2151" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2152" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2152" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B2152" s="3" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C2152" s="5"/>
       <c r="D2152" s="6"/>
       <c r="E2152" s="5"/>
       <c r="F2152" s="6"/>
-      <c r="G2152" s="5"/>
+      <c r="G2152" s="5" t="s">
+        <v>855</v>
+      </c>
       <c r="H2152" s="6"/>
-      <c r="I2152" s="5" t="s">
-        <v>1132</v>
-      </c>
+      <c r="I2152" s="5"/>
       <c r="J2152" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2153" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2153" s="3" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B2153" s="3" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C2153" s="5"/>
       <c r="D2153" s="6"/>
       <c r="E2153" s="5"/>
-      <c r="F2153" s="6" t="s">
-        <v>1193</v>
-      </c>
+      <c r="F2153" s="6"/>
       <c r="G2153" s="5"/>
-      <c r="H2153" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="I2153" s="5"/>
+      <c r="H2153" s="6"/>
+      <c r="I2153" s="5" t="s">
+        <v>1132</v>
+      </c>
       <c r="J2153" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2154" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2154" s="3" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="B2154" s="3" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C2154" s="5"/>
       <c r="D2154" s="6"/>
       <c r="E2154" s="5"/>
-      <c r="F2154" s="6"/>
+      <c r="F2154" s="6" t="s">
+        <v>1193</v>
+      </c>
       <c r="G2154" s="5"/>
       <c r="H2154" s="6" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="I2154" s="5"/>
       <c r="J2154" s="6" t="s">
@@ -62186,19 +62199,19 @@
     </row>
     <row r="2155" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2155" s="3" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B2155" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C2155" s="5"/>
       <c r="D2155" s="6"/>
-      <c r="E2155" s="5" t="s">
-        <v>1198</v>
-      </c>
+      <c r="E2155" s="5"/>
       <c r="F2155" s="6"/>
       <c r="G2155" s="5"/>
-      <c r="H2155" s="6"/>
+      <c r="H2155" s="6" t="s">
+        <v>590</v>
+      </c>
       <c r="I2155" s="5"/>
       <c r="J2155" s="6" t="s">
         <v>1509</v>
@@ -62206,19 +62219,19 @@
     </row>
     <row r="2156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2156" s="3" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="B2156" s="3" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C2156" s="5"/>
       <c r="D2156" s="6"/>
-      <c r="E2156" s="5"/>
+      <c r="E2156" s="5" t="s">
+        <v>1198</v>
+      </c>
       <c r="F2156" s="6"/>
       <c r="G2156" s="5"/>
-      <c r="H2156" s="6" t="s">
-        <v>1201</v>
-      </c>
+      <c r="H2156" s="6"/>
       <c r="I2156" s="5"/>
       <c r="J2156" s="6" t="s">
         <v>1509</v>
@@ -62226,10 +62239,10 @@
     </row>
     <row r="2157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2157" s="3" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="B2157" s="3" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C2157" s="5"/>
       <c r="D2157" s="6"/>
@@ -62237,7 +62250,7 @@
       <c r="F2157" s="6"/>
       <c r="G2157" s="5"/>
       <c r="H2157" s="6" t="s">
-        <v>590</v>
+        <v>1201</v>
       </c>
       <c r="I2157" s="5"/>
       <c r="J2157" s="6" t="s">
@@ -62246,60 +62259,58 @@
     </row>
     <row r="2158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2158" s="3" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B2158" s="3" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C2158" s="5"/>
       <c r="D2158" s="6"/>
       <c r="E2158" s="5"/>
       <c r="F2158" s="6"/>
       <c r="G2158" s="5"/>
-      <c r="H2158" s="6"/>
-      <c r="I2158" s="5" t="s">
-        <v>1135</v>
-      </c>
+      <c r="H2158" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="I2158" s="5"/>
       <c r="J2158" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2159" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2159" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B2159" s="3" t="s">
-        <v>107</v>
+        <v>1205</v>
       </c>
       <c r="C2159" s="5"/>
       <c r="D2159" s="6"/>
       <c r="E2159" s="5"/>
       <c r="F2159" s="6"/>
       <c r="G2159" s="5"/>
-      <c r="H2159" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="I2159" s="5"/>
+      <c r="H2159" s="6"/>
+      <c r="I2159" s="5" t="s">
+        <v>1135</v>
+      </c>
       <c r="J2159" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2160" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2160" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B2160" s="3" t="s">
-        <v>1208</v>
+        <v>107</v>
       </c>
       <c r="C2160" s="5"/>
       <c r="D2160" s="6"/>
-      <c r="E2160" s="5" t="s">
-        <v>1209</v>
-      </c>
+      <c r="E2160" s="5"/>
       <c r="F2160" s="6"/>
       <c r="G2160" s="5"/>
       <c r="H2160" s="6" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="I2160" s="5"/>
       <c r="J2160" s="6" t="s">
@@ -62311,15 +62322,17 @@
         <v>1207</v>
       </c>
       <c r="B2161" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C2161" s="5"/>
       <c r="D2161" s="6"/>
-      <c r="E2161" s="5"/>
+      <c r="E2161" s="5" t="s">
+        <v>1209</v>
+      </c>
       <c r="F2161" s="6"/>
       <c r="G2161" s="5"/>
       <c r="H2161" s="6" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="I2161" s="5"/>
       <c r="J2161" s="6" t="s">
@@ -62328,20 +62341,18 @@
     </row>
     <row r="2162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2162" s="3" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="B2162" s="3" t="s">
-        <v>129</v>
+        <v>1210</v>
       </c>
       <c r="C2162" s="5"/>
       <c r="D2162" s="6"/>
-      <c r="E2162" s="5" t="s">
-        <v>724</v>
-      </c>
+      <c r="E2162" s="5"/>
       <c r="F2162" s="6"/>
       <c r="G2162" s="5"/>
       <c r="H2162" s="6" t="s">
-        <v>1212</v>
+        <v>645</v>
       </c>
       <c r="I2162" s="5"/>
       <c r="J2162" s="6" t="s">
@@ -62350,18 +62361,20 @@
     </row>
     <row r="2163" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2163" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B2163" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C2163" s="5"/>
       <c r="D2163" s="6"/>
-      <c r="E2163" s="5"/>
+      <c r="E2163" s="5" t="s">
+        <v>724</v>
+      </c>
       <c r="F2163" s="6"/>
       <c r="G2163" s="5"/>
       <c r="H2163" s="6" t="s">
-        <v>642</v>
+        <v>1212</v>
       </c>
       <c r="I2163" s="5"/>
       <c r="J2163" s="6" t="s">
@@ -62370,10 +62383,10 @@
     </row>
     <row r="2164" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2164" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B2164" s="3" t="s">
-        <v>1215</v>
+        <v>129</v>
       </c>
       <c r="C2164" s="5"/>
       <c r="D2164" s="6"/>
@@ -62381,7 +62394,7 @@
       <c r="F2164" s="6"/>
       <c r="G2164" s="5"/>
       <c r="H2164" s="6" t="s">
-        <v>728</v>
+        <v>642</v>
       </c>
       <c r="I2164" s="5"/>
       <c r="J2164" s="6" t="s">
@@ -62390,20 +62403,18 @@
     </row>
     <row r="2165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2165" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B2165" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C2165" s="5" t="s">
-        <v>661</v>
-      </c>
+        <v>1215</v>
+      </c>
+      <c r="C2165" s="5"/>
       <c r="D2165" s="6"/>
       <c r="E2165" s="5"/>
       <c r="F2165" s="6"/>
       <c r="G2165" s="5"/>
       <c r="H2165" s="6" t="s">
-        <v>1218</v>
+        <v>728</v>
       </c>
       <c r="I2165" s="5"/>
       <c r="J2165" s="6" t="s">
@@ -62412,18 +62423,20 @@
     </row>
     <row r="2166" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2166" s="3" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="B2166" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2166" s="5"/>
+        <v>1217</v>
+      </c>
+      <c r="C2166" s="5" t="s">
+        <v>661</v>
+      </c>
       <c r="D2166" s="6"/>
       <c r="E2166" s="5"/>
       <c r="F2166" s="6"/>
       <c r="G2166" s="5"/>
       <c r="H2166" s="6" t="s">
-        <v>613</v>
+        <v>1218</v>
       </c>
       <c r="I2166" s="5"/>
       <c r="J2166" s="6" t="s">
@@ -62432,20 +62445,18 @@
     </row>
     <row r="2167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2167" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B2167" s="3" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="C2167" s="5"/>
       <c r="D2167" s="6"/>
-      <c r="E2167" s="5" t="s">
-        <v>1221</v>
-      </c>
+      <c r="E2167" s="5"/>
       <c r="F2167" s="6"/>
       <c r="G2167" s="5"/>
       <c r="H2167" s="6" t="s">
-        <v>704</v>
+        <v>613</v>
       </c>
       <c r="I2167" s="5"/>
       <c r="J2167" s="6" t="s">
@@ -62454,20 +62465,20 @@
     </row>
     <row r="2168" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2168" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B2168" s="3" t="s">
-        <v>1223</v>
+        <v>154</v>
       </c>
       <c r="C2168" s="5"/>
       <c r="D2168" s="6"/>
-      <c r="E2168" s="5"/>
-      <c r="F2168" s="6" t="s">
-        <v>1013</v>
-      </c>
+      <c r="E2168" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F2168" s="6"/>
       <c r="G2168" s="5"/>
       <c r="H2168" s="6" t="s">
-        <v>1224</v>
+        <v>704</v>
       </c>
       <c r="I2168" s="5"/>
       <c r="J2168" s="6" t="s">
@@ -62476,22 +62487,20 @@
     </row>
     <row r="2169" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2169" s="3" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="B2169" s="3" t="s">
-        <v>201</v>
+        <v>1223</v>
       </c>
       <c r="C2169" s="5"/>
       <c r="D2169" s="6"/>
-      <c r="E2169" s="5" t="s">
-        <v>1226</v>
-      </c>
+      <c r="E2169" s="5"/>
       <c r="F2169" s="6" t="s">
-        <v>831</v>
+        <v>1013</v>
       </c>
       <c r="G2169" s="5"/>
       <c r="H2169" s="6" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="I2169" s="5"/>
       <c r="J2169" s="6" t="s">
@@ -62500,20 +62509,24 @@
     </row>
     <row r="2170" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2170" s="3" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="B2170" s="3" t="s">
-        <v>1229</v>
+        <v>201</v>
       </c>
       <c r="C2170" s="5"/>
       <c r="D2170" s="6"/>
-      <c r="E2170" s="5"/>
-      <c r="F2170" s="6"/>
+      <c r="E2170" s="5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F2170" s="6" t="s">
+        <v>831</v>
+      </c>
       <c r="G2170" s="5"/>
-      <c r="H2170" s="6"/>
-      <c r="I2170" s="5" t="s">
-        <v>1230</v>
-      </c>
+      <c r="H2170" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I2170" s="5"/>
       <c r="J2170" s="6" t="s">
         <v>1509</v>
       </c>
@@ -62523,7 +62536,7 @@
         <v>1228</v>
       </c>
       <c r="B2171" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C2171" s="5"/>
       <c r="D2171" s="6"/>
@@ -62532,7 +62545,7 @@
       <c r="G2171" s="5"/>
       <c r="H2171" s="6"/>
       <c r="I2171" s="5" t="s">
-        <v>709</v>
+        <v>1230</v>
       </c>
       <c r="J2171" s="6" t="s">
         <v>1509</v>
@@ -62543,37 +62556,35 @@
         <v>1228</v>
       </c>
       <c r="B2172" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C2172" s="5"/>
       <c r="D2172" s="6"/>
       <c r="E2172" s="5"/>
       <c r="F2172" s="6"/>
       <c r="G2172" s="5"/>
-      <c r="H2172" s="6" t="s">
-        <v>1233</v>
-      </c>
-      <c r="I2172" s="5"/>
+      <c r="H2172" s="6"/>
+      <c r="I2172" s="5" t="s">
+        <v>709</v>
+      </c>
       <c r="J2172" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2173" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2173" s="3" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B2173" s="3" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C2173" s="5"/>
       <c r="D2173" s="6"/>
       <c r="E2173" s="5"/>
-      <c r="F2173" s="6" t="s">
-        <v>746</v>
-      </c>
+      <c r="F2173" s="6"/>
       <c r="G2173" s="5"/>
       <c r="H2173" s="6" t="s">
-        <v>860</v>
+        <v>1233</v>
       </c>
       <c r="I2173" s="5"/>
       <c r="J2173" s="6" t="s">
@@ -62582,20 +62593,20 @@
     </row>
     <row r="2174" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2174" s="3" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B2174" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C2174" s="5"/>
       <c r="D2174" s="6"/>
       <c r="E2174" s="5"/>
-      <c r="F2174" s="6"/>
-      <c r="G2174" s="5" t="s">
-        <v>658</v>
-      </c>
+      <c r="F2174" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="G2174" s="5"/>
       <c r="H2174" s="6" t="s">
-        <v>1238</v>
+        <v>860</v>
       </c>
       <c r="I2174" s="5"/>
       <c r="J2174" s="6" t="s">
@@ -62604,18 +62615,20 @@
     </row>
     <row r="2175" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2175" s="3" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="B2175" s="3" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C2175" s="5"/>
       <c r="D2175" s="6"/>
       <c r="E2175" s="5"/>
       <c r="F2175" s="6"/>
-      <c r="G2175" s="5"/>
+      <c r="G2175" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="H2175" s="6" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="I2175" s="5"/>
       <c r="J2175" s="6" t="s">
@@ -62624,10 +62637,10 @@
     </row>
     <row r="2176" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2176" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="B2176" s="3" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C2176" s="5"/>
       <c r="D2176" s="6"/>
@@ -62635,7 +62648,7 @@
       <c r="F2176" s="6"/>
       <c r="G2176" s="5"/>
       <c r="H2176" s="6" t="s">
-        <v>821</v>
+        <v>1241</v>
       </c>
       <c r="I2176" s="5"/>
       <c r="J2176" s="6" t="s">
@@ -62647,16 +62660,16 @@
         <v>1242</v>
       </c>
       <c r="B2177" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C2177" s="5"/>
       <c r="D2177" s="6"/>
       <c r="E2177" s="5"/>
-      <c r="F2177" s="6" t="s">
-        <v>646</v>
-      </c>
+      <c r="F2177" s="6"/>
       <c r="G2177" s="5"/>
-      <c r="H2177" s="6"/>
+      <c r="H2177" s="6" t="s">
+        <v>821</v>
+      </c>
       <c r="I2177" s="5"/>
       <c r="J2177" s="6" t="s">
         <v>1509</v>
@@ -62664,19 +62677,19 @@
     </row>
     <row r="2178" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2178" s="3" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B2178" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C2178" s="5"/>
       <c r="D2178" s="6"/>
       <c r="E2178" s="5"/>
-      <c r="F2178" s="6"/>
+      <c r="F2178" s="6" t="s">
+        <v>646</v>
+      </c>
       <c r="G2178" s="5"/>
-      <c r="H2178" s="6" t="s">
-        <v>645</v>
-      </c>
+      <c r="H2178" s="6"/>
       <c r="I2178" s="5"/>
       <c r="J2178" s="6" t="s">
         <v>1509</v>
@@ -62684,19 +62697,19 @@
     </row>
     <row r="2179" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2179" s="3" t="s">
-        <v>252</v>
+        <v>1245</v>
       </c>
       <c r="B2179" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C2179" s="5"/>
       <c r="D2179" s="6"/>
-      <c r="E2179" s="5" t="s">
-        <v>975</v>
-      </c>
+      <c r="E2179" s="5"/>
       <c r="F2179" s="6"/>
       <c r="G2179" s="5"/>
-      <c r="H2179" s="6"/>
+      <c r="H2179" s="6" t="s">
+        <v>645</v>
+      </c>
       <c r="I2179" s="5"/>
       <c r="J2179" s="6" t="s">
         <v>1509</v>
@@ -62704,21 +62717,19 @@
     </row>
     <row r="2180" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2180" s="3" t="s">
-        <v>1248</v>
+        <v>252</v>
       </c>
       <c r="B2180" s="3" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C2180" s="5" t="s">
-        <v>1250</v>
-      </c>
+        <v>1247</v>
+      </c>
+      <c r="C2180" s="5"/>
       <c r="D2180" s="6"/>
-      <c r="E2180" s="5"/>
+      <c r="E2180" s="5" t="s">
+        <v>975</v>
+      </c>
       <c r="F2180" s="6"/>
       <c r="G2180" s="5"/>
-      <c r="H2180" s="6" t="s">
-        <v>1251</v>
-      </c>
+      <c r="H2180" s="6"/>
       <c r="I2180" s="5"/>
       <c r="J2180" s="6" t="s">
         <v>1509</v>
@@ -62726,22 +62737,20 @@
     </row>
     <row r="2181" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2181" s="3" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="B2181" s="3" t="s">
-        <v>256</v>
+        <v>1249</v>
       </c>
       <c r="C2181" s="5" t="s">
-        <v>797</v>
+        <v>1250</v>
       </c>
       <c r="D2181" s="6"/>
       <c r="E2181" s="5"/>
-      <c r="F2181" s="6" t="s">
-        <v>1253</v>
-      </c>
+      <c r="F2181" s="6"/>
       <c r="G2181" s="5"/>
       <c r="H2181" s="6" t="s">
-        <v>821</v>
+        <v>1251</v>
       </c>
       <c r="I2181" s="5"/>
       <c r="J2181" s="6" t="s">
@@ -62750,22 +62759,22 @@
     </row>
     <row r="2182" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2182" s="3" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B2182" s="3" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C2182" s="5"/>
+        <v>256</v>
+      </c>
+      <c r="C2182" s="5" t="s">
+        <v>797</v>
+      </c>
       <c r="D2182" s="6"/>
-      <c r="E2182" s="5" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F2182" s="6"/>
-      <c r="G2182" s="5" t="s">
-        <v>1257</v>
-      </c>
+      <c r="E2182" s="5"/>
+      <c r="F2182" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G2182" s="5"/>
       <c r="H2182" s="6" t="s">
-        <v>1258</v>
+        <v>821</v>
       </c>
       <c r="I2182" s="5"/>
       <c r="J2182" s="6" t="s">
@@ -62777,17 +62786,19 @@
         <v>1254</v>
       </c>
       <c r="B2183" s="3" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C2183" s="5" t="s">
-        <v>875</v>
-      </c>
+        <v>1255</v>
+      </c>
+      <c r="C2183" s="5"/>
       <c r="D2183" s="6"/>
-      <c r="E2183" s="5"/>
+      <c r="E2183" s="5" t="s">
+        <v>1256</v>
+      </c>
       <c r="F2183" s="6"/>
-      <c r="G2183" s="5"/>
+      <c r="G2183" s="5" t="s">
+        <v>1257</v>
+      </c>
       <c r="H2183" s="6" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I2183" s="5"/>
       <c r="J2183" s="6" t="s">
@@ -62799,15 +62810,17 @@
         <v>1254</v>
       </c>
       <c r="B2184" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C2184" s="5"/>
+        <v>1259</v>
+      </c>
+      <c r="C2184" s="5" t="s">
+        <v>875</v>
+      </c>
       <c r="D2184" s="6"/>
       <c r="E2184" s="5"/>
       <c r="F2184" s="6"/>
       <c r="G2184" s="5"/>
       <c r="H2184" s="6" t="s">
-        <v>932</v>
+        <v>1260</v>
       </c>
       <c r="I2184" s="5"/>
       <c r="J2184" s="6" t="s">
@@ -62819,17 +62832,15 @@
         <v>1254</v>
       </c>
       <c r="B2185" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C2185" s="5"/>
       <c r="D2185" s="6"/>
       <c r="E2185" s="5"/>
-      <c r="F2185" s="6" t="s">
-        <v>1010</v>
-      </c>
+      <c r="F2185" s="6"/>
       <c r="G2185" s="5"/>
       <c r="H2185" s="6" t="s">
-        <v>1263</v>
+        <v>932</v>
       </c>
       <c r="I2185" s="5"/>
       <c r="J2185" s="6" t="s">
@@ -62841,16 +62852,18 @@
         <v>1254</v>
       </c>
       <c r="B2186" s="3" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C2186" s="5"/>
       <c r="D2186" s="6"/>
       <c r="E2186" s="5"/>
       <c r="F2186" s="6" t="s">
-        <v>617</v>
+        <v>1010</v>
       </c>
       <c r="G2186" s="5"/>
-      <c r="H2186" s="6"/>
+      <c r="H2186" s="6" t="s">
+        <v>1263</v>
+      </c>
       <c r="I2186" s="5"/>
       <c r="J2186" s="6" t="s">
         <v>1509</v>
@@ -62861,18 +62874,16 @@
         <v>1254</v>
       </c>
       <c r="B2187" s="3" t="s">
-        <v>479</v>
+        <v>1264</v>
       </c>
       <c r="C2187" s="5"/>
       <c r="D2187" s="6"/>
-      <c r="E2187" s="5" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F2187" s="6"/>
+      <c r="E2187" s="5"/>
+      <c r="F2187" s="6" t="s">
+        <v>617</v>
+      </c>
       <c r="G2187" s="5"/>
-      <c r="H2187" s="6" t="s">
-        <v>1266</v>
-      </c>
+      <c r="H2187" s="6"/>
       <c r="I2187" s="5"/>
       <c r="J2187" s="6" t="s">
         <v>1509</v>
@@ -62880,19 +62891,21 @@
     </row>
     <row r="2188" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2188" s="3" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="B2188" s="3" t="s">
-        <v>1261</v>
+        <v>479</v>
       </c>
       <c r="C2188" s="5"/>
       <c r="D2188" s="6"/>
-      <c r="E2188" s="5"/>
+      <c r="E2188" s="5" t="s">
+        <v>1265</v>
+      </c>
       <c r="F2188" s="6"/>
-      <c r="G2188" s="5" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H2188" s="6"/>
+      <c r="G2188" s="5"/>
+      <c r="H2188" s="6" t="s">
+        <v>1266</v>
+      </c>
       <c r="I2188" s="5"/>
       <c r="J2188" s="6" t="s">
         <v>1509</v>
@@ -62900,21 +62913,19 @@
     </row>
     <row r="2189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2189" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B2189" s="3" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="C2189" s="5"/>
       <c r="D2189" s="6"/>
-      <c r="E2189" s="5" t="s">
-        <v>823</v>
-      </c>
+      <c r="E2189" s="5"/>
       <c r="F2189" s="6"/>
-      <c r="G2189" s="5"/>
-      <c r="H2189" s="6" t="s">
-        <v>733</v>
-      </c>
+      <c r="G2189" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H2189" s="6"/>
       <c r="I2189" s="5"/>
       <c r="J2189" s="6" t="s">
         <v>1509</v>
@@ -62925,19 +62936,19 @@
         <v>1268</v>
       </c>
       <c r="B2190" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C2190" s="5"/>
       <c r="D2190" s="6"/>
-      <c r="E2190" s="5"/>
+      <c r="E2190" s="5" t="s">
+        <v>823</v>
+      </c>
       <c r="F2190" s="6"/>
       <c r="G2190" s="5"/>
       <c r="H2190" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="I2190" s="5" t="s">
-        <v>980</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="I2190" s="5"/>
       <c r="J2190" s="6" t="s">
         <v>1509</v>
       </c>
@@ -62947,19 +62958,19 @@
         <v>1268</v>
       </c>
       <c r="B2191" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C2191" s="5"/>
       <c r="D2191" s="6"/>
       <c r="E2191" s="5"/>
-      <c r="F2191" s="6" t="s">
-        <v>596</v>
-      </c>
+      <c r="F2191" s="6"/>
       <c r="G2191" s="5"/>
       <c r="H2191" s="6" t="s">
-        <v>1272</v>
-      </c>
-      <c r="I2191" s="5"/>
+        <v>590</v>
+      </c>
+      <c r="I2191" s="5" t="s">
+        <v>980</v>
+      </c>
       <c r="J2191" s="6" t="s">
         <v>1509</v>
       </c>
@@ -62969,16 +62980,18 @@
         <v>1268</v>
       </c>
       <c r="B2192" s="3" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C2192" s="5"/>
       <c r="D2192" s="6"/>
-      <c r="E2192" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F2192" s="6"/>
+      <c r="E2192" s="5"/>
+      <c r="F2192" s="6" t="s">
+        <v>596</v>
+      </c>
       <c r="G2192" s="5"/>
-      <c r="H2192" s="6"/>
+      <c r="H2192" s="6" t="s">
+        <v>1272</v>
+      </c>
       <c r="I2192" s="5"/>
       <c r="J2192" s="6" t="s">
         <v>1509</v>
@@ -62986,21 +62999,19 @@
     </row>
     <row r="2193" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2193" s="3" t="s">
-        <v>268</v>
+        <v>1268</v>
       </c>
       <c r="B2193" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C2193" s="5"/>
       <c r="D2193" s="6"/>
-      <c r="E2193" s="5"/>
+      <c r="E2193" s="5" t="s">
+        <v>1055</v>
+      </c>
       <c r="F2193" s="6"/>
-      <c r="G2193" s="5" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H2193" s="6" t="s">
-        <v>771</v>
-      </c>
+      <c r="G2193" s="5"/>
+      <c r="H2193" s="6"/>
       <c r="I2193" s="5"/>
       <c r="J2193" s="6" t="s">
         <v>1509</v>
@@ -63008,18 +63019,20 @@
     </row>
     <row r="2194" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2194" s="3" t="s">
-        <v>1275</v>
+        <v>268</v>
       </c>
       <c r="B2194" s="3" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C2194" s="5"/>
       <c r="D2194" s="6"/>
       <c r="E2194" s="5"/>
       <c r="F2194" s="6"/>
-      <c r="G2194" s="5"/>
+      <c r="G2194" s="5" t="s">
+        <v>1039</v>
+      </c>
       <c r="H2194" s="6" t="s">
-        <v>590</v>
+        <v>771</v>
       </c>
       <c r="I2194" s="5"/>
       <c r="J2194" s="6" t="s">
@@ -63031,19 +63044,15 @@
         <v>1275</v>
       </c>
       <c r="B2195" s="3" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C2195" s="5" t="s">
-        <v>757</v>
-      </c>
+        <v>1276</v>
+      </c>
+      <c r="C2195" s="5"/>
       <c r="D2195" s="6"/>
       <c r="E2195" s="5"/>
-      <c r="F2195" s="6" t="s">
-        <v>1278</v>
-      </c>
+      <c r="F2195" s="6"/>
       <c r="G2195" s="5"/>
       <c r="H2195" s="6" t="s">
-        <v>1279</v>
+        <v>590</v>
       </c>
       <c r="I2195" s="5"/>
       <c r="J2195" s="6" t="s">
@@ -63055,19 +63064,19 @@
         <v>1275</v>
       </c>
       <c r="B2196" s="3" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C2196" s="5" t="s">
-        <v>870</v>
+        <v>757</v>
       </c>
       <c r="D2196" s="6"/>
       <c r="E2196" s="5"/>
       <c r="F2196" s="6" t="s">
-        <v>962</v>
+        <v>1278</v>
       </c>
       <c r="G2196" s="5"/>
       <c r="H2196" s="6" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="I2196" s="5"/>
       <c r="J2196" s="6" t="s">
@@ -63079,15 +63088,19 @@
         <v>1275</v>
       </c>
       <c r="B2197" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C2197" s="5"/>
+        <v>1280</v>
+      </c>
+      <c r="C2197" s="5" t="s">
+        <v>870</v>
+      </c>
       <c r="D2197" s="6"/>
       <c r="E2197" s="5"/>
-      <c r="F2197" s="6"/>
+      <c r="F2197" s="6" t="s">
+        <v>962</v>
+      </c>
       <c r="G2197" s="5"/>
       <c r="H2197" s="6" t="s">
-        <v>603</v>
+        <v>1281</v>
       </c>
       <c r="I2197" s="5"/>
       <c r="J2197" s="6" t="s">
@@ -63096,10 +63109,10 @@
     </row>
     <row r="2198" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2198" s="3" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="B2198" s="3" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C2198" s="5"/>
       <c r="D2198" s="6"/>
@@ -63107,7 +63120,7 @@
       <c r="F2198" s="6"/>
       <c r="G2198" s="5"/>
       <c r="H2198" s="6" t="s">
-        <v>764</v>
+        <v>603</v>
       </c>
       <c r="I2198" s="5"/>
       <c r="J2198" s="6" t="s">
@@ -63119,17 +63132,17 @@
         <v>1283</v>
       </c>
       <c r="B2199" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C2199" s="5"/>
       <c r="D2199" s="6"/>
       <c r="E2199" s="5"/>
       <c r="F2199" s="6"/>
       <c r="G2199" s="5"/>
-      <c r="H2199" s="6"/>
-      <c r="I2199" s="5" t="s">
-        <v>931</v>
-      </c>
+      <c r="H2199" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="I2199" s="5"/>
       <c r="J2199" s="6" t="s">
         <v>1509</v>
       </c>
@@ -63139,42 +63152,42 @@
         <v>1283</v>
       </c>
       <c r="B2200" s="3" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C2200" s="5" t="s">
-        <v>934</v>
-      </c>
+        <v>1285</v>
+      </c>
+      <c r="C2200" s="5"/>
       <c r="D2200" s="6"/>
-      <c r="E2200" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="F2200" s="6" t="s">
-        <v>937</v>
-      </c>
+      <c r="E2200" s="5"/>
+      <c r="F2200" s="6"/>
       <c r="G2200" s="5"/>
-      <c r="H2200" s="6" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I2200" s="5"/>
+      <c r="H2200" s="6"/>
+      <c r="I2200" s="5" t="s">
+        <v>931</v>
+      </c>
       <c r="J2200" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2201" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2201" s="3" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="B2201" s="3" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C2201" s="5"/>
+        <v>1286</v>
+      </c>
+      <c r="C2201" s="5" t="s">
+        <v>934</v>
+      </c>
       <c r="D2201" s="6"/>
       <c r="E2201" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="F2201" s="6"/>
+        <v>631</v>
+      </c>
+      <c r="F2201" s="6" t="s">
+        <v>937</v>
+      </c>
       <c r="G2201" s="5"/>
-      <c r="H2201" s="6"/>
+      <c r="H2201" s="6" t="s">
+        <v>1287</v>
+      </c>
       <c r="I2201" s="5"/>
       <c r="J2201" s="6" t="s">
         <v>1509</v>
@@ -63182,17 +63195,17 @@
     </row>
     <row r="2202" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2202" s="3" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B2202" s="3" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C2202" s="5"/>
       <c r="D2202" s="6"/>
-      <c r="E2202" s="5"/>
-      <c r="F2202" s="6" t="s">
-        <v>1292</v>
-      </c>
+      <c r="E2202" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="F2202" s="6"/>
       <c r="G2202" s="5"/>
       <c r="H2202" s="6"/>
       <c r="I2202" s="5"/>
@@ -63205,16 +63218,16 @@
         <v>1290</v>
       </c>
       <c r="B2203" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C2203" s="5"/>
       <c r="D2203" s="6"/>
       <c r="E2203" s="5"/>
-      <c r="F2203" s="6"/>
+      <c r="F2203" s="6" t="s">
+        <v>1292</v>
+      </c>
       <c r="G2203" s="5"/>
-      <c r="H2203" s="6" t="s">
-        <v>1272</v>
-      </c>
+      <c r="H2203" s="6"/>
       <c r="I2203" s="5"/>
       <c r="J2203" s="6" t="s">
         <v>1509</v>
@@ -63222,21 +63235,19 @@
     </row>
     <row r="2204" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2204" s="3" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B2204" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C2204" s="5"/>
       <c r="D2204" s="6"/>
       <c r="E2204" s="5"/>
-      <c r="F2204" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="G2204" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="H2204" s="6"/>
+      <c r="F2204" s="6"/>
+      <c r="G2204" s="5"/>
+      <c r="H2204" s="6" t="s">
+        <v>1272</v>
+      </c>
       <c r="I2204" s="5"/>
       <c r="J2204" s="6" t="s">
         <v>1509</v>
@@ -63244,19 +63255,21 @@
     </row>
     <row r="2205" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2205" s="3" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B2205" s="3" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C2205" s="5"/>
       <c r="D2205" s="6"/>
       <c r="E2205" s="5"/>
-      <c r="F2205" s="6"/>
-      <c r="G2205" s="5"/>
-      <c r="H2205" s="6" t="s">
-        <v>628</v>
-      </c>
+      <c r="F2205" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="G2205" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="H2205" s="6"/>
       <c r="I2205" s="5"/>
       <c r="J2205" s="6" t="s">
         <v>1509</v>
@@ -63264,20 +63277,18 @@
     </row>
     <row r="2206" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2206" s="3" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B2206" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C2206" s="5" t="s">
-        <v>608</v>
-      </c>
+        <v>1297</v>
+      </c>
+      <c r="C2206" s="5"/>
       <c r="D2206" s="6"/>
       <c r="E2206" s="5"/>
       <c r="F2206" s="6"/>
       <c r="G2206" s="5"/>
       <c r="H2206" s="6" t="s">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c r="I2206" s="5"/>
       <c r="J2206" s="6" t="s">
@@ -63286,20 +63297,20 @@
     </row>
     <row r="2207" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2207" s="3" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B2207" s="3" t="s">
-        <v>1300</v>
+        <v>293</v>
       </c>
       <c r="C2207" s="5" t="s">
-        <v>1301</v>
+        <v>608</v>
       </c>
       <c r="D2207" s="6"/>
       <c r="E2207" s="5"/>
       <c r="F2207" s="6"/>
       <c r="G2207" s="5"/>
       <c r="H2207" s="6" t="s">
-        <v>1302</v>
+        <v>594</v>
       </c>
       <c r="I2207" s="5"/>
       <c r="J2207" s="6" t="s">
@@ -63311,19 +63322,17 @@
         <v>1299</v>
       </c>
       <c r="B2208" s="3" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C2208" s="5" t="s">
-        <v>723</v>
+        <v>1301</v>
       </c>
       <c r="D2208" s="6"/>
-      <c r="E2208" s="5" t="s">
-        <v>1304</v>
-      </c>
+      <c r="E2208" s="5"/>
       <c r="F2208" s="6"/>
       <c r="G2208" s="5"/>
       <c r="H2208" s="6" t="s">
-        <v>625</v>
+        <v>1302</v>
       </c>
       <c r="I2208" s="5"/>
       <c r="J2208" s="6" t="s">
@@ -63335,16 +63344,20 @@
         <v>1299</v>
       </c>
       <c r="B2209" s="3" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C2209" s="5"/>
+        <v>1303</v>
+      </c>
+      <c r="C2209" s="5" t="s">
+        <v>723</v>
+      </c>
       <c r="D2209" s="6"/>
-      <c r="E2209" s="5"/>
+      <c r="E2209" s="5" t="s">
+        <v>1304</v>
+      </c>
       <c r="F2209" s="6"/>
-      <c r="G2209" s="5" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H2209" s="6"/>
+      <c r="G2209" s="5"/>
+      <c r="H2209" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="I2209" s="5"/>
       <c r="J2209" s="6" t="s">
         <v>1509</v>
@@ -63355,18 +63368,16 @@
         <v>1299</v>
       </c>
       <c r="B2210" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C2210" s="5"/>
       <c r="D2210" s="6"/>
-      <c r="E2210" s="5" t="s">
-        <v>1307</v>
-      </c>
+      <c r="E2210" s="5"/>
       <c r="F2210" s="6"/>
-      <c r="G2210" s="5"/>
-      <c r="H2210" s="6" t="s">
-        <v>671</v>
-      </c>
+      <c r="G2210" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H2210" s="6"/>
       <c r="I2210" s="5"/>
       <c r="J2210" s="6" t="s">
         <v>1509</v>
@@ -63374,40 +63385,42 @@
     </row>
     <row r="2211" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2211" s="3" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="B2211" s="3" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C2211" s="5"/>
       <c r="D2211" s="6"/>
-      <c r="E2211" s="5"/>
+      <c r="E2211" s="5" t="s">
+        <v>1307</v>
+      </c>
       <c r="F2211" s="6"/>
       <c r="G2211" s="5"/>
-      <c r="H2211" s="6"/>
-      <c r="I2211" s="5" t="s">
-        <v>1143</v>
-      </c>
+      <c r="H2211" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="I2211" s="5"/>
       <c r="J2211" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2212" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2212" s="3" t="s">
-        <v>1299</v>
+        <v>1308</v>
       </c>
       <c r="B2212" s="3" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C2212" s="5"/>
       <c r="D2212" s="6"/>
       <c r="E2212" s="5"/>
       <c r="F2212" s="6"/>
-      <c r="G2212" s="5" t="s">
-        <v>746</v>
-      </c>
+      <c r="G2212" s="5"/>
       <c r="H2212" s="6"/>
-      <c r="I2212" s="5"/>
+      <c r="I2212" s="5" t="s">
+        <v>1143</v>
+      </c>
       <c r="J2212" s="6" t="s">
         <v>1509</v>
       </c>
@@ -63417,15 +63430,15 @@
         <v>1299</v>
       </c>
       <c r="B2213" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C2213" s="5"/>
       <c r="D2213" s="6"/>
-      <c r="E2213" s="5" t="s">
-        <v>598</v>
-      </c>
+      <c r="E2213" s="5"/>
       <c r="F2213" s="6"/>
-      <c r="G2213" s="5"/>
+      <c r="G2213" s="5" t="s">
+        <v>746</v>
+      </c>
       <c r="H2213" s="6"/>
       <c r="I2213" s="5"/>
       <c r="J2213" s="6" t="s">
@@ -63437,20 +63450,16 @@
         <v>1299</v>
       </c>
       <c r="B2214" s="3" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C2214" s="5"/>
       <c r="D2214" s="6"/>
-      <c r="E2214" s="5"/>
-      <c r="F2214" s="6" t="s">
-        <v>1313</v>
-      </c>
-      <c r="G2214" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="H2214" s="6" t="s">
-        <v>1314</v>
-      </c>
+      <c r="E2214" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="F2214" s="6"/>
+      <c r="G2214" s="5"/>
+      <c r="H2214" s="6"/>
       <c r="I2214" s="5"/>
       <c r="J2214" s="6" t="s">
         <v>1509</v>
@@ -63461,17 +63470,19 @@
         <v>1299</v>
       </c>
       <c r="B2215" s="3" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="C2215" s="5"/>
       <c r="D2215" s="6"/>
-      <c r="E2215" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="F2215" s="6"/>
-      <c r="G2215" s="5"/>
+      <c r="E2215" s="5"/>
+      <c r="F2215" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G2215" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="H2215" s="6" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="I2215" s="5"/>
       <c r="J2215" s="6" t="s">
@@ -63483,19 +63494,17 @@
         <v>1299</v>
       </c>
       <c r="B2216" s="3" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C2216" s="5"/>
       <c r="D2216" s="6"/>
       <c r="E2216" s="5" t="s">
-        <v>648</v>
+        <v>871</v>
       </c>
       <c r="F2216" s="6"/>
-      <c r="G2216" s="5" t="s">
-        <v>872</v>
-      </c>
+      <c r="G2216" s="5"/>
       <c r="H2216" s="6" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="I2216" s="5"/>
       <c r="J2216" s="6" t="s">
@@ -63507,21 +63516,21 @@
         <v>1299</v>
       </c>
       <c r="B2217" s="3" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C2217" s="5"/>
       <c r="D2217" s="6"/>
-      <c r="E2217" s="5"/>
-      <c r="F2217" s="6" t="s">
-        <v>1320</v>
-      </c>
-      <c r="G2217" s="5"/>
+      <c r="E2217" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="F2217" s="6"/>
+      <c r="G2217" s="5" t="s">
+        <v>872</v>
+      </c>
       <c r="H2217" s="6" t="s">
-        <v>1321</v>
-      </c>
-      <c r="I2217" s="5" t="s">
-        <v>1322</v>
-      </c>
+        <v>1318</v>
+      </c>
+      <c r="I2217" s="5"/>
       <c r="J2217" s="6" t="s">
         <v>1509</v>
       </c>
@@ -63531,21 +63540,21 @@
         <v>1299</v>
       </c>
       <c r="B2218" s="3" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="C2218" s="5"/>
       <c r="D2218" s="6"/>
-      <c r="E2218" s="5" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F2218" s="6"/>
-      <c r="G2218" s="5" t="s">
-        <v>867</v>
-      </c>
+      <c r="E2218" s="5"/>
+      <c r="F2218" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G2218" s="5"/>
       <c r="H2218" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="I2218" s="5"/>
+        <v>1321</v>
+      </c>
+      <c r="I2218" s="5" t="s">
+        <v>1322</v>
+      </c>
       <c r="J2218" s="6" t="s">
         <v>1509</v>
       </c>
@@ -63555,15 +63564,19 @@
         <v>1299</v>
       </c>
       <c r="B2219" s="3" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C2219" s="5"/>
       <c r="D2219" s="6"/>
-      <c r="E2219" s="5"/>
+      <c r="E2219" s="5" t="s">
+        <v>1324</v>
+      </c>
       <c r="F2219" s="6"/>
-      <c r="G2219" s="5"/>
+      <c r="G2219" s="5" t="s">
+        <v>867</v>
+      </c>
       <c r="H2219" s="6" t="s">
-        <v>815</v>
+        <v>645</v>
       </c>
       <c r="I2219" s="5"/>
       <c r="J2219" s="6" t="s">
@@ -63575,23 +63588,15 @@
         <v>1299</v>
       </c>
       <c r="B2220" s="3" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C2220" s="5" t="s">
-        <v>656</v>
-      </c>
+        <v>1325</v>
+      </c>
+      <c r="C2220" s="5"/>
       <c r="D2220" s="6"/>
-      <c r="E2220" s="5" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F2220" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="G2220" s="5" t="s">
-        <v>716</v>
-      </c>
+      <c r="E2220" s="5"/>
+      <c r="F2220" s="6"/>
+      <c r="G2220" s="5"/>
       <c r="H2220" s="6" t="s">
-        <v>1328</v>
+        <v>815</v>
       </c>
       <c r="I2220" s="5"/>
       <c r="J2220" s="6" t="s">
@@ -63603,17 +63608,23 @@
         <v>1299</v>
       </c>
       <c r="B2221" s="3" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C2221" s="5"/>
+        <v>1326</v>
+      </c>
+      <c r="C2221" s="5" t="s">
+        <v>656</v>
+      </c>
       <c r="D2221" s="6"/>
       <c r="E2221" s="5" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F2221" s="6"/>
-      <c r="G2221" s="5"/>
+        <v>1327</v>
+      </c>
+      <c r="F2221" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="G2221" s="5" t="s">
+        <v>716</v>
+      </c>
       <c r="H2221" s="6" t="s">
-        <v>733</v>
+        <v>1328</v>
       </c>
       <c r="I2221" s="5"/>
       <c r="J2221" s="6" t="s">
@@ -63622,18 +63633,20 @@
     </row>
     <row r="2222" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2222" s="3" t="s">
-        <v>1331</v>
+        <v>1299</v>
       </c>
       <c r="B2222" s="3" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C2222" s="5"/>
       <c r="D2222" s="6"/>
-      <c r="E2222" s="5"/>
+      <c r="E2222" s="5" t="s">
+        <v>1330</v>
+      </c>
       <c r="F2222" s="6"/>
       <c r="G2222" s="5"/>
       <c r="H2222" s="6" t="s">
-        <v>590</v>
+        <v>733</v>
       </c>
       <c r="I2222" s="5"/>
       <c r="J2222" s="6" t="s">
@@ -63642,10 +63655,10 @@
     </row>
     <row r="2223" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2223" s="3" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B2223" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C2223" s="5"/>
       <c r="D2223" s="6"/>
@@ -63653,7 +63666,7 @@
       <c r="F2223" s="6"/>
       <c r="G2223" s="5"/>
       <c r="H2223" s="6" t="s">
-        <v>653</v>
+        <v>590</v>
       </c>
       <c r="I2223" s="5"/>
       <c r="J2223" s="6" t="s">
@@ -63665,19 +63678,15 @@
         <v>1333</v>
       </c>
       <c r="B2224" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C2224" s="5"/>
       <c r="D2224" s="6"/>
-      <c r="E2224" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="F2224" s="6" t="s">
-        <v>804</v>
-      </c>
+      <c r="E2224" s="5"/>
+      <c r="F2224" s="6"/>
       <c r="G2224" s="5"/>
       <c r="H2224" s="6" t="s">
-        <v>1336</v>
+        <v>653</v>
       </c>
       <c r="I2224" s="5"/>
       <c r="J2224" s="6" t="s">
@@ -63689,15 +63698,19 @@
         <v>1333</v>
       </c>
       <c r="B2225" s="3" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C2225" s="5"/>
       <c r="D2225" s="6"/>
-      <c r="E2225" s="5"/>
-      <c r="F2225" s="6"/>
+      <c r="E2225" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F2225" s="6" t="s">
+        <v>804</v>
+      </c>
       <c r="G2225" s="5"/>
       <c r="H2225" s="6" t="s">
-        <v>645</v>
+        <v>1336</v>
       </c>
       <c r="I2225" s="5"/>
       <c r="J2225" s="6" t="s">
@@ -63709,7 +63722,7 @@
         <v>1333</v>
       </c>
       <c r="B2226" s="3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C2226" s="5"/>
       <c r="D2226" s="6"/>
@@ -63717,7 +63730,7 @@
       <c r="F2226" s="6"/>
       <c r="G2226" s="5"/>
       <c r="H2226" s="6" t="s">
-        <v>864</v>
+        <v>645</v>
       </c>
       <c r="I2226" s="5"/>
       <c r="J2226" s="6" t="s">
@@ -63729,16 +63742,16 @@
         <v>1333</v>
       </c>
       <c r="B2227" s="3" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C2227" s="5"/>
-      <c r="D2227" s="6" t="s">
-        <v>880</v>
-      </c>
+      <c r="D2227" s="6"/>
       <c r="E2227" s="5"/>
       <c r="F2227" s="6"/>
       <c r="G2227" s="5"/>
-      <c r="H2227" s="6"/>
+      <c r="H2227" s="6" t="s">
+        <v>864</v>
+      </c>
       <c r="I2227" s="5"/>
       <c r="J2227" s="6" t="s">
         <v>1509</v>
@@ -63749,21 +63762,17 @@
         <v>1333</v>
       </c>
       <c r="B2228" s="3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C2228" s="5"/>
-      <c r="D2228" s="6"/>
+      <c r="D2228" s="6" t="s">
+        <v>880</v>
+      </c>
       <c r="E2228" s="5"/>
-      <c r="F2228" s="6" t="s">
-        <v>1341</v>
-      </c>
+      <c r="F2228" s="6"/>
       <c r="G2228" s="5"/>
-      <c r="H2228" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="I2228" s="5" t="s">
-        <v>709</v>
-      </c>
+      <c r="H2228" s="6"/>
+      <c r="I2228" s="5"/>
       <c r="J2228" s="6" t="s">
         <v>1509</v>
       </c>
@@ -63773,17 +63782,21 @@
         <v>1333</v>
       </c>
       <c r="B2229" s="3" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C2229" s="5"/>
       <c r="D2229" s="6"/>
       <c r="E2229" s="5"/>
-      <c r="F2229" s="6"/>
+      <c r="F2229" s="6" t="s">
+        <v>1341</v>
+      </c>
       <c r="G2229" s="5"/>
       <c r="H2229" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="I2229" s="5"/>
+        <v>653</v>
+      </c>
+      <c r="I2229" s="5" t="s">
+        <v>709</v>
+      </c>
       <c r="J2229" s="6" t="s">
         <v>1509</v>
       </c>
@@ -63793,19 +63806,15 @@
         <v>1333</v>
       </c>
       <c r="B2230" s="3" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C2230" s="5" t="s">
-        <v>1344</v>
-      </c>
+        <v>1342</v>
+      </c>
+      <c r="C2230" s="5"/>
       <c r="D2230" s="6"/>
       <c r="E2230" s="5"/>
       <c r="F2230" s="6"/>
-      <c r="G2230" s="5" t="s">
-        <v>941</v>
-      </c>
+      <c r="G2230" s="5"/>
       <c r="H2230" s="6" t="s">
-        <v>1345</v>
+        <v>733</v>
       </c>
       <c r="I2230" s="5"/>
       <c r="J2230" s="6" t="s">
@@ -63817,17 +63826,19 @@
         <v>1333</v>
       </c>
       <c r="B2231" s="3" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C2231" s="5"/>
+        <v>1343</v>
+      </c>
+      <c r="C2231" s="5" t="s">
+        <v>1344</v>
+      </c>
       <c r="D2231" s="6"/>
-      <c r="E2231" s="5" t="s">
-        <v>826</v>
-      </c>
+      <c r="E2231" s="5"/>
       <c r="F2231" s="6"/>
-      <c r="G2231" s="5"/>
+      <c r="G2231" s="5" t="s">
+        <v>941</v>
+      </c>
       <c r="H2231" s="6" t="s">
-        <v>918</v>
+        <v>1345</v>
       </c>
       <c r="I2231" s="5"/>
       <c r="J2231" s="6" t="s">
@@ -63836,61 +63847,63 @@
     </row>
     <row r="2232" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2232" s="3" t="s">
-        <v>1347</v>
+        <v>1333</v>
       </c>
       <c r="B2232" s="3" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C2232" s="5"/>
       <c r="D2232" s="6"/>
-      <c r="E2232" s="5"/>
+      <c r="E2232" s="5" t="s">
+        <v>826</v>
+      </c>
       <c r="F2232" s="6"/>
       <c r="G2232" s="5"/>
-      <c r="H2232" s="6"/>
-      <c r="I2232" s="5" t="s">
-        <v>927</v>
-      </c>
+      <c r="H2232" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="I2232" s="5"/>
       <c r="J2232" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2233" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2233" s="3" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B2233" s="3" t="s">
-        <v>331</v>
+        <v>1348</v>
       </c>
       <c r="C2233" s="5"/>
       <c r="D2233" s="6"/>
       <c r="E2233" s="5"/>
       <c r="F2233" s="6"/>
-      <c r="G2233" s="5" t="s">
-        <v>1350</v>
-      </c>
-      <c r="H2233" s="6" t="s">
-        <v>1351</v>
-      </c>
-      <c r="I2233" s="5"/>
+      <c r="G2233" s="5"/>
+      <c r="H2233" s="6"/>
+      <c r="I2233" s="5" t="s">
+        <v>927</v>
+      </c>
       <c r="J2233" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2234" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2234" s="3" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="B2234" s="3" t="s">
-        <v>1353</v>
+        <v>331</v>
       </c>
       <c r="C2234" s="5"/>
       <c r="D2234" s="6"/>
       <c r="E2234" s="5"/>
       <c r="F2234" s="6"/>
       <c r="G2234" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="H2234" s="6"/>
+        <v>1350</v>
+      </c>
+      <c r="H2234" s="6" t="s">
+        <v>1351</v>
+      </c>
       <c r="I2234" s="5"/>
       <c r="J2234" s="6" t="s">
         <v>1509</v>
@@ -63898,25 +63911,19 @@
     </row>
     <row r="2235" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2235" s="3" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B2235" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2235" s="5" t="s">
-        <v>1355</v>
-      </c>
+        <v>1353</v>
+      </c>
+      <c r="C2235" s="5"/>
       <c r="D2235" s="6"/>
-      <c r="E2235" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="F2235" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="G2235" s="5"/>
-      <c r="H2235" s="6" t="s">
-        <v>1356</v>
-      </c>
+      <c r="E2235" s="5"/>
+      <c r="F2235" s="6"/>
+      <c r="G2235" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="H2235" s="6"/>
       <c r="I2235" s="5"/>
       <c r="J2235" s="6" t="s">
         <v>1509</v>
@@ -63924,18 +63931,24 @@
     </row>
     <row r="2236" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2236" s="3" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="B2236" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C2236" s="5"/>
+        <v>337</v>
+      </c>
+      <c r="C2236" s="5" t="s">
+        <v>1355</v>
+      </c>
       <c r="D2236" s="6"/>
-      <c r="E2236" s="5"/>
-      <c r="F2236" s="6"/>
+      <c r="E2236" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="F2236" s="6" t="s">
+        <v>682</v>
+      </c>
       <c r="G2236" s="5"/>
       <c r="H2236" s="6" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="I2236" s="5"/>
       <c r="J2236" s="6" t="s">
@@ -63944,10 +63957,10 @@
     </row>
     <row r="2237" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2237" s="3" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="B2237" s="3" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C2237" s="5"/>
       <c r="D2237" s="6"/>
@@ -63955,7 +63968,7 @@
       <c r="F2237" s="6"/>
       <c r="G2237" s="5"/>
       <c r="H2237" s="6" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="I2237" s="5"/>
       <c r="J2237" s="6" t="s">
@@ -63967,57 +63980,57 @@
         <v>1360</v>
       </c>
       <c r="B2238" s="3" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C2238" s="5"/>
       <c r="D2238" s="6"/>
       <c r="E2238" s="5"/>
       <c r="F2238" s="6"/>
       <c r="G2238" s="5"/>
-      <c r="H2238" s="6"/>
-      <c r="I2238" s="5" t="s">
-        <v>793</v>
-      </c>
+      <c r="H2238" s="6" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I2238" s="5"/>
       <c r="J2238" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2239" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2239" s="3" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="B2239" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C2239" s="5"/>
       <c r="D2239" s="6"/>
       <c r="E2239" s="5"/>
-      <c r="F2239" s="6" t="s">
-        <v>608</v>
-      </c>
+      <c r="F2239" s="6"/>
       <c r="G2239" s="5"/>
-      <c r="H2239" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="I2239" s="5"/>
+      <c r="H2239" s="6"/>
+      <c r="I2239" s="5" t="s">
+        <v>793</v>
+      </c>
       <c r="J2239" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2240" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2240" s="3" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B2240" s="3" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C2240" s="5"/>
       <c r="D2240" s="6"/>
       <c r="E2240" s="5"/>
-      <c r="F2240" s="6"/>
+      <c r="F2240" s="6" t="s">
+        <v>608</v>
+      </c>
       <c r="G2240" s="5"/>
       <c r="H2240" s="6" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="I2240" s="5"/>
       <c r="J2240" s="6" t="s">
@@ -64026,20 +64039,18 @@
     </row>
     <row r="2241" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2241" s="3" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="B2241" s="3" t="s">
-        <v>356</v>
+        <v>1367</v>
       </c>
       <c r="C2241" s="5"/>
       <c r="D2241" s="6"/>
       <c r="E2241" s="5"/>
       <c r="F2241" s="6"/>
-      <c r="G2241" s="5" t="s">
-        <v>812</v>
-      </c>
+      <c r="G2241" s="5"/>
       <c r="H2241" s="6" t="s">
-        <v>1369</v>
+        <v>601</v>
       </c>
       <c r="I2241" s="5"/>
       <c r="J2241" s="6" t="s">
@@ -64048,42 +64059,44 @@
     </row>
     <row r="2242" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2242" s="3" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B2242" s="3" t="s">
-        <v>1371</v>
+        <v>356</v>
       </c>
       <c r="C2242" s="5"/>
       <c r="D2242" s="6"/>
       <c r="E2242" s="5"/>
-      <c r="F2242" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="G2242" s="5"/>
-      <c r="H2242" s="6"/>
-      <c r="I2242" s="5" t="s">
-        <v>1139</v>
-      </c>
+      <c r="F2242" s="6"/>
+      <c r="G2242" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="H2242" s="6" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I2242" s="5"/>
       <c r="J2242" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2243" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2243" s="3" t="s">
-        <v>359</v>
+        <v>1370</v>
       </c>
       <c r="B2243" s="3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C2243" s="5"/>
       <c r="D2243" s="6"/>
       <c r="E2243" s="5"/>
-      <c r="F2243" s="6"/>
+      <c r="F2243" s="6" t="s">
+        <v>661</v>
+      </c>
       <c r="G2243" s="5"/>
-      <c r="H2243" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="I2243" s="5"/>
+      <c r="H2243" s="6"/>
+      <c r="I2243" s="5" t="s">
+        <v>1139</v>
+      </c>
       <c r="J2243" s="6" t="s">
         <v>1509</v>
       </c>
@@ -64093,16 +64106,16 @@
         <v>359</v>
       </c>
       <c r="B2244" s="3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C2244" s="5"/>
       <c r="D2244" s="6"/>
-      <c r="E2244" s="5" t="s">
-        <v>1374</v>
-      </c>
+      <c r="E2244" s="5"/>
       <c r="F2244" s="6"/>
       <c r="G2244" s="5"/>
-      <c r="H2244" s="6"/>
+      <c r="H2244" s="6" t="s">
+        <v>918</v>
+      </c>
       <c r="I2244" s="5"/>
       <c r="J2244" s="6" t="s">
         <v>1509</v>
@@ -64110,20 +64123,18 @@
     </row>
     <row r="2245" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2245" s="3" t="s">
-        <v>1375</v>
+        <v>359</v>
       </c>
       <c r="B2245" s="3" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C2245" s="5"/>
       <c r="D2245" s="6"/>
       <c r="E2245" s="5" t="s">
-        <v>690</v>
+        <v>1374</v>
       </c>
       <c r="F2245" s="6"/>
-      <c r="G2245" s="5" t="s">
-        <v>599</v>
-      </c>
+      <c r="G2245" s="5"/>
       <c r="H2245" s="6"/>
       <c r="I2245" s="5"/>
       <c r="J2245" s="6" t="s">
@@ -64132,18 +64143,20 @@
     </row>
     <row r="2246" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2246" s="3" t="s">
-        <v>361</v>
+        <v>1375</v>
       </c>
       <c r="B2246" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C2246" s="5"/>
       <c r="D2246" s="6"/>
       <c r="E2246" s="5" t="s">
-        <v>857</v>
+        <v>690</v>
       </c>
       <c r="F2246" s="6"/>
-      <c r="G2246" s="5"/>
+      <c r="G2246" s="5" t="s">
+        <v>599</v>
+      </c>
       <c r="H2246" s="6"/>
       <c r="I2246" s="5"/>
       <c r="J2246" s="6" t="s">
@@ -64152,15 +64165,15 @@
     </row>
     <row r="2247" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2247" s="3" t="s">
-        <v>1378</v>
+        <v>361</v>
       </c>
       <c r="B2247" s="3" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C2247" s="5"/>
       <c r="D2247" s="6"/>
       <c r="E2247" s="5" t="s">
-        <v>1380</v>
+        <v>857</v>
       </c>
       <c r="F2247" s="6"/>
       <c r="G2247" s="5"/>
@@ -64175,18 +64188,16 @@
         <v>1378</v>
       </c>
       <c r="B2248" s="3" t="s">
-        <v>376</v>
+        <v>1379</v>
       </c>
       <c r="C2248" s="5"/>
       <c r="D2248" s="6"/>
-      <c r="E2248" s="5"/>
+      <c r="E2248" s="5" t="s">
+        <v>1380</v>
+      </c>
       <c r="F2248" s="6"/>
-      <c r="G2248" s="5" t="s">
-        <v>962</v>
-      </c>
-      <c r="H2248" s="6" t="s">
-        <v>1381</v>
-      </c>
+      <c r="G2248" s="5"/>
+      <c r="H2248" s="6"/>
       <c r="I2248" s="5"/>
       <c r="J2248" s="6" t="s">
         <v>1509</v>
@@ -64194,20 +64205,20 @@
     </row>
     <row r="2249" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2249" s="3" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="B2249" s="3" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C2249" s="5"/>
       <c r="D2249" s="6"/>
       <c r="E2249" s="5"/>
       <c r="F2249" s="6"/>
       <c r="G2249" s="5" t="s">
-        <v>1383</v>
+        <v>962</v>
       </c>
       <c r="H2249" s="6" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="I2249" s="5"/>
       <c r="J2249" s="6" t="s">
@@ -64216,18 +64227,20 @@
     </row>
     <row r="2250" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2250" s="3" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="B2250" s="3" t="s">
-        <v>1386</v>
+        <v>386</v>
       </c>
       <c r="C2250" s="5"/>
       <c r="D2250" s="6"/>
       <c r="E2250" s="5"/>
       <c r="F2250" s="6"/>
-      <c r="G2250" s="5"/>
+      <c r="G2250" s="5" t="s">
+        <v>1383</v>
+      </c>
       <c r="H2250" s="6" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I2250" s="5"/>
       <c r="J2250" s="6" t="s">
@@ -64236,10 +64249,10 @@
     </row>
     <row r="2251" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2251" s="3" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="B2251" s="3" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C2251" s="5"/>
       <c r="D2251" s="6"/>
@@ -64247,7 +64260,7 @@
       <c r="F2251" s="6"/>
       <c r="G2251" s="5"/>
       <c r="H2251" s="6" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I2251" s="5"/>
       <c r="J2251" s="6" t="s">
@@ -64256,19 +64269,19 @@
     </row>
     <row r="2252" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2252" s="3" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="B2252" s="3" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C2252" s="5"/>
       <c r="D2252" s="6"/>
       <c r="E2252" s="5"/>
       <c r="F2252" s="6"/>
-      <c r="G2252" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="H2252" s="6"/>
+      <c r="G2252" s="5"/>
+      <c r="H2252" s="6" t="s">
+        <v>1390</v>
+      </c>
       <c r="I2252" s="5"/>
       <c r="J2252" s="6" t="s">
         <v>1509</v>
@@ -64279,16 +64292,16 @@
         <v>1391</v>
       </c>
       <c r="B2253" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C2253" s="5"/>
       <c r="D2253" s="6"/>
       <c r="E2253" s="5"/>
       <c r="F2253" s="6"/>
-      <c r="G2253" s="5"/>
-      <c r="H2253" s="6" t="s">
-        <v>821</v>
-      </c>
+      <c r="G2253" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="H2253" s="6"/>
       <c r="I2253" s="5"/>
       <c r="J2253" s="6" t="s">
         <v>1509</v>
@@ -64296,10 +64309,10 @@
     </row>
     <row r="2254" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2254" s="3" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="B2254" s="3" t="s">
-        <v>416</v>
+        <v>1393</v>
       </c>
       <c r="C2254" s="5"/>
       <c r="D2254" s="6"/>
@@ -64307,7 +64320,7 @@
       <c r="F2254" s="6"/>
       <c r="G2254" s="5"/>
       <c r="H2254" s="6" t="s">
-        <v>645</v>
+        <v>821</v>
       </c>
       <c r="I2254" s="5"/>
       <c r="J2254" s="6" t="s">
@@ -64316,20 +64329,18 @@
     </row>
     <row r="2255" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2255" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B2255" s="3" t="s">
-        <v>1396</v>
+        <v>416</v>
       </c>
       <c r="C2255" s="5"/>
       <c r="D2255" s="6"/>
       <c r="E2255" s="5"/>
       <c r="F2255" s="6"/>
-      <c r="G2255" s="5" t="s">
-        <v>1397</v>
-      </c>
+      <c r="G2255" s="5"/>
       <c r="H2255" s="6" t="s">
-        <v>1398</v>
+        <v>645</v>
       </c>
       <c r="I2255" s="5"/>
       <c r="J2255" s="6" t="s">
@@ -64338,18 +64349,20 @@
     </row>
     <row r="2256" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2256" s="3" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="B2256" s="3" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C2256" s="5"/>
       <c r="D2256" s="6"/>
       <c r="E2256" s="5"/>
       <c r="F2256" s="6"/>
-      <c r="G2256" s="5"/>
+      <c r="G2256" s="5" t="s">
+        <v>1397</v>
+      </c>
       <c r="H2256" s="6" t="s">
-        <v>733</v>
+        <v>1398</v>
       </c>
       <c r="I2256" s="5"/>
       <c r="J2256" s="6" t="s">
@@ -64358,10 +64371,10 @@
     </row>
     <row r="2257" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2257" s="3" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B2257" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C2257" s="5"/>
       <c r="D2257" s="6"/>
@@ -64369,7 +64382,7 @@
       <c r="F2257" s="6"/>
       <c r="G2257" s="5"/>
       <c r="H2257" s="6" t="s">
-        <v>645</v>
+        <v>733</v>
       </c>
       <c r="I2257" s="5"/>
       <c r="J2257" s="6" t="s">
@@ -64381,7 +64394,7 @@
         <v>1401</v>
       </c>
       <c r="B2258" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C2258" s="5"/>
       <c r="D2258" s="6"/>
@@ -64389,7 +64402,7 @@
       <c r="F2258" s="6"/>
       <c r="G2258" s="5"/>
       <c r="H2258" s="6" t="s">
-        <v>1404</v>
+        <v>645</v>
       </c>
       <c r="I2258" s="5"/>
       <c r="J2258" s="6" t="s">
@@ -64401,7 +64414,7 @@
         <v>1401</v>
       </c>
       <c r="B2259" s="3" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C2259" s="5"/>
       <c r="D2259" s="6"/>
@@ -64409,7 +64422,7 @@
       <c r="F2259" s="6"/>
       <c r="G2259" s="5"/>
       <c r="H2259" s="6" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="I2259" s="5"/>
       <c r="J2259" s="6" t="s">
@@ -64421,23 +64434,15 @@
         <v>1401</v>
       </c>
       <c r="B2260" s="3" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C2260" s="5" t="s">
-        <v>1408</v>
-      </c>
+        <v>1405</v>
+      </c>
+      <c r="C2260" s="5"/>
       <c r="D2260" s="6"/>
-      <c r="E2260" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="F2260" s="6" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G2260" s="5" t="s">
-        <v>1409</v>
-      </c>
+      <c r="E2260" s="5"/>
+      <c r="F2260" s="6"/>
+      <c r="G2260" s="5"/>
       <c r="H2260" s="6" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="I2260" s="5"/>
       <c r="J2260" s="6" t="s">
@@ -64449,17 +64454,23 @@
         <v>1401</v>
       </c>
       <c r="B2261" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C2261" s="5"/>
+        <v>1407</v>
+      </c>
+      <c r="C2261" s="5" t="s">
+        <v>1408</v>
+      </c>
       <c r="D2261" s="6"/>
-      <c r="E2261" s="5"/>
-      <c r="F2261" s="6"/>
+      <c r="E2261" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="F2261" s="6" t="s">
+        <v>1066</v>
+      </c>
       <c r="G2261" s="5" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="H2261" s="6" t="s">
-        <v>590</v>
+        <v>1410</v>
       </c>
       <c r="I2261" s="5"/>
       <c r="J2261" s="6" t="s">
@@ -64471,15 +64482,17 @@
         <v>1401</v>
       </c>
       <c r="B2262" s="3" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C2262" s="5"/>
       <c r="D2262" s="6"/>
       <c r="E2262" s="5"/>
       <c r="F2262" s="6"/>
-      <c r="G2262" s="5"/>
+      <c r="G2262" s="5" t="s">
+        <v>1412</v>
+      </c>
       <c r="H2262" s="6" t="s">
-        <v>1414</v>
+        <v>590</v>
       </c>
       <c r="I2262" s="5"/>
       <c r="J2262" s="6" t="s">
@@ -64491,7 +64504,7 @@
         <v>1401</v>
       </c>
       <c r="B2263" s="3" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C2263" s="5"/>
       <c r="D2263" s="6"/>
@@ -64499,7 +64512,7 @@
       <c r="F2263" s="6"/>
       <c r="G2263" s="5"/>
       <c r="H2263" s="6" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="I2263" s="5"/>
       <c r="J2263" s="6" t="s">
@@ -64511,7 +64524,7 @@
         <v>1401</v>
       </c>
       <c r="B2264" s="3" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C2264" s="5"/>
       <c r="D2264" s="6"/>
@@ -64519,7 +64532,7 @@
       <c r="F2264" s="6"/>
       <c r="G2264" s="5"/>
       <c r="H2264" s="6" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="I2264" s="5"/>
       <c r="J2264" s="6" t="s">
@@ -64528,10 +64541,10 @@
     </row>
     <row r="2265" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2265" s="3" t="s">
-        <v>1419</v>
+        <v>1401</v>
       </c>
       <c r="B2265" s="3" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="C2265" s="5"/>
       <c r="D2265" s="6"/>
@@ -64539,7 +64552,7 @@
       <c r="F2265" s="6"/>
       <c r="G2265" s="5"/>
       <c r="H2265" s="6" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="I2265" s="5"/>
       <c r="J2265" s="6" t="s">
@@ -64548,10 +64561,10 @@
     </row>
     <row r="2266" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2266" s="3" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="B2266" s="3" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="C2266" s="5"/>
       <c r="D2266" s="6"/>
@@ -64559,7 +64572,7 @@
       <c r="F2266" s="6"/>
       <c r="G2266" s="5"/>
       <c r="H2266" s="6" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="I2266" s="5"/>
       <c r="J2266" s="6" t="s">
@@ -64571,17 +64584,15 @@
         <v>1422</v>
       </c>
       <c r="B2267" s="3" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C2267" s="5"/>
       <c r="D2267" s="6"/>
       <c r="E2267" s="5"/>
-      <c r="F2267" s="6" t="s">
-        <v>826</v>
-      </c>
+      <c r="F2267" s="6"/>
       <c r="G2267" s="5"/>
       <c r="H2267" s="6" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="I2267" s="5"/>
       <c r="J2267" s="6" t="s">
@@ -64590,19 +64601,21 @@
     </row>
     <row r="2268" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2268" s="3" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="B2268" s="3" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C2268" s="5"/>
       <c r="D2268" s="6"/>
       <c r="E2268" s="5"/>
-      <c r="F2268" s="6"/>
-      <c r="G2268" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="H2268" s="6"/>
+      <c r="F2268" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="G2268" s="5"/>
+      <c r="H2268" s="6" t="s">
+        <v>1426</v>
+      </c>
       <c r="I2268" s="5"/>
       <c r="J2268" s="6" t="s">
         <v>1509</v>
@@ -64610,21 +64623,19 @@
     </row>
     <row r="2269" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2269" s="3" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B2269" s="3" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C2269" s="5"/>
       <c r="D2269" s="6"/>
       <c r="E2269" s="5"/>
       <c r="F2269" s="6"/>
       <c r="G2269" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="H2269" s="6" t="s">
-        <v>905</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="H2269" s="6"/>
       <c r="I2269" s="5"/>
       <c r="J2269" s="6" t="s">
         <v>1509</v>
@@ -64632,19 +64643,21 @@
     </row>
     <row r="2270" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2270" s="3" t="s">
-        <v>452</v>
+        <v>1429</v>
       </c>
       <c r="B2270" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C2270" s="5"/>
-      <c r="D2270" s="6" t="s">
-        <v>992</v>
-      </c>
+      <c r="D2270" s="6"/>
       <c r="E2270" s="5"/>
       <c r="F2270" s="6"/>
-      <c r="G2270" s="5"/>
-      <c r="H2270" s="6"/>
+      <c r="G2270" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="H2270" s="6" t="s">
+        <v>905</v>
+      </c>
       <c r="I2270" s="5"/>
       <c r="J2270" s="6" t="s">
         <v>1509</v>
@@ -64652,14 +64665,12 @@
     </row>
     <row r="2271" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2271" s="3" t="s">
-        <v>1432</v>
+        <v>452</v>
       </c>
       <c r="B2271" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C2271" s="5" t="s">
-        <v>679</v>
-      </c>
+        <v>1431</v>
+      </c>
+      <c r="C2271" s="5"/>
       <c r="D2271" s="6" t="s">
         <v>992</v>
       </c>
@@ -64674,15 +64685,17 @@
     </row>
     <row r="2272" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2272" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B2272" s="3" t="s">
         <v>453</v>
       </c>
       <c r="C2272" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="D2272" s="6"/>
+        <v>679</v>
+      </c>
+      <c r="D2272" s="6" t="s">
+        <v>992</v>
+      </c>
       <c r="E2272" s="5"/>
       <c r="F2272" s="6"/>
       <c r="G2272" s="5"/>
@@ -64694,19 +64707,19 @@
     </row>
     <row r="2273" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2273" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B2273" s="3" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C2273" s="5"/>
+        <v>453</v>
+      </c>
+      <c r="C2273" s="5" t="s">
+        <v>633</v>
+      </c>
       <c r="D2273" s="6"/>
       <c r="E2273" s="5"/>
       <c r="F2273" s="6"/>
       <c r="G2273" s="5"/>
-      <c r="H2273" s="6" t="s">
-        <v>671</v>
-      </c>
+      <c r="H2273" s="6"/>
       <c r="I2273" s="5"/>
       <c r="J2273" s="6" t="s">
         <v>1509</v>
@@ -64714,20 +64727,18 @@
     </row>
     <row r="2274" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2274" s="3" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B2274" s="3" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C2274" s="5"/>
       <c r="D2274" s="6"/>
       <c r="E2274" s="5"/>
       <c r="F2274" s="6"/>
-      <c r="G2274" s="5" t="s">
-        <v>608</v>
-      </c>
+      <c r="G2274" s="5"/>
       <c r="H2274" s="6" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="I2274" s="5"/>
       <c r="J2274" s="6" t="s">
@@ -64736,18 +64747,20 @@
     </row>
     <row r="2275" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2275" s="3" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B2275" s="3" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C2275" s="5"/>
       <c r="D2275" s="6"/>
       <c r="E2275" s="5"/>
       <c r="F2275" s="6"/>
-      <c r="G2275" s="5"/>
+      <c r="G2275" s="5" t="s">
+        <v>608</v>
+      </c>
       <c r="H2275" s="6" t="s">
-        <v>1440</v>
+        <v>649</v>
       </c>
       <c r="I2275" s="5"/>
       <c r="J2275" s="6" t="s">
@@ -64756,24 +64769,18 @@
     </row>
     <row r="2276" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2276" s="3" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="B2276" s="3" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C2276" s="5" t="s">
-        <v>1443</v>
-      </c>
+        <v>1439</v>
+      </c>
+      <c r="C2276" s="5"/>
       <c r="D2276" s="6"/>
-      <c r="E2276" s="5" t="s">
-        <v>941</v>
-      </c>
-      <c r="F2276" s="6" t="s">
-        <v>1444</v>
-      </c>
+      <c r="E2276" s="5"/>
+      <c r="F2276" s="6"/>
       <c r="G2276" s="5"/>
       <c r="H2276" s="6" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="I2276" s="5"/>
       <c r="J2276" s="6" t="s">
@@ -64785,15 +64792,21 @@
         <v>1441</v>
       </c>
       <c r="B2277" s="3" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C2277" s="5"/>
+        <v>1442</v>
+      </c>
+      <c r="C2277" s="5" t="s">
+        <v>1443</v>
+      </c>
       <c r="D2277" s="6"/>
-      <c r="E2277" s="5"/>
-      <c r="F2277" s="6"/>
+      <c r="E2277" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="F2277" s="6" t="s">
+        <v>1444</v>
+      </c>
       <c r="G2277" s="5"/>
       <c r="H2277" s="6" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="I2277" s="5"/>
       <c r="J2277" s="6" t="s">
@@ -64805,19 +64818,15 @@
         <v>1441</v>
       </c>
       <c r="B2278" s="3" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="C2278" s="5"/>
       <c r="D2278" s="6"/>
-      <c r="E2278" s="5" t="s">
-        <v>1449</v>
-      </c>
-      <c r="F2278" s="6" t="s">
-        <v>717</v>
-      </c>
+      <c r="E2278" s="5"/>
+      <c r="F2278" s="6"/>
       <c r="G2278" s="5"/>
       <c r="H2278" s="6" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="I2278" s="5"/>
       <c r="J2278" s="6" t="s">
@@ -64829,15 +64838,19 @@
         <v>1441</v>
       </c>
       <c r="B2279" s="3" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C2279" s="5"/>
       <c r="D2279" s="6"/>
-      <c r="E2279" s="5"/>
-      <c r="F2279" s="6"/>
+      <c r="E2279" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F2279" s="6" t="s">
+        <v>717</v>
+      </c>
       <c r="G2279" s="5"/>
       <c r="H2279" s="6" t="s">
-        <v>833</v>
+        <v>1450</v>
       </c>
       <c r="I2279" s="5"/>
       <c r="J2279" s="6" t="s">
@@ -64846,20 +64859,18 @@
     </row>
     <row r="2280" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2280" s="3" t="s">
-        <v>468</v>
+        <v>1441</v>
       </c>
       <c r="B2280" s="3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C2280" s="5"/>
       <c r="D2280" s="6"/>
-      <c r="E2280" s="5" t="s">
-        <v>895</v>
-      </c>
+      <c r="E2280" s="5"/>
       <c r="F2280" s="6"/>
       <c r="G2280" s="5"/>
       <c r="H2280" s="6" t="s">
-        <v>726</v>
+        <v>833</v>
       </c>
       <c r="I2280" s="5"/>
       <c r="J2280" s="6" t="s">
@@ -64871,16 +64882,18 @@
         <v>468</v>
       </c>
       <c r="B2281" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C2281" s="5"/>
-      <c r="D2281" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="E2281" s="5"/>
+      <c r="D2281" s="6"/>
+      <c r="E2281" s="5" t="s">
+        <v>895</v>
+      </c>
       <c r="F2281" s="6"/>
       <c r="G2281" s="5"/>
-      <c r="H2281" s="6"/>
+      <c r="H2281" s="6" t="s">
+        <v>726</v>
+      </c>
       <c r="I2281" s="5"/>
       <c r="J2281" s="6" t="s">
         <v>1509</v>
@@ -64891,16 +64904,16 @@
         <v>468</v>
       </c>
       <c r="B2282" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C2282" s="5"/>
-      <c r="D2282" s="6"/>
+      <c r="D2282" s="6" t="s">
+        <v>609</v>
+      </c>
       <c r="E2282" s="5"/>
       <c r="F2282" s="6"/>
       <c r="G2282" s="5"/>
-      <c r="H2282" s="6" t="s">
-        <v>652</v>
-      </c>
+      <c r="H2282" s="6"/>
       <c r="I2282" s="5"/>
       <c r="J2282" s="6" t="s">
         <v>1509</v>
@@ -64911,19 +64924,15 @@
         <v>468</v>
       </c>
       <c r="B2283" s="3" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C2283" s="5" t="s">
-        <v>879</v>
-      </c>
+        <v>1454</v>
+      </c>
+      <c r="C2283" s="5"/>
       <c r="D2283" s="6"/>
-      <c r="E2283" s="5" t="s">
-        <v>1456</v>
-      </c>
+      <c r="E2283" s="5"/>
       <c r="F2283" s="6"/>
       <c r="G2283" s="5"/>
       <c r="H2283" s="6" t="s">
-        <v>1457</v>
+        <v>652</v>
       </c>
       <c r="I2283" s="5"/>
       <c r="J2283" s="6" t="s">
@@ -64932,24 +64941,22 @@
     </row>
     <row r="2284" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2284" s="3" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B2284" s="3" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C2284" s="5" t="s">
-        <v>1459</v>
+        <v>879</v>
       </c>
       <c r="D2284" s="6"/>
       <c r="E2284" s="5" t="s">
-        <v>1052</v>
+        <v>1456</v>
       </c>
       <c r="F2284" s="6"/>
-      <c r="G2284" s="5" t="s">
-        <v>964</v>
-      </c>
+      <c r="G2284" s="5"/>
       <c r="H2284" s="6" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="I2284" s="5"/>
       <c r="J2284" s="6" t="s">
@@ -64961,16 +64968,22 @@
         <v>480</v>
       </c>
       <c r="B2285" s="3" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C2285" s="5"/>
+        <v>1458</v>
+      </c>
+      <c r="C2285" s="5" t="s">
+        <v>1459</v>
+      </c>
       <c r="D2285" s="6"/>
-      <c r="E2285" s="5"/>
-      <c r="F2285" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="G2285" s="5"/>
-      <c r="H2285" s="6"/>
+      <c r="E2285" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F2285" s="6"/>
+      <c r="G2285" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="H2285" s="6" t="s">
+        <v>1460</v>
+      </c>
       <c r="I2285" s="5"/>
       <c r="J2285" s="6" t="s">
         <v>1509</v>
@@ -64978,17 +64991,17 @@
     </row>
     <row r="2286" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2286" s="3" t="s">
-        <v>1462</v>
+        <v>480</v>
       </c>
       <c r="B2286" s="3" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C2286" s="5" t="s">
-        <v>786</v>
-      </c>
+        <v>1461</v>
+      </c>
+      <c r="C2286" s="5"/>
       <c r="D2286" s="6"/>
       <c r="E2286" s="5"/>
-      <c r="F2286" s="6"/>
+      <c r="F2286" s="6" t="s">
+        <v>656</v>
+      </c>
       <c r="G2286" s="5"/>
       <c r="H2286" s="6"/>
       <c r="I2286" s="5"/>
@@ -64998,63 +65011,61 @@
     </row>
     <row r="2287" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2287" s="3" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B2287" s="3" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C2287" s="5"/>
+        <v>1463</v>
+      </c>
+      <c r="C2287" s="5" t="s">
+        <v>786</v>
+      </c>
       <c r="D2287" s="6"/>
       <c r="E2287" s="5"/>
       <c r="F2287" s="6"/>
       <c r="G2287" s="5"/>
-      <c r="H2287" s="6" t="s">
-        <v>1466</v>
-      </c>
-      <c r="I2287" s="5" t="s">
-        <v>1138</v>
-      </c>
+      <c r="H2287" s="6"/>
+      <c r="I2287" s="5"/>
       <c r="J2287" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2288" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2288" s="3" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B2288" s="3" t="s">
-        <v>538</v>
+        <v>1465</v>
       </c>
       <c r="C2288" s="5"/>
       <c r="D2288" s="6"/>
       <c r="E2288" s="5"/>
-      <c r="F2288" s="6" t="s">
-        <v>697</v>
-      </c>
+      <c r="F2288" s="6"/>
       <c r="G2288" s="5"/>
-      <c r="H2288" s="6"/>
-      <c r="I2288" s="5"/>
+      <c r="H2288" s="6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I2288" s="5" t="s">
+        <v>1138</v>
+      </c>
       <c r="J2288" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2289" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2289" s="3" t="s">
-        <v>502</v>
+        <v>1467</v>
       </c>
       <c r="B2289" s="3" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C2289" s="5" t="s">
-        <v>1469</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="C2289" s="5"/>
       <c r="D2289" s="6"/>
       <c r="E2289" s="5"/>
-      <c r="F2289" s="6"/>
+      <c r="F2289" s="6" t="s">
+        <v>697</v>
+      </c>
       <c r="G2289" s="5"/>
-      <c r="H2289" s="6" t="s">
-        <v>1470</v>
-      </c>
+      <c r="H2289" s="6"/>
       <c r="I2289" s="5"/>
       <c r="J2289" s="6" t="s">
         <v>1509</v>
@@ -65065,19 +65076,17 @@
         <v>502</v>
       </c>
       <c r="B2290" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="C2290" s="5" t="s">
-        <v>664</v>
+        <v>1469</v>
       </c>
       <c r="D2290" s="6"/>
       <c r="E2290" s="5"/>
-      <c r="F2290" s="6" t="s">
-        <v>825</v>
-      </c>
+      <c r="F2290" s="6"/>
       <c r="G2290" s="5"/>
       <c r="H2290" s="6" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="I2290" s="5"/>
       <c r="J2290" s="6" t="s">
@@ -65089,17 +65098,19 @@
         <v>502</v>
       </c>
       <c r="B2291" s="3" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C2291" s="5"/>
+        <v>1471</v>
+      </c>
+      <c r="C2291" s="5" t="s">
+        <v>664</v>
+      </c>
       <c r="D2291" s="6"/>
       <c r="E2291" s="5"/>
       <c r="F2291" s="6" t="s">
-        <v>741</v>
+        <v>825</v>
       </c>
       <c r="G2291" s="5"/>
       <c r="H2291" s="6" t="s">
-        <v>590</v>
+        <v>1472</v>
       </c>
       <c r="I2291" s="5"/>
       <c r="J2291" s="6" t="s">
@@ -65108,19 +65119,21 @@
     </row>
     <row r="2292" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2292" s="3" t="s">
-        <v>1474</v>
+        <v>502</v>
       </c>
       <c r="B2292" s="3" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="C2292" s="5"/>
       <c r="D2292" s="6"/>
-      <c r="E2292" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F2292" s="6"/>
+      <c r="E2292" s="5"/>
+      <c r="F2292" s="6" t="s">
+        <v>741</v>
+      </c>
       <c r="G2292" s="5"/>
-      <c r="H2292" s="6"/>
+      <c r="H2292" s="6" t="s">
+        <v>590</v>
+      </c>
       <c r="I2292" s="5"/>
       <c r="J2292" s="6" t="s">
         <v>1509</v>
@@ -65128,19 +65141,19 @@
     </row>
     <row r="2293" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2293" s="3" t="s">
-        <v>522</v>
+        <v>1474</v>
       </c>
       <c r="B2293" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C2293" s="5"/>
       <c r="D2293" s="6"/>
-      <c r="E2293" s="5"/>
+      <c r="E2293" s="5" t="s">
+        <v>1067</v>
+      </c>
       <c r="F2293" s="6"/>
       <c r="G2293" s="5"/>
-      <c r="H2293" s="6" t="s">
-        <v>590</v>
-      </c>
+      <c r="H2293" s="6"/>
       <c r="I2293" s="5"/>
       <c r="J2293" s="6" t="s">
         <v>1509</v>
@@ -65148,10 +65161,10 @@
     </row>
     <row r="2294" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2294" s="3" t="s">
-        <v>1477</v>
+        <v>522</v>
       </c>
       <c r="B2294" s="3" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="C2294" s="5"/>
       <c r="D2294" s="6"/>
@@ -65159,7 +65172,7 @@
       <c r="F2294" s="6"/>
       <c r="G2294" s="5"/>
       <c r="H2294" s="6" t="s">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="I2294" s="5"/>
       <c r="J2294" s="6" t="s">
@@ -65168,7 +65181,7 @@
     </row>
     <row r="2295" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2295" s="3" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B2295" s="3" t="s">
         <v>1478</v>
@@ -65179,7 +65192,7 @@
       <c r="F2295" s="6"/>
       <c r="G2295" s="5"/>
       <c r="H2295" s="6" t="s">
-        <v>1480</v>
+        <v>624</v>
       </c>
       <c r="I2295" s="5"/>
       <c r="J2295" s="6" t="s">
@@ -65188,10 +65201,10 @@
     </row>
     <row r="2296" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2296" s="3" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B2296" s="3" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C2296" s="5"/>
       <c r="D2296" s="6"/>
@@ -65199,7 +65212,7 @@
       <c r="F2296" s="6"/>
       <c r="G2296" s="5"/>
       <c r="H2296" s="6" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="I2296" s="5"/>
       <c r="J2296" s="6" t="s">
@@ -65208,20 +65221,18 @@
     </row>
     <row r="2297" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2297" s="3" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="B2297" s="3" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="C2297" s="5"/>
       <c r="D2297" s="6"/>
-      <c r="E2297" s="5" t="s">
-        <v>1486</v>
-      </c>
+      <c r="E2297" s="5"/>
       <c r="F2297" s="6"/>
       <c r="G2297" s="5"/>
       <c r="H2297" s="6" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="I2297" s="5"/>
       <c r="J2297" s="6" t="s">
@@ -65230,46 +65241,42 @@
     </row>
     <row r="2298" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2298" s="3" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="B2298" s="3" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="C2298" s="5"/>
       <c r="D2298" s="6"/>
-      <c r="E2298" s="5"/>
+      <c r="E2298" s="5" t="s">
+        <v>1486</v>
+      </c>
       <c r="F2298" s="6"/>
       <c r="G2298" s="5"/>
-      <c r="H2298" s="6"/>
-      <c r="I2298" s="5" t="s">
-        <v>1140</v>
-      </c>
+      <c r="H2298" s="6" t="s">
+        <v>1487</v>
+      </c>
+      <c r="I2298" s="5"/>
       <c r="J2298" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="2299" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2299" s="3" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="B2299" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C2299" s="5" t="s">
-        <v>741</v>
-      </c>
+        <v>1489</v>
+      </c>
+      <c r="C2299" s="5"/>
       <c r="D2299" s="6"/>
       <c r="E2299" s="5"/>
-      <c r="F2299" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="G2299" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="H2299" s="6" t="s">
-        <v>1491</v>
-      </c>
-      <c r="I2299" s="5"/>
+      <c r="F2299" s="6"/>
+      <c r="G2299" s="5"/>
+      <c r="H2299" s="6"/>
+      <c r="I2299" s="5" t="s">
+        <v>1140</v>
+      </c>
       <c r="J2299" s="6" t="s">
         <v>1509</v>
       </c>
@@ -65279,17 +65286,21 @@
         <v>1484</v>
       </c>
       <c r="B2300" s="3" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C2300" s="5"/>
+        <v>1490</v>
+      </c>
+      <c r="C2300" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="D2300" s="6"/>
       <c r="E2300" s="5"/>
-      <c r="F2300" s="6"/>
+      <c r="F2300" s="6" t="s">
+        <v>823</v>
+      </c>
       <c r="G2300" s="5" t="s">
-        <v>682</v>
+        <v>631</v>
       </c>
       <c r="H2300" s="6" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="I2300" s="5"/>
       <c r="J2300" s="6" t="s">
@@ -65301,19 +65312,17 @@
         <v>1484</v>
       </c>
       <c r="B2301" s="3" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C2301" s="5" t="s">
-        <v>964</v>
-      </c>
+        <v>1492</v>
+      </c>
+      <c r="C2301" s="5"/>
       <c r="D2301" s="6"/>
-      <c r="E2301" s="5" t="s">
-        <v>799</v>
-      </c>
+      <c r="E2301" s="5"/>
       <c r="F2301" s="6"/>
-      <c r="G2301" s="5"/>
+      <c r="G2301" s="5" t="s">
+        <v>682</v>
+      </c>
       <c r="H2301" s="6" t="s">
-        <v>590</v>
+        <v>1493</v>
       </c>
       <c r="I2301" s="5"/>
       <c r="J2301" s="6" t="s">
@@ -65322,19 +65331,23 @@
     </row>
     <row r="2302" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2302" s="3" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
       <c r="B2302" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C2302" s="5"/>
+        <v>1494</v>
+      </c>
+      <c r="C2302" s="5" t="s">
+        <v>964</v>
+      </c>
       <c r="D2302" s="6"/>
-      <c r="E2302" s="5"/>
+      <c r="E2302" s="5" t="s">
+        <v>799</v>
+      </c>
       <c r="F2302" s="6"/>
-      <c r="G2302" s="5" t="s">
-        <v>1496</v>
-      </c>
-      <c r="H2302" s="6"/>
+      <c r="G2302" s="5"/>
+      <c r="H2302" s="6" t="s">
+        <v>590</v>
+      </c>
       <c r="I2302" s="5"/>
       <c r="J2302" s="6" t="s">
         <v>1509</v>
@@ -65342,19 +65355,19 @@
     </row>
     <row r="2303" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2303" s="3" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B2303" s="3" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
       <c r="C2303" s="5"/>
       <c r="D2303" s="6"/>
       <c r="E2303" s="5"/>
       <c r="F2303" s="6"/>
-      <c r="G2303" s="5"/>
-      <c r="H2303" s="6" t="s">
-        <v>712</v>
-      </c>
+      <c r="G2303" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H2303" s="6"/>
       <c r="I2303" s="5"/>
       <c r="J2303" s="6" t="s">
         <v>1509</v>
@@ -65362,10 +65375,10 @@
     </row>
     <row r="2304" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2304" s="3" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B2304" s="3" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="C2304" s="5"/>
       <c r="D2304" s="6"/>
@@ -65373,7 +65386,7 @@
       <c r="F2304" s="6"/>
       <c r="G2304" s="5"/>
       <c r="H2304" s="6" t="s">
-        <v>601</v>
+        <v>712</v>
       </c>
       <c r="I2304" s="5"/>
       <c r="J2304" s="6" t="s">
@@ -65382,20 +65395,18 @@
     </row>
     <row r="2305" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2305" s="3" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B2305" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="C2305" s="5" t="s">
-        <v>717</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="C2305" s="5"/>
       <c r="D2305" s="6"/>
       <c r="E2305" s="5"/>
       <c r="F2305" s="6"/>
       <c r="G2305" s="5"/>
       <c r="H2305" s="6" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="I2305" s="5"/>
       <c r="J2305" s="6" t="s">
@@ -65404,18 +65415,20 @@
     </row>
     <row r="2306" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2306" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B2306" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C2306" s="5"/>
+        <v>572</v>
+      </c>
+      <c r="C2306" s="5" t="s">
+        <v>717</v>
+      </c>
       <c r="D2306" s="6"/>
       <c r="E2306" s="5"/>
       <c r="F2306" s="6"/>
       <c r="G2306" s="5"/>
       <c r="H2306" s="6" t="s">
-        <v>4048</v>
+        <v>588</v>
       </c>
       <c r="I2306" s="5"/>
       <c r="J2306" s="6" t="s">
@@ -65424,22 +65437,18 @@
     </row>
     <row r="2307" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2307" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B2307" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="C2307" s="5" t="s">
-        <v>1066</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="C2307" s="5"/>
       <c r="D2307" s="6"/>
-      <c r="E2307" s="5" t="s">
-        <v>904</v>
-      </c>
+      <c r="E2307" s="5"/>
       <c r="F2307" s="6"/>
       <c r="G2307" s="5"/>
       <c r="H2307" s="6" t="s">
-        <v>1504</v>
+        <v>4048</v>
       </c>
       <c r="I2307" s="5"/>
       <c r="J2307" s="6" t="s">
@@ -65448,21 +65457,45 @@
     </row>
     <row r="2308" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2308" s="3" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B2308" s="3" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C2308" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="C2308" s="5" t="s">
+        <v>1066</v>
+      </c>
       <c r="D2308" s="6"/>
-      <c r="E2308" s="5"/>
+      <c r="E2308" s="5" t="s">
+        <v>904</v>
+      </c>
       <c r="F2308" s="6"/>
       <c r="G2308" s="5"/>
       <c r="H2308" s="6" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="I2308" s="5"/>
       <c r="J2308" s="6" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2309" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B2309" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C2309" s="5"/>
+      <c r="D2309" s="6"/>
+      <c r="E2309" s="5"/>
+      <c r="F2309" s="6"/>
+      <c r="G2309" s="5"/>
+      <c r="H2309" s="6" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I2309" s="5"/>
+      <c r="J2309" s="6" t="s">
         <v>1509</v>
       </c>
     </row>
